--- a/src/attributions/attributions_saliency_traj_191.xlsx
+++ b/src/attributions/attributions_saliency_traj_191.xlsx
@@ -1004,6261 +1004,6261 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.006904571317136288</v>
+        <v>9.649659477872774e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00157245818991214</v>
+        <v>0.0006523407646454871</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001387564465403557</v>
+        <v>0.0001160809115390293</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001873145345598459</v>
+        <v>0.0002433180634398013</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001149042276665568</v>
+        <v>8.286144293379039e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004010576289147139</v>
+        <v>0.0008541257120668888</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00328914588317275</v>
+        <v>8.206101483665407e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002069899346679449</v>
+        <v>0.0003400545683689415</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001444876776076853</v>
+        <v>6.865363684482872e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006247757934033871</v>
+        <v>4.161404285696335e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0006813304498791695</v>
+        <v>0.0005950130871497095</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007738569984212518</v>
+        <v>0.0001064019888872281</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001110432203859091</v>
+        <v>0.0002368062705500051</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003239362500607967</v>
+        <v>0.0001594454952282831</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001231217407621443</v>
+        <v>0.0005994983366690576</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0035245839972049</v>
+        <v>6.340446998365223e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0009407578618265688</v>
+        <v>0.0002889399183914065</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0001421716588083655</v>
+        <v>1.554033588035963e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0002565853064879775</v>
+        <v>4.727095438283868e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0003225893888156861</v>
+        <v>5.254672942101024e-05</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0001439255429431796</v>
+        <v>1.504926694906317e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0003262782702222466</v>
+        <v>0.0001241297431988642</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00120685319416225</v>
+        <v>8.233147673308849e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001008702674880624</v>
+        <v>7.061909855110571e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001191386021673679</v>
+        <v>7.217719030450098e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001599102164618671</v>
+        <v>1.922329829540104e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.001098939799703658</v>
+        <v>1.311141750193201e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0004867643001489341</v>
+        <v>1.496640379627934e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.000139812909765169</v>
+        <v>3.525195279507898e-05</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0004670641792472452</v>
+        <v>8.162613085005432e-05</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.790181992575526e-05</v>
+        <v>3.829999332083389e-05</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0008112579816952348</v>
+        <v>3.779160397243686e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0007070527062751353</v>
+        <v>3.503231710055843e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0004657086683437228</v>
+        <v>0.000107282045064494</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.00166336924303323</v>
+        <v>3.643264790298417e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0001684716262388974</v>
+        <v>3.99083219235763e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.001511154230684042</v>
+        <v>0.0001125852650147863</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0005093197687529027</v>
+        <v>3.596687383833341e-05</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0008430082816630602</v>
+        <v>4.367433211882599e-05</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.001373790320940316</v>
+        <v>9.376914022141136e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0004489061830099672</v>
+        <v>2.178032627853099e-05</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.001249572494998574</v>
+        <v>0.0001566677528899163</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0005362288793548942</v>
+        <v>3.564327926142141e-07</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0002255828003399074</v>
+        <v>0.0001116431085392833</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0002485118457116187</v>
+        <v>2.556066647230182e-05</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.003050984814763069</v>
+        <v>1.176011937786825e-05</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0003877119743265212</v>
+        <v>0.0003558892931323498</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0008331857388839126</v>
+        <v>9.338276868220419e-06</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.001086744363419712</v>
+        <v>7.834822463337332e-05</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.002000785665586591</v>
+        <v>0.0001757422141963616</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.001924500335007906</v>
+        <v>0.0006031141965650022</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.00162013340741396</v>
+        <v>0.000108128268038854</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0008286912343464792</v>
+        <v>4.295246981200762e-05</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0009025029139593244</v>
+        <v>9.056403359863907e-05</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.002365255495533347</v>
+        <v>7.636441296199337e-05</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0004261277499608696</v>
+        <v>0.0001864517398644239</v>
       </c>
       <c r="BE2" t="n">
-        <v>2.563558518886566e-05</v>
+        <v>0.0001195664517581463</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0004609073512256145</v>
+        <v>0.0001155819045379758</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.000348408124409616</v>
+        <v>0.0001242953003384173</v>
       </c>
       <c r="BH2" t="n">
-        <v>2.306328678969294e-05</v>
+        <v>7.510821160394698e-05</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.001277759205549955</v>
+        <v>2.222857256128918e-05</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.002249219920486212</v>
+        <v>2.804678297252394e-05</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0002587995259091258</v>
+        <v>2.365908949286677e-05</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.126014002598822e-06</v>
+        <v>4.886844908469357e-05</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0002040670806309208</v>
+        <v>0.0001864799414761364</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0003878782736137509</v>
+        <v>4.610616088029929e-05</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0005408289143815637</v>
+        <v>3.676423511933535e-05</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0008588311029598117</v>
+        <v>8.162800804711878e-05</v>
       </c>
       <c r="BQ2" t="n">
-        <v>4.124114639125764e-06</v>
+        <v>4.256059037288651e-05</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.000746307778172195</v>
+        <v>1.322305979556404e-05</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0004621757543645799</v>
+        <v>5.241709732217714e-05</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0008919652900658548</v>
+        <v>7.450264820363373e-05</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.002694128546863794</v>
+        <v>1.465994500904344e-06</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0008999835699796677</v>
+        <v>0.0002066009619738907</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0003390838392078876</v>
+        <v>3.803660365520045e-05</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.00212686532177031</v>
+        <v>8.333592995768413e-05</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.002040711697191</v>
+        <v>0.0001048361154971644</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.001910361461341381</v>
+        <v>0.0002755514578893781</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.001036190195009112</v>
+        <v>2.342523657716811e-06</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.001018773182295263</v>
+        <v>0.0001181311527034268</v>
       </c>
       <c r="CC2" t="n">
-        <v>4.855346196563914e-05</v>
+        <v>2.37773474509595e-06</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.001452836906537414</v>
+        <v>1.702792724245228e-05</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0003976011939812452</v>
+        <v>0.0001052208899636753</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.000236010630032979</v>
+        <v>7.729668141109869e-06</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0006027610506862402</v>
+        <v>2.189196311519481e-05</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0003630914143286645</v>
+        <v>3.563338395906612e-05</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0002156653063138947</v>
+        <v>0.0001088598219212145</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0005608635256066918</v>
+        <v>1.186209192383103e-05</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0001050797145580873</v>
+        <v>5.972565850242972e-05</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0003228927962481976</v>
+        <v>9.727743417897727e-06</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.001136303297244012</v>
+        <v>8.093908400041983e-05</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.001411863137036562</v>
+        <v>9.035924449563026e-06</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0006277452921494842</v>
+        <v>1.040174356603529e-05</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0004354887059889734</v>
+        <v>3.712339093908668e-05</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.001343435375019908</v>
+        <v>4.125035411561839e-05</v>
       </c>
       <c r="CR2" t="n">
-        <v>2.941022103186697e-05</v>
+        <v>0.0001109745135181583</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.260894350707531e-05</v>
+        <v>5.046647856943309e-05</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.001650835270993412</v>
+        <v>6.666334229521453e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0003163158835377544</v>
+        <v>0.0001172470292658545</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.001265655620954931</v>
+        <v>3.180700514349155e-05</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0003101075708400458</v>
+        <v>9.802423301152885e-05</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0001455039891880006</v>
+        <v>2.584329195087776e-06</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0006383190047927201</v>
+        <v>3.680312511278316e-05</v>
       </c>
       <c r="CZ2" t="n">
-        <v>4.120590529055335e-05</v>
+        <v>2.543776281527244e-05</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0002637447905726731</v>
+        <v>0.0001240577548742294</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0006419942947104573</v>
+        <v>1.61953539645765e-06</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0003700544184539467</v>
+        <v>8.573402010370046e-05</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0006015824037604034</v>
+        <v>3.370911508682184e-05</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0006739926757290959</v>
+        <v>9.88856190815568e-05</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.002297739963978529</v>
+        <v>0.0003036843845620751</v>
       </c>
       <c r="DG2" t="n">
-        <v>4.508451092988253e-05</v>
+        <v>5.850994057254866e-06</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0002208130899816751</v>
+        <v>0.000117006893560756</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.001054140971973538</v>
+        <v>0.0003353479842189699</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0006344561697915196</v>
+        <v>4.771474414155819e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0007088371785357594</v>
+        <v>4.867945244768634e-05</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0002331792493350804</v>
+        <v>0.0001299573050346226</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0007202705019153655</v>
+        <v>0.0001971669553313404</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0001168511807918549</v>
+        <v>1.029596569424029e-05</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0006653853924944997</v>
+        <v>0.0001549712906125933</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0004258727421984076</v>
+        <v>4.668341352953576e-05</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.000675065559335053</v>
+        <v>2.607762689876836e-05</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0005093554500490427</v>
+        <v>6.319565000012517e-05</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.001118961139582098</v>
+        <v>6.599166954401881e-05</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0001611251645954326</v>
+        <v>6.98715666658245e-05</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0003002304874826223</v>
+        <v>4.985290797776543e-05</v>
       </c>
       <c r="DV2" t="n">
-        <v>6.651920557487756e-06</v>
+        <v>2.250487159471959e-05</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0003323780838400126</v>
+        <v>1.657813118072227e-05</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0001404595095664263</v>
+        <v>8.381782390642911e-05</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.000217159278690815</v>
+        <v>7.823393389116973e-06</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0003918194852303714</v>
+        <v>1.111269375542179e-05</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0002075739030260593</v>
+        <v>3.041593663510866e-05</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0004543855902738869</v>
+        <v>7.142144750105217e-05</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0008442588150501251</v>
+        <v>8.139446435961872e-06</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0007233821088448167</v>
+        <v>5.574019087362103e-05</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0001033584267133847</v>
+        <v>8.405882545048371e-05</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.002388717141002417</v>
+        <v>3.99458731408231e-05</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.001278223004192114</v>
+        <v>3.674261461128481e-05</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0001289397332584485</v>
+        <v>2.517655775591265e-05</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0004310342483222485</v>
+        <v>1.617284397070762e-05</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0001153955527115613</v>
+        <v>5.664823402184993e-05</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0005211459938436747</v>
+        <v>8.538334077456966e-05</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0002076956006931141</v>
+        <v>2.634742668305989e-05</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0003894141409546137</v>
+        <v>4.480202187551185e-05</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0004002064233645797</v>
+        <v>4.00997196265962e-05</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0003074196283705533</v>
+        <v>4.221372364554554e-05</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0001753057003952563</v>
+        <v>2.946990207419731e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>8.076248923316598e-05</v>
+        <v>5.033891648054123e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>4.43386088591069e-05</v>
+        <v>2.423093246761709e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0004775718552991748</v>
+        <v>8.502007403876632e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0009920945158228278</v>
+        <v>1.984036316571292e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0004063664237037301</v>
+        <v>1.588226587045938e-05</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.000288675568299368</v>
+        <v>0.0001746327907312661</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0003933430998586118</v>
+        <v>2.86143331322819e-05</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.001227713190019131</v>
+        <v>2.239261630165856e-05</v>
       </c>
       <c r="EY2" t="n">
-        <v>8.92766984179616e-05</v>
+        <v>7.445939991157502e-05</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0001402535126544535</v>
+        <v>1.770843482518103e-05</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0005316443275660276</v>
+        <v>1.554909613332711e-05</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0003123852366115898</v>
+        <v>2.609116381790955e-05</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0003423098823986948</v>
+        <v>0.0001157530350610614</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0004445081867743284</v>
+        <v>2.328089794900734e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>5.080017217551358e-05</v>
+        <v>6.908333307364956e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0002235446590930223</v>
+        <v>2.201764436904341e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0005652848049066961</v>
+        <v>2.029709685302805e-05</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.001723911380395293</v>
+        <v>4.149604137637652e-06</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0005909234751015902</v>
+        <v>1.549372973386198e-05</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0007426546653732657</v>
+        <v>4.167703082202934e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0002815882908180356</v>
+        <v>4.63211108581163e-05</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.0001357669243589044</v>
+        <v>8.692545816302299e-05</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0003424182068556547</v>
+        <v>8.507246093358845e-05</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0004274999955669045</v>
+        <v>2.92389522655867e-05</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0003436285187490284</v>
+        <v>4.057127080159262e-05</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0004734529939014465</v>
+        <v>3.705603376147337e-05</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.002324906643480062</v>
+        <v>1.659281224419829e-05</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0008329473785124719</v>
+        <v>2.836095518432558e-07</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.001047615194693208</v>
+        <v>8.497751696268097e-05</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0008870902820490301</v>
+        <v>3.55516021954827e-06</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0009181969799101353</v>
+        <v>5.975515159661882e-05</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0007378154550679028</v>
+        <v>7.912010187283158e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0004074343014508486</v>
+        <v>8.271585102193058e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0006446788320317864</v>
+        <v>3.35486292897258e-05</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.000432389002526179</v>
+        <v>6.947971996851265e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0003561555058695376</v>
+        <v>1.175855459223385e-06</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.000443518249085173</v>
+        <v>1.201007944473531e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0002444565761834383</v>
+        <v>4.155794158577919e-05</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.000301970198052004</v>
+        <v>0.0002787032281048596</v>
       </c>
       <c r="GD2" t="n">
-        <v>6.406525790225714e-05</v>
+        <v>8.657536818645895e-05</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0001755004195729271</v>
+        <v>7.041244680294767e-05</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.000310596835333854</v>
+        <v>2.646396751515567e-06</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.001240746350958943</v>
+        <v>3.818458935711533e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0003373455256223679</v>
+        <v>0.0004709749191533774</v>
       </c>
       <c r="B3" t="n">
-        <v>7.74276559241116e-05</v>
+        <v>0.004207930061966181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003370752383489162</v>
+        <v>0.0004205753502901644</v>
       </c>
       <c r="D3" t="n">
-        <v>4.874716250924394e-05</v>
+        <v>0.001703456393443048</v>
       </c>
       <c r="E3" t="n">
-        <v>2.247638076369185e-05</v>
+        <v>0.001225308049470186</v>
       </c>
       <c r="F3" t="n">
-        <v>6.930196832399815e-06</v>
+        <v>0.001650947378948331</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001565787679282948</v>
+        <v>0.0005577674019150436</v>
       </c>
       <c r="H3" t="n">
-        <v>9.139268513536081e-05</v>
+        <v>0.0008331997669301927</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001028483820846304</v>
+        <v>0.000771503197029233</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002947041066363454</v>
+        <v>0.0001627511228434741</v>
       </c>
       <c r="K3" t="n">
-        <v>1.365083153359592e-05</v>
+        <v>0.004547774326056242</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003452385135460645</v>
+        <v>0.0004149626474827528</v>
       </c>
       <c r="M3" t="n">
-        <v>9.066316124517471e-06</v>
+        <v>0.0006101630278863013</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0002321643114555627</v>
+        <v>0.000721229356713593</v>
       </c>
       <c r="O3" t="n">
-        <v>2.119951204804238e-06</v>
+        <v>0.001804137136787176</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0002227149379905313</v>
+        <v>0.0008514102082699537</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.102769111748785e-05</v>
+        <v>0.0001155912468675524</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0001346352801192552</v>
+        <v>0.0006803765427321196</v>
       </c>
       <c r="S3" t="n">
-        <v>5.158992644282989e-05</v>
+        <v>0.000181289913598448</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0001042797375703231</v>
+        <v>0.000521461945027113</v>
       </c>
       <c r="U3" t="n">
-        <v>4.235449523548596e-05</v>
+        <v>0.0004747249477077276</v>
       </c>
       <c r="V3" t="n">
-        <v>3.693807957461104e-05</v>
+        <v>3.358167305123061e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>2.974040580738802e-05</v>
+        <v>0.0007331662345677614</v>
       </c>
       <c r="X3" t="n">
-        <v>4.240431371727027e-05</v>
+        <v>0.0001071804144885391</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.057998062809929e-05</v>
+        <v>7.791470852680504e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0001104238908737898</v>
+        <v>0.0002606003545224667</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.626802026701625e-06</v>
+        <v>0.0003079265006817877</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.312310946057551e-05</v>
+        <v>0.000258321117144078</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.994594276766293e-05</v>
+        <v>9.763523848960176e-05</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.057123310805764e-05</v>
+        <v>0.0007456309394910932</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.94039520365186e-05</v>
+        <v>0.0003125197254121304</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.074057126970729e-05</v>
+        <v>0.0002298479957971722</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.740372944273986e-05</v>
+        <v>0.0001066927798092365</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.390553461533273e-05</v>
+        <v>4.43904718849808e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0001206192246172577</v>
+        <v>0.0004506261320784688</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.847306238138117e-05</v>
+        <v>0.0001223428407683969</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.368118243291974e-05</v>
+        <v>0.0002209646627306938</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0001040169372572564</v>
+        <v>0.0006450403016060591</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.911036426667124e-05</v>
+        <v>0.0003735934151336551</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.140206096461043e-05</v>
+        <v>2.672999107744545e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.243484621227253e-05</v>
+        <v>0.0003484273620415479</v>
       </c>
       <c r="AP3" t="n">
-        <v>6.596342427656054e-05</v>
+        <v>0.0003725396818481386</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.78583627025364e-06</v>
+        <v>2.568722993601114e-05</v>
       </c>
       <c r="AR3" t="n">
-        <v>9.808603863348253e-06</v>
+        <v>0.0001269438362214714</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.147159764514072e-05</v>
+        <v>0.0003540088946465403</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0001763915934134275</v>
+        <v>0.0008908382151275873</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.000125136342830956</v>
+        <v>0.002769257873296738</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0001716412662062794</v>
+        <v>0.0004351093084551394</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.938097481499426e-05</v>
+        <v>0.0001972818281501532</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.706102688738611e-06</v>
+        <v>0.001016476075164974</v>
       </c>
       <c r="AY3" t="n">
-        <v>8.354985766345635e-05</v>
+        <v>0.001135148806497455</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2.346986002521589e-05</v>
+        <v>0.0007406687363982201</v>
       </c>
       <c r="BA3" t="n">
-        <v>8.097373938653618e-05</v>
+        <v>0.0003283188561908901</v>
       </c>
       <c r="BB3" t="n">
-        <v>6.021430817781948e-05</v>
+        <v>0.0002488654863554984</v>
       </c>
       <c r="BC3" t="n">
-        <v>7.056778849801049e-05</v>
+        <v>7.20054013072513e-05</v>
       </c>
       <c r="BD3" t="n">
-        <v>1.001935652311658e-05</v>
+        <v>0.001182849169708788</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.0001320182054769248</v>
+        <v>7.796719728503376e-06</v>
       </c>
       <c r="BF3" t="n">
-        <v>6.46324479021132e-05</v>
+        <v>2.122574369423091e-05</v>
       </c>
       <c r="BG3" t="n">
-        <v>8.89512593857944e-05</v>
+        <v>0.001964494818821549</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.334032913291594e-05</v>
+        <v>0.0008147138287313282</v>
       </c>
       <c r="BI3" t="n">
-        <v>4.386199725558981e-05</v>
+        <v>0.0003127120435237885</v>
       </c>
       <c r="BJ3" t="n">
-        <v>8.251337567344308e-05</v>
+        <v>0.0002668655361048877</v>
       </c>
       <c r="BK3" t="n">
-        <v>6.941866013221443e-05</v>
+        <v>0.0006750179454684258</v>
       </c>
       <c r="BL3" t="n">
-        <v>3.348591781104915e-05</v>
+        <v>0.0005787218688055873</v>
       </c>
       <c r="BM3" t="n">
-        <v>3.545979416230693e-05</v>
+        <v>0.0006579409819096327</v>
       </c>
       <c r="BN3" t="n">
-        <v>5.88129878451582e-05</v>
+        <v>8.480969700030982e-05</v>
       </c>
       <c r="BO3" t="n">
-        <v>3.427208866924047e-05</v>
+        <v>0.0003310281899757683</v>
       </c>
       <c r="BP3" t="n">
-        <v>7.452995487255976e-05</v>
+        <v>0.000272013945505023</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.939268804562744e-05</v>
+        <v>0.0002334980090381578</v>
       </c>
       <c r="BR3" t="n">
-        <v>5.674514977727085e-05</v>
+        <v>0.0001237021933775395</v>
       </c>
       <c r="BS3" t="n">
-        <v>3.69130284525454e-05</v>
+        <v>0.0002334989403607324</v>
       </c>
       <c r="BT3" t="n">
-        <v>3.372124774614349e-05</v>
+        <v>0.0001598736271262169</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.0001152093900600448</v>
+        <v>0.0004840019391849637</v>
       </c>
       <c r="BV3" t="n">
-        <v>5.497847450897098e-05</v>
+        <v>0.001347736571915448</v>
       </c>
       <c r="BW3" t="n">
-        <v>7.507725240429863e-05</v>
+        <v>0.0001863660581875592</v>
       </c>
       <c r="BX3" t="n">
-        <v>9.24014238989912e-05</v>
+        <v>0.000282908440567553</v>
       </c>
       <c r="BY3" t="n">
-        <v>2.210114143963438e-05</v>
+        <v>0.0002782925148494542</v>
       </c>
       <c r="BZ3" t="n">
-        <v>7.39630195312202e-05</v>
+        <v>0.0002725061785895377</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.799646815925371e-05</v>
+        <v>0.0002396176569163799</v>
       </c>
       <c r="CB3" t="n">
-        <v>3.372199716977775e-05</v>
+        <v>0.0001920713693834841</v>
       </c>
       <c r="CC3" t="n">
-        <v>2.270229560963344e-05</v>
+        <v>0.0003301118267700076</v>
       </c>
       <c r="CD3" t="n">
-        <v>6.095083881518804e-05</v>
+        <v>0.000157724047312513</v>
       </c>
       <c r="CE3" t="n">
-        <v>7.29673556634225e-05</v>
+        <v>0.0007327881176024675</v>
       </c>
       <c r="CF3" t="n">
-        <v>7.358592847594991e-05</v>
+        <v>4.419838660396636e-06</v>
       </c>
       <c r="CG3" t="n">
-        <v>2.253517232020386e-05</v>
+        <v>0.000310495583107695</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.710290962364525e-05</v>
+        <v>8.545517630409449e-05</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.49846473505022e-05</v>
+        <v>0.0002129405183950439</v>
       </c>
       <c r="CJ3" t="n">
-        <v>4.607060327543877e-05</v>
+        <v>0.0004995304043404758</v>
       </c>
       <c r="CK3" t="n">
-        <v>3.954768908442929e-05</v>
+        <v>0.0001121359600801952</v>
       </c>
       <c r="CL3" t="n">
-        <v>3.97237499782932e-06</v>
+        <v>0.000123724399600178</v>
       </c>
       <c r="CM3" t="n">
-        <v>3.981481313530821e-07</v>
+        <v>0.0009377010283060372</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.0001085473122657277</v>
+        <v>0.0004875122976955026</v>
       </c>
       <c r="CO3" t="n">
-        <v>4.282001464162022e-05</v>
+        <v>2.330585266463459e-05</v>
       </c>
       <c r="CP3" t="n">
-        <v>2.277831299579702e-05</v>
+        <v>0.00165302655659616</v>
       </c>
       <c r="CQ3" t="n">
-        <v>4.724165773950517e-05</v>
+        <v>0.0004862895584665239</v>
       </c>
       <c r="CR3" t="n">
-        <v>1.382285881845746e-05</v>
+        <v>5.232476178207435e-05</v>
       </c>
       <c r="CS3" t="n">
-        <v>1.983731999644078e-05</v>
+        <v>0.001223181141540408</v>
       </c>
       <c r="CT3" t="n">
-        <v>1.169441020465456e-06</v>
+        <v>0.0008856923086568713</v>
       </c>
       <c r="CU3" t="n">
-        <v>9.286175190936774e-05</v>
+        <v>8.621608139947057e-05</v>
       </c>
       <c r="CV3" t="n">
-        <v>5.600276926998049e-05</v>
+        <v>9.101477917283773e-05</v>
       </c>
       <c r="CW3" t="n">
-        <v>5.767736729467288e-05</v>
+        <v>0.0006992483977228403</v>
       </c>
       <c r="CX3" t="n">
-        <v>7.65939912525937e-05</v>
+        <v>4.099405487067997e-06</v>
       </c>
       <c r="CY3" t="n">
-        <v>3.058791480725631e-05</v>
+        <v>0.0004489694256335497</v>
       </c>
       <c r="CZ3" t="n">
-        <v>2.374532232352067e-05</v>
+        <v>0.0001575700152898207</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.046591933118179e-07</v>
+        <v>0.0002473506901878864</v>
       </c>
       <c r="DB3" t="n">
-        <v>4.786905628861859e-05</v>
+        <v>0.0004571193421725184</v>
       </c>
       <c r="DC3" t="n">
-        <v>2.602880886115599e-05</v>
+        <v>8.363937376998365e-05</v>
       </c>
       <c r="DD3" t="n">
-        <v>3.856905095744878e-06</v>
+        <v>6.393319927155972e-05</v>
       </c>
       <c r="DE3" t="n">
-        <v>3.653004387160763e-05</v>
+        <v>0.0004189565952401608</v>
       </c>
       <c r="DF3" t="n">
-        <v>9.814130316954106e-05</v>
+        <v>0.000768067897297442</v>
       </c>
       <c r="DG3" t="n">
-        <v>2.656222568475641e-05</v>
+        <v>7.489915878977627e-05</v>
       </c>
       <c r="DH3" t="n">
-        <v>2.504586518625729e-06</v>
+        <v>0.001128742704167962</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.11922645373852e-05</v>
+        <v>0.001548820175230503</v>
       </c>
       <c r="DJ3" t="n">
-        <v>3.68776818504557e-06</v>
+        <v>0.000431833672337234</v>
       </c>
       <c r="DK3" t="n">
-        <v>7.187252776930109e-05</v>
+        <v>0.0002729783882386982</v>
       </c>
       <c r="DL3" t="n">
-        <v>1.165681715065148e-05</v>
+        <v>0.0001431278651580215</v>
       </c>
       <c r="DM3" t="n">
-        <v>7.51434636185877e-05</v>
+        <v>0.0007193420897237957</v>
       </c>
       <c r="DN3" t="n">
-        <v>7.972294042701833e-06</v>
+        <v>0.000198424982954748</v>
       </c>
       <c r="DO3" t="n">
-        <v>8.472256013192236e-05</v>
+        <v>1.773059193510562e-05</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.972120298887603e-05</v>
+        <v>0.0006900549633428454</v>
       </c>
       <c r="DQ3" t="n">
-        <v>4.483515294850804e-05</v>
+        <v>0.0001729162904666737</v>
       </c>
       <c r="DR3" t="n">
-        <v>4.157899456913583e-05</v>
+        <v>0.0008904647547751665</v>
       </c>
       <c r="DS3" t="n">
-        <v>1.493757463322254e-05</v>
+        <v>0.001113950274884701</v>
       </c>
       <c r="DT3" t="n">
-        <v>1.872112261480652e-05</v>
+        <v>0.0003224838292226195</v>
       </c>
       <c r="DU3" t="n">
-        <v>2.863431654986925e-05</v>
+        <v>0.0001511121372459456</v>
       </c>
       <c r="DV3" t="n">
-        <v>4.345746128819883e-05</v>
+        <v>0.0001252857182407752</v>
       </c>
       <c r="DW3" t="n">
-        <v>8.808974598650821e-07</v>
+        <v>0.0001744265900924802</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.035628131125122e-05</v>
+        <v>0.0003413674130570143</v>
       </c>
       <c r="DY3" t="n">
-        <v>1.546135536045767e-05</v>
+        <v>0.0002299275947734714</v>
       </c>
       <c r="DZ3" t="n">
-        <v>3.761190964723937e-05</v>
+        <v>0.0006359651451930404</v>
       </c>
       <c r="EA3" t="n">
-        <v>5.55078404431697e-05</v>
+        <v>0.000126040744362399</v>
       </c>
       <c r="EB3" t="n">
-        <v>2.878565646824427e-05</v>
+        <v>0.0003735430655069649</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.07874620880466e-05</v>
+        <v>0.0004688982153311372</v>
       </c>
       <c r="ED3" t="n">
-        <v>7.826209184713662e-05</v>
+        <v>0.0008573629893362522</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.436353340977803e-05</v>
+        <v>0.0006167390383780003</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.0001034945817082189</v>
+        <v>0.0002251849073218182</v>
       </c>
       <c r="EG3" t="n">
-        <v>6.461556040449068e-05</v>
+        <v>0.000803942559286952</v>
       </c>
       <c r="EH3" t="n">
-        <v>6.637654587393627e-05</v>
+        <v>5.897191658732481e-05</v>
       </c>
       <c r="EI3" t="n">
-        <v>1.740803782013245e-05</v>
+        <v>0.0002464521676301956</v>
       </c>
       <c r="EJ3" t="n">
-        <v>3.046741767320782e-05</v>
+        <v>0.0001346460194326937</v>
       </c>
       <c r="EK3" t="n">
-        <v>5.80466803512536e-06</v>
+        <v>0.0004521373193711042</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.325726407230832e-05</v>
+        <v>0.0004118478100281209</v>
       </c>
       <c r="EM3" t="n">
-        <v>6.75324336043559e-05</v>
+        <v>0.0002389772271271795</v>
       </c>
       <c r="EN3" t="n">
-        <v>4.34668836533092e-05</v>
+        <v>6.789116014260799e-05</v>
       </c>
       <c r="EO3" t="n">
-        <v>7.380431270576082e-07</v>
+        <v>0.0002869319869205356</v>
       </c>
       <c r="EP3" t="n">
-        <v>2.08392521017231e-05</v>
+        <v>0.0005508110043592751</v>
       </c>
       <c r="EQ3" t="n">
-        <v>2.509675141482148e-05</v>
+        <v>0.0002238417218904942</v>
       </c>
       <c r="ER3" t="n">
-        <v>4.01414254156407e-05</v>
+        <v>0.0002440313255647197</v>
       </c>
       <c r="ES3" t="n">
-        <v>5.074579166830517e-05</v>
+        <v>0.000251206016400829</v>
       </c>
       <c r="ET3" t="n">
-        <v>8.744681690586731e-05</v>
+        <v>0.0001054269669111818</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.0001178618986159563</v>
+        <v>0.0004640755942091346</v>
       </c>
       <c r="EV3" t="n">
-        <v>4.289829121262301e-06</v>
+        <v>0.0005453939666040242</v>
       </c>
       <c r="EW3" t="n">
-        <v>3.891234882757999e-05</v>
+        <v>0.0004554288752842695</v>
       </c>
       <c r="EX3" t="n">
-        <v>5.033859633840621e-05</v>
+        <v>0.0002612034440971911</v>
       </c>
       <c r="EY3" t="n">
-        <v>5.178236460778862e-05</v>
+        <v>0.000633681658655405</v>
       </c>
       <c r="EZ3" t="n">
-        <v>8.16399697214365e-05</v>
+        <v>8.35491155157797e-05</v>
       </c>
       <c r="FA3" t="n">
-        <v>2.3692653485341e-05</v>
+        <v>0.0001367883232887834</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.296135451411828e-06</v>
+        <v>9.831639908952639e-05</v>
       </c>
       <c r="FC3" t="n">
-        <v>5.119307843415299e-06</v>
+        <v>0.0003912905231118202</v>
       </c>
       <c r="FD3" t="n">
-        <v>4.778777292813174e-05</v>
+        <v>0.0004984073457308114</v>
       </c>
       <c r="FE3" t="n">
-        <v>3.162120265187696e-05</v>
+        <v>1.158328541350784e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.364877607556991e-05</v>
+        <v>0.0001838742173276842</v>
       </c>
       <c r="FG3" t="n">
-        <v>6.699393998133019e-05</v>
+        <v>0.0002067634777631611</v>
       </c>
       <c r="FH3" t="n">
-        <v>2.63472247752361e-06</v>
+        <v>0.0002639983722474426</v>
       </c>
       <c r="FI3" t="n">
-        <v>3.851330257020891e-05</v>
+        <v>0.0002564619644545019</v>
       </c>
       <c r="FJ3" t="n">
-        <v>9.989007958211005e-05</v>
+        <v>0.001234645955264568</v>
       </c>
       <c r="FK3" t="n">
-        <v>3.813379225903191e-05</v>
+        <v>0.0003997833991888911</v>
       </c>
       <c r="FL3" t="n">
-        <v>8.709380927029997e-05</v>
+        <v>0.0002270354598294944</v>
       </c>
       <c r="FM3" t="n">
-        <v>1.425482514605392e-05</v>
+        <v>0.0003055518318433315</v>
       </c>
       <c r="FN3" t="n">
-        <v>9.779649553820491e-05</v>
+        <v>9.152745769824833e-05</v>
       </c>
       <c r="FO3" t="n">
-        <v>4.71429229946807e-05</v>
+        <v>0.000128079394926317</v>
       </c>
       <c r="FP3" t="n">
-        <v>6.374078657245263e-05</v>
+        <v>0.0008197508286684752</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.0002110257773892954</v>
+        <v>0.000163751799846068</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.772886389517225e-05</v>
+        <v>2.138915806426667e-05</v>
       </c>
       <c r="FS3" t="n">
-        <v>5.439265805762261e-05</v>
+        <v>0.000701776472851634</v>
       </c>
       <c r="FT3" t="n">
-        <v>4.651469498639926e-05</v>
+        <v>0.0001313896500505507</v>
       </c>
       <c r="FU3" t="n">
-        <v>4.584381167660467e-05</v>
+        <v>2.849863085430115e-05</v>
       </c>
       <c r="FV3" t="n">
-        <v>6.108391971793026e-06</v>
+        <v>0.0004325404588598758</v>
       </c>
       <c r="FW3" t="n">
-        <v>6.505404599010944e-06</v>
+        <v>0.0004767355567310005</v>
       </c>
       <c r="FX3" t="n">
-        <v>6.405198655556887e-05</v>
+        <v>0.0001322892057942227</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.014441507635638e-05</v>
+        <v>0.000944619532674551</v>
       </c>
       <c r="FZ3" t="n">
-        <v>7.105305485310964e-06</v>
+        <v>0.0001065715114236809</v>
       </c>
       <c r="GA3" t="n">
-        <v>3.407482290640473e-05</v>
+        <v>0.000122761630336754</v>
       </c>
       <c r="GB3" t="n">
-        <v>2.258098538732156e-05</v>
+        <v>1.649336263653822e-05</v>
       </c>
       <c r="GC3" t="n">
-        <v>3.609729901654646e-05</v>
+        <v>3.909628139808774e-05</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.0001210046830237843</v>
+        <v>0.0004995089257135987</v>
       </c>
       <c r="GE3" t="n">
-        <v>2.38063348660944e-05</v>
+        <v>0.000526284275110811</v>
       </c>
       <c r="GF3" t="n">
-        <v>2.928535104729235e-05</v>
+        <v>0.0001916626060847193</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.467207948735449e-05</v>
+        <v>0.0003870390064548701</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.176458944333717e-05</v>
+        <v>3.230899991990555e-09</v>
       </c>
       <c r="B4" t="n">
-        <v>2.119276723533403e-05</v>
+        <v>1.976799701708387e-08</v>
       </c>
       <c r="C4" t="n">
-        <v>9.935149591910886e-08</v>
+        <v>3.9718703326308e-10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.107084947056137e-05</v>
+        <v>2.000717458372492e-08</v>
       </c>
       <c r="E4" t="n">
-        <v>1.929999234562274e-05</v>
+        <v>4.079200977002984e-09</v>
       </c>
       <c r="F4" t="n">
-        <v>3.916085915989242e-06</v>
+        <v>2.754690642259305e-10</v>
       </c>
       <c r="G4" t="n">
-        <v>1.857786264736205e-05</v>
+        <v>1.095519674976231e-09</v>
       </c>
       <c r="H4" t="n">
-        <v>4.132957201363752e-06</v>
+        <v>3.96832167126604e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>2.748713086475618e-06</v>
+        <v>3.334627018958258e-10</v>
       </c>
       <c r="J4" t="n">
-        <v>4.495134635362774e-05</v>
+        <v>4.572096479193988e-09</v>
       </c>
       <c r="K4" t="n">
-        <v>1.147976490756264e-05</v>
+        <v>1.391975157361003e-08</v>
       </c>
       <c r="L4" t="n">
-        <v>6.179488991620019e-06</v>
+        <v>5.840491978936768e-10</v>
       </c>
       <c r="M4" t="n">
-        <v>1.490741942689056e-05</v>
+        <v>1.105789859678907e-08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.871997821785044e-05</v>
+        <v>7.725595274621355e-09</v>
       </c>
       <c r="O4" t="n">
-        <v>1.587795850355178e-07</v>
+        <v>8.976128285098639e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>2.406573184998706e-05</v>
+        <v>6.807999941571552e-09</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.707712489311234e-07</v>
+        <v>7.487935604899576e-09</v>
       </c>
       <c r="R4" t="n">
-        <v>7.671581442991737e-06</v>
+        <v>8.318211675018006e-10</v>
       </c>
       <c r="S4" t="n">
-        <v>7.726328021817608e-09</v>
+        <v>7.696928649991719e-10</v>
       </c>
       <c r="T4" t="n">
-        <v>1.807461558200885e-07</v>
+        <v>5.376254552658111e-09</v>
       </c>
       <c r="U4" t="n">
-        <v>6.181601861499075e-07</v>
+        <v>1.517798220440625e-09</v>
       </c>
       <c r="V4" t="n">
-        <v>1.344431439065374e-06</v>
+        <v>4.061387892662083e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>1.207943796543987e-06</v>
+        <v>6.339218039386196e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>1.296612822443421e-06</v>
+        <v>5.046522311147328e-09</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.246184749310487e-07</v>
+        <v>5.278443904188634e-09</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.933793883945327e-06</v>
+        <v>1.315159203763017e-09</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.741931328069768e-06</v>
+        <v>3.937037362788942e-09</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.42083045426989e-06</v>
+        <v>6.705835886577916e-10</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.482406893657753e-06</v>
+        <v>6.194250841418114e-12</v>
       </c>
       <c r="AD4" t="n">
-        <v>4.552998689177912e-06</v>
+        <v>1.566192731061733e-09</v>
       </c>
       <c r="AE4" t="n">
-        <v>3.823843144346029e-06</v>
+        <v>1.912254576907912e-09</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.511746045769542e-07</v>
+        <v>1.836255592024827e-09</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.995171260205097e-06</v>
+        <v>1.804155380646932e-09</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.275857130167424e-06</v>
+        <v>1.482786338158348e-09</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.00283423307701e-05</v>
+        <v>3.854789820678661e-09</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3.868296516884584e-06</v>
+        <v>1.375495051192388e-09</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.041790255840169e-05</v>
+        <v>2.475403770851869e-10</v>
       </c>
       <c r="AL4" t="n">
-        <v>6.10302322456846e-06</v>
+        <v>4.551353072201891e-09</v>
       </c>
       <c r="AM4" t="n">
-        <v>3.41091504196811e-06</v>
+        <v>2.571430290920773e-10</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.389675829472253e-06</v>
+        <v>1.888537326522055e-09</v>
       </c>
       <c r="AO4" t="n">
-        <v>4.204161996312905e-06</v>
+        <v>9.384577559501395e-10</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.703290192584973e-06</v>
+        <v>1.277828953760718e-09</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.043947006313829e-06</v>
+        <v>2.49128362383999e-09</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.364015017519705e-06</v>
+        <v>3.205001153361309e-09</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.90258788279607e-07</v>
+        <v>2.553753430944994e-09</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.388108441664372e-05</v>
+        <v>3.906285073185245e-09</v>
       </c>
       <c r="AU4" t="n">
-        <v>3.384066076250747e-06</v>
+        <v>1.237830282718733e-08</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.902724761748686e-06</v>
+        <v>1.111014391597109e-09</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.428141205105931e-06</v>
+        <v>1.0766547653418e-08</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.757307356660021e-06</v>
+        <v>4.504426609486245e-09</v>
       </c>
       <c r="AY4" t="n">
-        <v>7.135865416785236e-06</v>
+        <v>7.849215721833502e-10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.734832608235592e-06</v>
+        <v>5.71049785236255e-09</v>
       </c>
       <c r="BA4" t="n">
-        <v>5.602761120826472e-06</v>
+        <v>3.43560468962778e-09</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.349258238609764e-06</v>
+        <v>3.510725932187597e-09</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.444983081455575e-05</v>
+        <v>2.324364256622857e-09</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.74470517069858e-06</v>
+        <v>4.557918487080315e-09</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.152656523117912e-06</v>
+        <v>4.314438584174241e-09</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.454573407499993e-06</v>
+        <v>1.34415389929643e-09</v>
       </c>
       <c r="BG4" t="n">
-        <v>8.922784218157176e-06</v>
+        <v>4.082119531290118e-09</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.816107442209614e-06</v>
+        <v>6.875396918459842e-10</v>
       </c>
       <c r="BI4" t="n">
-        <v>9.711171514936723e-06</v>
+        <v>1.565589768937059e-09</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.484414951846702e-05</v>
+        <v>8.572007104135082e-09</v>
       </c>
       <c r="BK4" t="n">
-        <v>2.438680439809104e-06</v>
+        <v>1.572583618880685e-09</v>
       </c>
       <c r="BL4" t="n">
-        <v>2.761084033409134e-06</v>
+        <v>2.782051478078529e-09</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.059700298355892e-05</v>
+        <v>1.918701642011911e-09</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.621487854208681e-06</v>
+        <v>3.863844799667504e-09</v>
       </c>
       <c r="BO4" t="n">
-        <v>2.203653821197804e-06</v>
+        <v>1.889287837286702e-09</v>
       </c>
       <c r="BP4" t="n">
-        <v>9.069704901776277e-06</v>
+        <v>1.387005066355584e-09</v>
       </c>
       <c r="BQ4" t="n">
-        <v>5.193767265154747e-07</v>
+        <v>3.91980670144676e-10</v>
       </c>
       <c r="BR4" t="n">
-        <v>4.608426024788059e-06</v>
+        <v>1.736949473141181e-09</v>
       </c>
       <c r="BS4" t="n">
-        <v>2.336704483241192e-06</v>
+        <v>5.072620101742586e-11</v>
       </c>
       <c r="BT4" t="n">
-        <v>2.345650045754155e-06</v>
+        <v>3.862115488528772e-12</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.608217462489847e-05</v>
+        <v>5.459699359278147e-10</v>
       </c>
       <c r="BV4" t="n">
-        <v>3.248412895118236e-06</v>
+        <v>7.806270296839557e-09</v>
       </c>
       <c r="BW4" t="n">
-        <v>4.42421151092276e-06</v>
+        <v>1.398010818220996e-09</v>
       </c>
       <c r="BX4" t="n">
-        <v>1.181517927761888e-05</v>
+        <v>3.532916181825385e-09</v>
       </c>
       <c r="BY4" t="n">
-        <v>8.804708159004804e-06</v>
+        <v>1.214970679619398e-09</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2.005174110308872e-06</v>
+        <v>1.466331944754984e-09</v>
       </c>
       <c r="CA4" t="n">
-        <v>3.59691489393299e-06</v>
+        <v>3.204493781439055e-09</v>
       </c>
       <c r="CB4" t="n">
-        <v>3.379477902853978e-06</v>
+        <v>2.170556845371152e-09</v>
       </c>
       <c r="CC4" t="n">
-        <v>3.408315478736768e-06</v>
+        <v>3.496243516920572e-09</v>
       </c>
       <c r="CD4" t="n">
-        <v>9.900481927616056e-06</v>
+        <v>7.767472776087914e-10</v>
       </c>
       <c r="CE4" t="n">
-        <v>1.139935284300009e-05</v>
+        <v>2.834923407135648e-09</v>
       </c>
       <c r="CF4" t="n">
-        <v>9.71910594671499e-07</v>
+        <v>2.65873301152908e-09</v>
       </c>
       <c r="CG4" t="n">
-        <v>3.562546226021368e-06</v>
+        <v>1.308363639651589e-09</v>
       </c>
       <c r="CH4" t="n">
-        <v>4.278239430277608e-06</v>
+        <v>1.357958079317712e-09</v>
       </c>
       <c r="CI4" t="n">
-        <v>2.587228209449677e-07</v>
+        <v>9.091536967709146e-10</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3.615833747971919e-06</v>
+        <v>3.127020309356965e-10</v>
       </c>
       <c r="CK4" t="n">
-        <v>1.013343648992304e-06</v>
+        <v>1.182577646918759e-10</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.734483248583274e-06</v>
+        <v>2.545706978551721e-09</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.065044443748775e-07</v>
+        <v>2.637086771173358e-09</v>
       </c>
       <c r="CN4" t="n">
-        <v>1.809905825211899e-06</v>
+        <v>1.375902503042425e-09</v>
       </c>
       <c r="CO4" t="n">
-        <v>2.917183792305877e-06</v>
+        <v>1.987801034886161e-10</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.286909764530719e-06</v>
+        <v>3.222973443683941e-09</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2.566825060057454e-06</v>
+        <v>1.460444654100002e-09</v>
       </c>
       <c r="CR4" t="n">
-        <v>3.031418600585312e-07</v>
+        <v>2.758091088850279e-09</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.495979802257352e-07</v>
+        <v>5.840327776951426e-09</v>
       </c>
       <c r="CT4" t="n">
-        <v>5.660543138219509e-06</v>
+        <v>6.399374363752486e-09</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.348450609839347e-06</v>
+        <v>1.592885379153586e-09</v>
       </c>
       <c r="CV4" t="n">
-        <v>7.928088962216862e-06</v>
+        <v>9.325807903692862e-10</v>
       </c>
       <c r="CW4" t="n">
-        <v>1.145550959336106e-05</v>
+        <v>2.277299238073738e-09</v>
       </c>
       <c r="CX4" t="n">
-        <v>3.246039113946608e-06</v>
+        <v>2.385459163534165e-09</v>
       </c>
       <c r="CY4" t="n">
-        <v>3.141215529467445e-06</v>
+        <v>3.493698441658921e-09</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1.822288822950213e-06</v>
+        <v>1.229796597890243e-09</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.313006691816554e-06</v>
+        <v>1.355096812538648e-09</v>
       </c>
       <c r="DB4" t="n">
-        <v>4.207802703604102e-06</v>
+        <v>3.057210873347316e-10</v>
       </c>
       <c r="DC4" t="n">
-        <v>2.734313397922961e-07</v>
+        <v>6.018884279868075e-10</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.624920514586847e-06</v>
+        <v>1.656839554442513e-09</v>
       </c>
       <c r="DE4" t="n">
-        <v>3.608116458053701e-06</v>
+        <v>5.992116802744363e-10</v>
       </c>
       <c r="DF4" t="n">
-        <v>1.800829159037676e-05</v>
+        <v>6.065724034165498e-10</v>
       </c>
       <c r="DG4" t="n">
-        <v>5.922061973251402e-06</v>
+        <v>8.006822760364685e-09</v>
       </c>
       <c r="DH4" t="n">
-        <v>1.700600478216074e-06</v>
+        <v>1.775676317095076e-08</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.271706537409045e-06</v>
+        <v>1.521711467944442e-08</v>
       </c>
       <c r="DJ4" t="n">
-        <v>5.951164894213434e-08</v>
+        <v>1.146223449488559e-09</v>
       </c>
       <c r="DK4" t="n">
-        <v>2.11948008654872e-06</v>
+        <v>2.360601047968203e-09</v>
       </c>
       <c r="DL4" t="n">
-        <v>6.68963775751763e-06</v>
+        <v>1.130959947914789e-08</v>
       </c>
       <c r="DM4" t="n">
-        <v>4.090870334039209e-06</v>
+        <v>1.32290178811445e-09</v>
       </c>
       <c r="DN4" t="n">
-        <v>2.385444304309203e-06</v>
+        <v>8.451398469944138e-10</v>
       </c>
       <c r="DO4" t="n">
-        <v>7.731424375378992e-06</v>
+        <v>8.479728030863498e-10</v>
       </c>
       <c r="DP4" t="n">
-        <v>2.636505769260111e-06</v>
+        <v>2.641214136289705e-09</v>
       </c>
       <c r="DQ4" t="n">
-        <v>7.475295547010319e-07</v>
+        <v>7.052051165246098e-10</v>
       </c>
       <c r="DR4" t="n">
-        <v>4.864616130362265e-06</v>
+        <v>1.988926801033131e-09</v>
       </c>
       <c r="DS4" t="n">
-        <v>7.780298005855002e-07</v>
+        <v>2.586679759275512e-09</v>
       </c>
       <c r="DT4" t="n">
-        <v>6.916150141478283e-07</v>
+        <v>2.55016630035243e-09</v>
       </c>
       <c r="DU4" t="n">
-        <v>5.179397817300924e-07</v>
+        <v>6.245084449574279e-10</v>
       </c>
       <c r="DV4" t="n">
-        <v>1.568441234667262e-07</v>
+        <v>6.378251260485968e-09</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.723131731523608e-06</v>
+        <v>1.061187138162722e-09</v>
       </c>
       <c r="DX4" t="n">
-        <v>6.211640084075043e-06</v>
+        <v>4.086353477816829e-09</v>
       </c>
       <c r="DY4" t="n">
-        <v>4.073911441082601e-06</v>
+        <v>4.866801628367057e-09</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.569112896504521e-06</v>
+        <v>1.958744277885671e-09</v>
       </c>
       <c r="EA4" t="n">
-        <v>5.385443728300743e-06</v>
+        <v>2.214332717187517e-09</v>
       </c>
       <c r="EB4" t="n">
-        <v>3.576248900571954e-06</v>
+        <v>5.237016598158561e-09</v>
       </c>
       <c r="EC4" t="n">
-        <v>3.058180027437629e-06</v>
+        <v>1.540228722340942e-09</v>
       </c>
       <c r="ED4" t="n">
-        <v>9.767793017090298e-06</v>
+        <v>2.224959327890019e-09</v>
       </c>
       <c r="EE4" t="n">
-        <v>1.09452344076999e-06</v>
+        <v>4.218000948519318e-11</v>
       </c>
       <c r="EF4" t="n">
-        <v>1.752003117871936e-05</v>
+        <v>2.445581515075901e-10</v>
       </c>
       <c r="EG4" t="n">
-        <v>1.542661084386054e-05</v>
+        <v>1.913870728564859e-10</v>
       </c>
       <c r="EH4" t="n">
-        <v>1.652310857025441e-06</v>
+        <v>1.442453156919044e-09</v>
       </c>
       <c r="EI4" t="n">
-        <v>6.672159088338958e-06</v>
+        <v>1.651011993786256e-09</v>
       </c>
       <c r="EJ4" t="n">
-        <v>4.956808879796881e-06</v>
+        <v>2.332497306412051e-09</v>
       </c>
       <c r="EK4" t="n">
-        <v>4.715838883839751e-07</v>
+        <v>2.059243664476185e-09</v>
       </c>
       <c r="EL4" t="n">
-        <v>2.653023784660036e-06</v>
+        <v>5.950022141654188e-10</v>
       </c>
       <c r="EM4" t="n">
-        <v>5.259737918095198e-06</v>
+        <v>1.920299474988951e-09</v>
       </c>
       <c r="EN4" t="n">
-        <v>1.225881987920729e-06</v>
+        <v>1.294082729863533e-09</v>
       </c>
       <c r="EO4" t="n">
-        <v>3.379218924237648e-06</v>
+        <v>8.011852292710842e-10</v>
       </c>
       <c r="EP4" t="n">
-        <v>1.114030783355702e-05</v>
+        <v>3.378834989575807e-10</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2.476361714798259e-06</v>
+        <v>3.243884716397361e-09</v>
       </c>
       <c r="ER4" t="n">
-        <v>2.743802269833395e-06</v>
+        <v>9.96331073199741e-11</v>
       </c>
       <c r="ES4" t="n">
-        <v>5.928155587753281e-06</v>
+        <v>4.096296635225372e-09</v>
       </c>
       <c r="ET4" t="n">
-        <v>8.607831887275097e-07</v>
+        <v>9.773163389681372e-10</v>
       </c>
       <c r="EU4" t="n">
-        <v>2.565798695286503e-06</v>
+        <v>8.834488141040708e-10</v>
       </c>
       <c r="EV4" t="n">
-        <v>1.798460630197951e-06</v>
+        <v>6.542349328952923e-09</v>
       </c>
       <c r="EW4" t="n">
-        <v>6.505645728793752e-07</v>
+        <v>1.161892915213514e-09</v>
       </c>
       <c r="EX4" t="n">
-        <v>7.830677532183472e-06</v>
+        <v>5.324863328048934e-10</v>
       </c>
       <c r="EY4" t="n">
-        <v>1.01379155239556e-05</v>
+        <v>2.388338860015438e-09</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2.721335249589174e-06</v>
+        <v>2.45635045637016e-09</v>
       </c>
       <c r="FA4" t="n">
-        <v>3.677565246107406e-06</v>
+        <v>2.723467451559713e-09</v>
       </c>
       <c r="FB4" t="n">
-        <v>2.142083758371882e-06</v>
+        <v>7.32602367659041e-10</v>
       </c>
       <c r="FC4" t="n">
-        <v>5.64091919841303e-07</v>
+        <v>1.424007467498711e-09</v>
       </c>
       <c r="FD4" t="n">
-        <v>3.665674285002751e-06</v>
+        <v>7.438015758864935e-10</v>
       </c>
       <c r="FE4" t="n">
-        <v>8.648752896078804e-07</v>
+        <v>3.700697803754593e-10</v>
       </c>
       <c r="FF4" t="n">
-        <v>8.360070751223247e-07</v>
+        <v>2.357746886616496e-09</v>
       </c>
       <c r="FG4" t="n">
-        <v>6.186330665514106e-06</v>
+        <v>2.05570205302763e-09</v>
       </c>
       <c r="FH4" t="n">
-        <v>2.728036406551837e-06</v>
+        <v>2.435504298237134e-10</v>
       </c>
       <c r="FI4" t="n">
-        <v>3.568232841644203e-06</v>
+        <v>5.368395505911394e-09</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2.428491825412493e-06</v>
+        <v>3.81137388316688e-09</v>
       </c>
       <c r="FK4" t="n">
-        <v>9.004264029499609e-06</v>
+        <v>1.744630884203957e-09</v>
       </c>
       <c r="FL4" t="n">
-        <v>5.403136583481682e-06</v>
+        <v>7.281989594654092e-11</v>
       </c>
       <c r="FM4" t="n">
-        <v>7.20082198313321e-07</v>
+        <v>2.311211444450123e-09</v>
       </c>
       <c r="FN4" t="n">
-        <v>8.203784886973153e-07</v>
+        <v>5.544189551898171e-09</v>
       </c>
       <c r="FO4" t="n">
-        <v>7.954010925459443e-07</v>
+        <v>4.273985609870579e-10</v>
       </c>
       <c r="FP4" t="n">
-        <v>3.889859726768918e-06</v>
+        <v>1.225818779815313e-09</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1.371289818052901e-05</v>
+        <v>1.311197816988852e-09</v>
       </c>
       <c r="FR4" t="n">
-        <v>3.946026936318958e-06</v>
+        <v>9.235238684901503e-10</v>
       </c>
       <c r="FS4" t="n">
-        <v>2.627920821396401e-06</v>
+        <v>2.277111832427181e-10</v>
       </c>
       <c r="FT4" t="n">
-        <v>4.255277872289298e-06</v>
+        <v>1.280611350296113e-08</v>
       </c>
       <c r="FU4" t="n">
-        <v>4.136888946959516e-06</v>
+        <v>2.798384635127604e-09</v>
       </c>
       <c r="FV4" t="n">
-        <v>1.987139967241092e-06</v>
+        <v>2.171982371734771e-09</v>
       </c>
       <c r="FW4" t="n">
-        <v>4.340533450886142e-06</v>
+        <v>8.78844164109438e-10</v>
       </c>
       <c r="FX4" t="n">
-        <v>2.064522277578362e-06</v>
+        <v>6.231695715008811e-10</v>
       </c>
       <c r="FY4" t="n">
-        <v>8.543000149074942e-06</v>
+        <v>3.4516152158659e-09</v>
       </c>
       <c r="FZ4" t="n">
-        <v>9.427975555809098e-08</v>
+        <v>1.437143737348379e-09</v>
       </c>
       <c r="GA4" t="n">
-        <v>3.213996251361095e-06</v>
+        <v>2.004838073332849e-09</v>
       </c>
       <c r="GB4" t="n">
-        <v>1.617748239368666e-06</v>
+        <v>2.081744998605473e-09</v>
       </c>
       <c r="GC4" t="n">
-        <v>2.747389771684539e-06</v>
+        <v>3.880254340060674e-09</v>
       </c>
       <c r="GD4" t="n">
-        <v>2.302150960531435e-06</v>
+        <v>4.327492586497783e-09</v>
       </c>
       <c r="GE4" t="n">
-        <v>4.62267234979663e-06</v>
+        <v>7.519693312474374e-09</v>
       </c>
       <c r="GF4" t="n">
-        <v>1.34606580104446e-07</v>
+        <v>1.068062860376529e-09</v>
       </c>
       <c r="GG4" t="n">
-        <v>8.48227386995859e-07</v>
+        <v>2.843709712152531e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.002543947892263532</v>
+        <v>0.0004255034145899117</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0006305210990831256</v>
+        <v>0.003956995904445648</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004979051649570465</v>
+        <v>0.0003048740036319941</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0007843815837986767</v>
+        <v>0.001030808314681053</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002223315415903926</v>
+        <v>0.0002257700252812356</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005114218220114708</v>
+        <v>0.002639460610225797</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001122270710766315</v>
+        <v>0.0002638289879541844</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009321466204710305</v>
+        <v>0.001065477379597723</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001789559173630551</v>
+        <v>0.0003387940814718604</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002330784918740392</v>
+        <v>0.000610139686614275</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002233567065559328</v>
+        <v>0.003694251412525773</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004507425241172314</v>
+        <v>6.916800339240581e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0006188879488036036</v>
+        <v>0.0009014616371132433</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0004016433376818895</v>
+        <v>0.0003510309616103768</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0004474776796996593</v>
+        <v>0.002191398991271853</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0007041721837595105</v>
+        <v>8.995467214845121e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002043094951659441</v>
+        <v>0.0002992097288370132</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0008137283730320632</v>
+        <v>0.0004677131946664304</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0002080385893350467</v>
+        <v>5.599947326118127e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001839154283516109</v>
+        <v>0.0003037755377590656</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0004723327583633363</v>
+        <v>0.0001016092501231469</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0008081818814389408</v>
+        <v>0.0003423318266868591</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0006971032707951963</v>
+        <v>0.0005088745965622365</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0002251838450320065</v>
+        <v>0.0001192519630421884</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0001644230069359764</v>
+        <v>0.000162580021424219</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001159193809144199</v>
+        <v>0.0005439206724986434</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.516918877721764e-05</v>
+        <v>0.0002912664785981178</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0003331695916131139</v>
+        <v>8.139442070387304e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0006333368364721537</v>
+        <v>9.512801625533029e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.000711902801413089</v>
+        <v>0.0001028022234095261</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.441940109245479e-05</v>
+        <v>5.413111284724437e-05</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0008047907031141222</v>
+        <v>9.124301141127944e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0008044537389650941</v>
+        <v>0.0001627655292395502</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.0004379585152491927</v>
+        <v>7.067713886499405e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.001054671360179782</v>
+        <v>1.162087392003741e-05</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.001075756154023111</v>
+        <v>1.020329364109784e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0007827314548194408</v>
+        <v>0.0004984089755453169</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.001531608402729034</v>
+        <v>0.0002539287379477173</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0006538406014442444</v>
+        <v>6.688966823276132e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.001008061575703323</v>
+        <v>0.000211075006518513</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.529196202289313e-05</v>
+        <v>5.825269181514159e-05</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0007398356683552265</v>
+        <v>0.0005776796024292707</v>
       </c>
       <c r="AQ5" t="n">
-        <v>4.440734119270928e-05</v>
+        <v>0.0001216299788211472</v>
       </c>
       <c r="AR5" t="n">
-        <v>3.274480695836246e-05</v>
+        <v>0.0002167235652450472</v>
       </c>
       <c r="AS5" t="n">
-        <v>3.339686736580916e-05</v>
+        <v>0.0003642851370386779</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.001236135605722666</v>
+        <v>0.0001217123281094246</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.001526523614302278</v>
+        <v>0.002157969633117318</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.002467183861881495</v>
+        <v>0.000286352529656142</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.000708548875991255</v>
+        <v>0.0002542654692661017</v>
       </c>
       <c r="AX5" t="n">
-        <v>9.681720985099673e-05</v>
+        <v>0.0001830537803471088</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0009905601618811488</v>
+        <v>0.001280622091144323</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.000119329517474398</v>
+        <v>0.0006171708228066564</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0005961778806522489</v>
+        <v>0.0003023049212060869</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0007726517505943775</v>
+        <v>0.0005732027348130941</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0005039079114794731</v>
+        <v>0.0002454704372212291</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.0001227208122145385</v>
+        <v>0.0009195111342705786</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.001523195649497211</v>
+        <v>0.0008074177312664688</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.0005081400740891695</v>
+        <v>0.0001004175865091383</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.001177625730633736</v>
+        <v>0.0002287433599121869</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.0004222250136081129</v>
+        <v>0.0005853424081578851</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.00124957540538162</v>
+        <v>9.594751463737339e-05</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.0002304763183929026</v>
+        <v>0.0002440657408442348</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0005297909374348819</v>
+        <v>0.0004448427353054285</v>
       </c>
       <c r="BL5" t="n">
-        <v>6.420972567866556e-06</v>
+        <v>0.0001704685273580253</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0007505236426368356</v>
+        <v>0.0007065776153467596</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.001085127471014857</v>
+        <v>0.000359419354936108</v>
       </c>
       <c r="BO5" t="n">
-        <v>2.635615965118632e-05</v>
+        <v>1.759163205861114e-05</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0006498594302684069</v>
+        <v>0.0003918875299859792</v>
       </c>
       <c r="BQ5" t="n">
-        <v>4.233672370901331e-06</v>
+        <v>4.975456249667332e-05</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0008032172918319702</v>
+        <v>3.081990871578455e-05</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.001159558654762805</v>
+        <v>0.0001891666470328346</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0002872131881304085</v>
+        <v>8.617577259428799e-05</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.001071500708349049</v>
+        <v>5.534712545340881e-05</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0004966112901456654</v>
+        <v>0.001418634317815304</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.00137203698977828</v>
+        <v>0.0002391386515228078</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0005970563506707549</v>
+        <v>0.0002036344085354358</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0001754967670422047</v>
+        <v>9.22620965866372e-05</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.0007690421189181507</v>
+        <v>0.0004408966342452914</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0001342937757726759</v>
+        <v>8.33794183563441e-05</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0002146914193872362</v>
+        <v>8.751489804126322e-05</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.0001415720471413806</v>
+        <v>0.0002612083917483687</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0005061754491180182</v>
+        <v>7.361324242083356e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0009350039181299508</v>
+        <v>0.0006860506255179644</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.001010009204037488</v>
+        <v>0.0002680476172827184</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.000133902532979846</v>
+        <v>9.223546658176929e-05</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0003949710226152092</v>
+        <v>0.0001748300710460171</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.00023846366093494</v>
+        <v>0.0003570942499209195</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0001248990593012422</v>
+        <v>0.0002173720276914537</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0005631920066662133</v>
+        <v>0.0001972071186173707</v>
       </c>
       <c r="CL5" t="n">
-        <v>6.659167411271483e-05</v>
+        <v>0.0002467306912876666</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.0001291533408220857</v>
+        <v>0.0008261304465122521</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.001225005020387471</v>
+        <v>0.0003797603712882847</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0004644368891604245</v>
+        <v>2.078979377984069e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.0002141929289791733</v>
+        <v>0.000776873785071075</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0002561760775279254</v>
+        <v>0.0003282352117821574</v>
       </c>
       <c r="CR5" t="n">
-        <v>2.569805656094104e-05</v>
+        <v>0.0008610184886492789</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.0004966541891917586</v>
+        <v>0.0006452709203585982</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.0006268133292905986</v>
+        <v>0.0005626322235912085</v>
       </c>
       <c r="CU5" t="n">
-        <v>7.033351721474901e-05</v>
+        <v>0.000188414822332561</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0005120550049468875</v>
+        <v>5.812769086332992e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.001005683443509042</v>
+        <v>0.0006791040650568902</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.001099087297916412</v>
+        <v>0.000289508025161922</v>
       </c>
       <c r="CY5" t="n">
-        <v>4.894062294624746e-05</v>
+        <v>0.0002724624937400222</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0007734046084806323</v>
+        <v>0.0001499124045949429</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0001747793867252767</v>
+        <v>0.0003764056018553674</v>
       </c>
       <c r="DB5" t="n">
-        <v>3.807761095231399e-05</v>
+        <v>0.0001967511198017746</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0004562103422358632</v>
+        <v>0.0004031293792650104</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0001087077107513323</v>
+        <v>0.0001854273141361773</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0003211441216990352</v>
+        <v>0.0002413143665762618</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.001553638256154954</v>
+        <v>0.0008328052936121821</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0001055593384080566</v>
+        <v>9.869814675766975e-05</v>
       </c>
       <c r="DH5" t="n">
-        <v>9.422462608199567e-05</v>
+        <v>0.0006684957770630717</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0003365561715327203</v>
+        <v>0.0009238337515853345</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.0004226528690196574</v>
+        <v>0.0005755508900620043</v>
       </c>
       <c r="DK5" t="n">
-        <v>6.155742448754609e-05</v>
+        <v>0.0001632122730370611</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.000356170057784766</v>
+        <v>0.0005784230306744576</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0001909384736791253</v>
+        <v>0.0006909281946718693</v>
       </c>
       <c r="DN5" t="n">
-        <v>3.780736005865037e-05</v>
+        <v>0.0001956389751285315</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0009744773851707578</v>
+        <v>0.0003800608101300895</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.00020066715660505</v>
+        <v>0.0002604296314530075</v>
       </c>
       <c r="DQ5" t="n">
-        <v>4.482516669668257e-05</v>
+        <v>0.0002583188761491328</v>
       </c>
       <c r="DR5" t="n">
-        <v>2.694636168598663e-05</v>
+        <v>0.0002787348930723965</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.0009675795445218682</v>
+        <v>0.0003299675590824336</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0002628451911732554</v>
+        <v>0.0003177872858941555</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0003637392073869705</v>
+        <v>0.0001969027216546237</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.0004055873141624033</v>
+        <v>3.045959601877257e-05</v>
       </c>
       <c r="DW5" t="n">
-        <v>3.968138480558991e-05</v>
+        <v>1.904921373352408e-05</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0003745502908714116</v>
+        <v>0.0004809369274880737</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0003226310946047306</v>
+        <v>0.0001837037998484448</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0002516967360861599</v>
+        <v>0.0002387367130722851</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0007150637684389949</v>
+        <v>0.0003314139321446419</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.0008889344753697515</v>
+        <v>0.0003163805231451988</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0003974410064984113</v>
+        <v>0.0001287844643229619</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.001067781122401357</v>
+        <v>0.000144647405249998</v>
       </c>
       <c r="EE5" t="n">
-        <v>5.142762893228792e-05</v>
+        <v>0.0006098562735132873</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0009795534424483776</v>
+        <v>0.0003790656919591129</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.0008055478683672845</v>
+        <v>0.0006477800197899342</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.001091167447157204</v>
+        <v>0.0003893557877745479</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.0001487023109802976</v>
+        <v>3.397038381081074e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0002315122546860948</v>
+        <v>7.558269135188311e-05</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.0009887416381388903</v>
+        <v>3.369434125488624e-05</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.0001372686383547261</v>
+        <v>0.0002129989734385163</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.001262967009097338</v>
+        <v>3.729626041604206e-05</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.0006501253810711205</v>
+        <v>0.0001187174275401048</v>
       </c>
       <c r="EO5" t="n">
-        <v>7.21685792086646e-05</v>
+        <v>3.49514521076344e-05</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.0007086470723152161</v>
+        <v>0.0004469201085157692</v>
       </c>
       <c r="EQ5" t="n">
-        <v>8.334461017511785e-05</v>
+        <v>0.0001036429312080145</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.0001763520995154977</v>
+        <v>0.0002495280059520155</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0002650317910593003</v>
+        <v>0.000374882947653532</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.0008339273626916111</v>
+        <v>9.043962563737296e-06</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0001524104736745358</v>
+        <v>0.0006495352135971189</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.0002242597984150052</v>
+        <v>0.0008726640371605754</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.0004219749243929982</v>
+        <v>0.0001019265182549134</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.0005553185474127531</v>
+        <v>0.0001201997147290967</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0008162690792232752</v>
+        <v>0.0006397560937330127</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.001077051390893757</v>
+        <v>0.0002030371833825484</v>
       </c>
       <c r="FA5" t="n">
-        <v>1.069878180715023e-05</v>
+        <v>7.646518497494981e-05</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.0006540903123095632</v>
+        <v>0.0001279828284168616</v>
       </c>
       <c r="FC5" t="n">
-        <v>2.677297743503004e-06</v>
+        <v>0.0003175156889483333</v>
       </c>
       <c r="FD5" t="n">
-        <v>3.599746560212225e-05</v>
+        <v>0.0003280354430899024</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0006640207138843834</v>
+        <v>0.0002953493385575712</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.0001732573873596266</v>
+        <v>0.0002810860460158437</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0006782611599192023</v>
+        <v>0.00021553342230618</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.0005128488410264254</v>
+        <v>0.0002270610712002963</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0008229900267906487</v>
+        <v>0.0001693802332738414</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.0009182290523312986</v>
+        <v>0.0005051980842836201</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0002508165489416569</v>
+        <v>0.0002422384568490088</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.0003558665921445936</v>
+        <v>0.000267449242528528</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.0006035598926246166</v>
+        <v>0.0001743423199513927</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.0004417618620209396</v>
+        <v>0.0002096672542393208</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.000855693593621254</v>
+        <v>8.843983232509345e-05</v>
       </c>
       <c r="FP5" t="n">
-        <v>6.720097735524178e-05</v>
+        <v>0.000381608319003135</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.002632198855280876</v>
+        <v>0.0003122666385024786</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0007963442476466298</v>
+        <v>0.0005467231385409832</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.0009345377329736948</v>
+        <v>8.521737618139014e-05</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.0002155723486794159</v>
+        <v>0.0002122037985827774</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.0005235619028098881</v>
+        <v>0.0004052307922393084</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.000430404586950317</v>
+        <v>7.092993473634124e-05</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.0005336589529179037</v>
+        <v>0.0001393567072227597</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.0002560574212111533</v>
+        <v>0.0002517795073799789</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0008126142201945186</v>
+        <v>0.0004782378673553467</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.0002725790254771709</v>
+        <v>0.0002620237064547837</v>
       </c>
       <c r="GA5" t="n">
-        <v>5.196299753151834e-06</v>
+        <v>0.0002982175501529127</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.0002113578229909763</v>
+        <v>2.113602204190101e-05</v>
       </c>
       <c r="GC5" t="n">
-        <v>1.271299879590515e-05</v>
+        <v>0.0003242890525143594</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.0009453046950511634</v>
+        <v>0.0003409685159567744</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.000258682994171977</v>
+        <v>0.0005692249396815896</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.0003677748027257621</v>
+        <v>0.0001957312051672488</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0003473536635283381</v>
+        <v>0.0002182447497034445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.002012773184105754</v>
+        <v>0.0005454214988276362</v>
       </c>
       <c r="B6" t="n">
-        <v>7.202991400845349e-05</v>
+        <v>0.01625523716211319</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002376073505729437</v>
+        <v>0.001497190678492188</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0004566912830341607</v>
+        <v>0.00452286284416914</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0004509415302891284</v>
+        <v>0.005872377194464207</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001906120596686378</v>
+        <v>0.0122437784448266</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0007315821712836623</v>
+        <v>0.0007506826659664512</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002200945746153593</v>
+        <v>0.002912845462560654</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0005447086878120899</v>
+        <v>0.0002156180853489786</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001835744013078511</v>
+        <v>0.001857530092820525</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0003570331900846213</v>
+        <v>0.01610695756971836</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002498663496226072</v>
+        <v>0.0005648268852382898</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0002143130404874682</v>
+        <v>0.003366400022059679</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0006198051269166172</v>
+        <v>0.003046143567189574</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0001098950888263062</v>
+        <v>0.01128971483558416</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0009232053416781127</v>
+        <v>8.992105722427368e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0002900632680393755</v>
+        <v>0.001524762599729002</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0006379833212122321</v>
+        <v>0.0003247752902098</v>
       </c>
       <c r="S6" t="n">
-        <v>9.067220162251033e-06</v>
+        <v>0.0001463050430174917</v>
       </c>
       <c r="T6" t="n">
-        <v>0.000707396655343473</v>
+        <v>0.001476283185184002</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0001621176488697529</v>
+        <v>0.00119210802949965</v>
       </c>
       <c r="V6" t="n">
-        <v>4.146069841226563e-05</v>
+        <v>0.002266617957502604</v>
       </c>
       <c r="W6" t="n">
-        <v>9.162228525383398e-05</v>
+        <v>0.001922630239278078</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0001078519562724978</v>
+        <v>0.0008939866675063968</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0001924887765198946</v>
+        <v>0.0001359955058433115</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0005843241233378649</v>
+        <v>0.001671331934630871</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.8246154114604e-06</v>
+        <v>0.001126968418247998</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0002458314993418753</v>
+        <v>0.001287391409277916</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.364770625717938e-05</v>
+        <v>0.0004684462037403136</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.224260141607374e-05</v>
+        <v>0.001083794282749295</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0004156777577009052</v>
+        <v>0.001298482995480299</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0001406763185514137</v>
+        <v>0.000699612544849515</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0003484410117380321</v>
+        <v>0.001410837867297232</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.0001374392304569483</v>
+        <v>0.0003631742438301444</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.000605497625656426</v>
+        <v>0.0001966596173588187</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0004422475467436016</v>
+        <v>0.0006383884465321898</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0003797633689828217</v>
+        <v>0.001705486560240388</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0004591075994540006</v>
+        <v>0.002040565479546785</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.0002777996996883303</v>
+        <v>0.002089374931529164</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.0002922865387517959</v>
+        <v>0.0004802254843525589</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.292263035196811e-06</v>
+        <v>0.0004670786729548126</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.0002763398515526205</v>
+        <v>0.001454204088076949</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.151187800336629e-05</v>
+        <v>0.0003857046249322593</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.0001252586371265352</v>
+        <v>0.0009088849765248597</v>
       </c>
       <c r="AS6" t="n">
-        <v>7.962094969116151e-05</v>
+        <v>0.0007168176816776395</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.00086291937623173</v>
+        <v>0.0008006051066331565</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.0001770254602888599</v>
+        <v>0.0108489990234375</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.001115956343710423</v>
+        <v>0.002439755015075207</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.0004419402976054698</v>
+        <v>0.001989240990951657</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.95095991936978e-05</v>
+        <v>0.002733486006036401</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.00055175885790959</v>
+        <v>0.005671667400747538</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.570230233483016e-05</v>
+        <v>0.001198637299239635</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.0001789667294360697</v>
+        <v>0.0005762355285696685</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.0003115259751211852</v>
+        <v>0.001221068669110537</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0004604372079484165</v>
+        <v>0.001248588319867849</v>
       </c>
       <c r="BD6" t="n">
-        <v>9.64118298725225e-05</v>
+        <v>0.003438485786318779</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.0008032306795939803</v>
+        <v>0.003816984826698899</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.0001963186368811876</v>
+        <v>6.158021278679371e-05</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.0001218596589751542</v>
+        <v>0.004620763938874006</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.023803633870557e-06</v>
+        <v>0.0058977035805583</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.0003282399848103523</v>
+        <v>0.0009158914326690137</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.0002960574929602444</v>
+        <v>2.464649151079357e-05</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.0002228157100034878</v>
+        <v>0.0004653356445487589</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.0001241761929122731</v>
+        <v>0.001734983641654253</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.0001519832294434309</v>
+        <v>0.00352020887658</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.0004551679885480553</v>
+        <v>0.0004903689259663224</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.0002130945213139057</v>
+        <v>0.0002246757067041472</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.000490236037876457</v>
+        <v>0.002036673715338111</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.0001622415729798377</v>
+        <v>0.00128580117598176</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.0001054665917763487</v>
+        <v>0.001003482146188617</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.0002056821249425411</v>
+        <v>0.0006978707388043404</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.0001157668302766979</v>
+        <v>0.0008483120473101735</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.0006842692382633686</v>
+        <v>0.0003634249733295292</v>
       </c>
       <c r="BV6" t="n">
-        <v>9.47026492212899e-05</v>
+        <v>0.006389915477484465</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.0005184364272281528</v>
+        <v>0.0002323786029592156</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.000336420169332996</v>
+        <v>0.002145980950444937</v>
       </c>
       <c r="BY6" t="n">
-        <v>6.806198507547379e-05</v>
+        <v>0.0007235720404423773</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.0004311160300858319</v>
+        <v>0.00117104675155133</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.0001207537134177983</v>
+        <v>0.0005629559746012092</v>
       </c>
       <c r="CB6" t="n">
-        <v>6.035905971657485e-05</v>
+        <v>0.0003889481304213405</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.000134286645334214</v>
+        <v>0.0008172967936843634</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.000409577478421852</v>
+        <v>2.24628620344447e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.0004037193139083683</v>
+        <v>0.002531934063881636</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.0005002077086828649</v>
+        <v>0.0005130780627951026</v>
       </c>
       <c r="CG6" t="n">
-        <v>5.072731073596515e-05</v>
+        <v>0.0007460180204361677</v>
       </c>
       <c r="CH6" t="n">
-        <v>1.063173112925142e-05</v>
+        <v>4.650610935641453e-05</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.0001774338888935745</v>
+        <v>0.002322885673493147</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.0001767765352269635</v>
+        <v>0.00112171215005219</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.0001315660192631185</v>
+        <v>0.0001221298734890297</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.614007487660274e-06</v>
+        <v>0.0003881070879288018</v>
       </c>
       <c r="CM6" t="n">
-        <v>1.739403523970395e-05</v>
+        <v>0.004200194496661425</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.0005844596889801323</v>
+        <v>0.001052217907272279</v>
       </c>
       <c r="CO6" t="n">
-        <v>6.014107202645391e-05</v>
+        <v>5.78495382796973e-05</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.0002742492652032524</v>
+        <v>0.00141188339330256</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.0001010786800179631</v>
+        <v>0.0001848154934123158</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.0001316611014772207</v>
+        <v>0.0004256323736626655</v>
       </c>
       <c r="CS6" t="n">
-        <v>1.090180103346938e-05</v>
+        <v>0.00254309456795454</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.0001160955580417067</v>
+        <v>0.003577510826289654</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.0005463826237246394</v>
+        <v>0.0009522503241896629</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.0003583135257940739</v>
+        <v>2.022521948674694e-05</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.0003179747727699578</v>
+        <v>0.00215311418287456</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.0005310509004630148</v>
+        <v>0.0003672969760373235</v>
       </c>
       <c r="CY6" t="n">
-        <v>4.670116686611436e-05</v>
+        <v>0.001357351429760456</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.0002295251615578309</v>
+        <v>0.0002125874743796885</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.0001453714066883549</v>
+        <v>0.002277829218655825</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.0002047328162007034</v>
+        <v>0.0009997353190556169</v>
       </c>
       <c r="DC6" t="n">
-        <v>5.174534089746885e-05</v>
+        <v>0.0006635920726694167</v>
       </c>
       <c r="DD6" t="n">
-        <v>4.368037480162457e-05</v>
+        <v>0.0003222009108867496</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.0002456365618854761</v>
+        <v>0.001272238907404244</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.0006994433933869004</v>
+        <v>0.003954384010285139</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.00017770346312318</v>
+        <v>0.0004079407081007957</v>
       </c>
       <c r="DH6" t="n">
-        <v>2.09421559702605e-05</v>
+        <v>0.002324606757611036</v>
       </c>
       <c r="DI6" t="n">
-        <v>3.483973705442622e-05</v>
+        <v>0.003427905263379216</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.0003126688534393907</v>
+        <v>0.001435493002645671</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.0001737941493047401</v>
+        <v>0.001005460857413709</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.0002096201060339808</v>
+        <v>0.0005385723197832704</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.0003701350069604814</v>
+        <v>0.003274807939305902</v>
       </c>
       <c r="DN6" t="n">
-        <v>1.005799822451081e-05</v>
+        <v>0.0006686208653263748</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.0005488629103638232</v>
+        <v>0.0003184242523275316</v>
       </c>
       <c r="DP6" t="n">
-        <v>8.770757995080203e-05</v>
+        <v>0.001412170939147472</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.000107255153125152</v>
+        <v>0.001190336188301444</v>
       </c>
       <c r="DR6" t="n">
-        <v>3.505877612042241e-05</v>
+        <v>0.0007994695333763957</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.0001156000726041384</v>
+        <v>0.001439801184460521</v>
       </c>
       <c r="DT6" t="n">
-        <v>1.646623786655255e-05</v>
+        <v>3.0666240490973e-05</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.0002064536820398644</v>
+        <v>0.000350749702192843</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.0001980523811653256</v>
+        <v>5.680660251528025e-05</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.0001659748086240143</v>
+        <v>0.001248554908670485</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.0001545666891615838</v>
+        <v>0.002243436174467206</v>
       </c>
       <c r="DY6" t="n">
-        <v>3.998138345195912e-05</v>
+        <v>0.0002981010475195944</v>
       </c>
       <c r="DZ6" t="n">
-        <v>2.76247737929225e-05</v>
+        <v>0.0005234592244960368</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.0002185697958339006</v>
+        <v>0.002001365646719933</v>
       </c>
       <c r="EB6" t="n">
-        <v>1.549496664665639e-05</v>
+        <v>0.001498113269917667</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.0001066854820237495</v>
+        <v>0.0005607236525975168</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.0003033254470210522</v>
+        <v>0.0009455551626160741</v>
       </c>
       <c r="EE6" t="n">
-        <v>8.884203998604789e-05</v>
+        <v>0.0002478538081049919</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.0007115459884516895</v>
+        <v>0.000266030547209084</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.0003010660293512046</v>
+        <v>0.002624849788844585</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.0005171179655008018</v>
+        <v>0.0005689936806447804</v>
       </c>
       <c r="EI6" t="n">
-        <v>6.614285666728392e-06</v>
+        <v>0.0009999028407037258</v>
       </c>
       <c r="EJ6" t="n">
-        <v>7.853664283175021e-05</v>
+        <v>0.000285821792203933</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.0003175809397362173</v>
+        <v>0.002272015204653144</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.0001262127625523135</v>
+        <v>0.001357325469143689</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.0003535447758622468</v>
+        <v>0.0007437686435878277</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.0002207871002610773</v>
+        <v>0.000417462142650038</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.0001011802960420027</v>
+        <v>0.000110877153929323</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.0001675292878644541</v>
+        <v>0.00166855868883431</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.0001942793023772538</v>
+        <v>4.113116301596165e-05</v>
       </c>
       <c r="ER6" t="n">
-        <v>2.711025808821432e-05</v>
+        <v>0.0002278291503898799</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.0002140553115168586</v>
+        <v>0.0008853145991452038</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.0003950330137740821</v>
+        <v>0.001663882518187165</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.0004416170995682478</v>
+        <v>0.001278329757042229</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.000147862418089062</v>
+        <v>0.002271594945341349</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.0002723174402490258</v>
+        <v>0.001200957107357681</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.0003683911054395139</v>
+        <v>0.0002996961411554366</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.0002973548253066838</v>
+        <v>0.001987656345590949</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.0005343731609173119</v>
+        <v>0.0001587776932865381</v>
       </c>
       <c r="FA6" t="n">
-        <v>5.032190529163927e-05</v>
+        <v>0.0008022054680623114</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.0001080864094546996</v>
+        <v>0.0005340114003047347</v>
       </c>
       <c r="FC6" t="n">
-        <v>6.003290036460385e-05</v>
+        <v>0.00233933818526566</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.0001986261195270345</v>
+        <v>0.001103174756281078</v>
       </c>
       <c r="FE6" t="n">
-        <v>9.552222036290914e-05</v>
+        <v>1.028009501169436e-05</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.0001052794686984271</v>
+        <v>0.0002882552798837423</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.0002080071426462382</v>
+        <v>0.0003350505139678717</v>
       </c>
       <c r="FH6" t="n">
-        <v>5.456338112708181e-05</v>
+        <v>0.001560766017064452</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.0003502430045045912</v>
+        <v>0.0004754961701110005</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.0003315589274279773</v>
+        <v>0.00275619700551033</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.0002464109275024384</v>
+        <v>0.0006520437309518456</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.0005865348502993584</v>
+        <v>0.0007192856865003705</v>
       </c>
       <c r="FM6" t="n">
-        <v>6.3996238168329e-05</v>
+        <v>0.0003499537997413427</v>
       </c>
       <c r="FN6" t="n">
-        <v>9.522544860374182e-05</v>
+        <v>0.0008158191340044141</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.0002033257333096117</v>
+        <v>0.000901720835827291</v>
       </c>
       <c r="FP6" t="n">
-        <v>1.07764353742823e-05</v>
+        <v>0.001595896203070879</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.001218619523569942</v>
+        <v>0.003176171565428376</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.0001341563474852592</v>
+        <v>0.0008429232402704656</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.0001405475486535579</v>
+        <v>0.002111445181071758</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.0003033314715139568</v>
+        <v>0.002307629678398371</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.0004043844237457961</v>
+        <v>0.0001178093807538971</v>
       </c>
       <c r="FV6" t="n">
-        <v>2.216381835751235e-05</v>
+        <v>0.001097344676963985</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.000122270779684186</v>
+        <v>0.002071138471364975</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.0002703403006307781</v>
+        <v>0.001154277939349413</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.0002353317104279995</v>
+        <v>0.002219459740445018</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.000116698669444304</v>
+        <v>4.247541073709726e-05</v>
       </c>
       <c r="GA6" t="n">
-        <v>2.129451422661077e-05</v>
+        <v>0.000117068862891756</v>
       </c>
       <c r="GB6" t="n">
-        <v>8.244911441579461e-06</v>
+        <v>0.0001461224746890366</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.0001513905444880947</v>
+        <v>0.001124155474826694</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.0006708569708280265</v>
+        <v>0.0001779448648449033</v>
       </c>
       <c r="GE6" t="n">
-        <v>4.641400300897658e-05</v>
+        <v>0.002558910986408591</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.0001671847712714225</v>
+        <v>0.0009751877514645457</v>
       </c>
       <c r="GG6" t="n">
-        <v>4.096522388863377e-05</v>
+        <v>0.0001598875969648361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.686082972213626e-05</v>
+        <v>4.697417807619786e-06</v>
       </c>
       <c r="B7" t="n">
-        <v>3.442398883635178e-05</v>
+        <v>7.159011147450656e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>5.297861662256764e-06</v>
+        <v>5.728486939915456e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>2.894342287618201e-05</v>
+        <v>2.458552262396552e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>2.311183197889477e-05</v>
+        <v>1.260513363376958e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>1.115622012548556e-06</v>
+        <v>1.110053381125908e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>1.603694727236871e-05</v>
+        <v>6.906276666995836e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>3.076870029872225e-07</v>
+        <v>7.407050816254923e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>5.581093319051433e-06</v>
+        <v>4.017840637970949e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>6.746022700099275e-05</v>
+        <v>1.163503293355461e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>2.42724854615517e-05</v>
+        <v>5.673584018950351e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52823849930428e-05</v>
+        <v>1.874947201940813e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>2.960312667710241e-05</v>
+        <v>2.453771958244033e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.24726604251191e-05</v>
+        <v>1.901357609312981e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.190251737170911e-06</v>
+        <v>2.351997500227299e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>2.382768434472382e-05</v>
+        <v>9.627012332202867e-06</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.780472414087853e-06</v>
+        <v>3.080939677602146e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.223846447828691e-05</v>
+        <v>6.998352546361275e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>2.427748768241145e-06</v>
+        <v>3.763050699490122e-06</v>
       </c>
       <c r="T7" t="n">
-        <v>3.341979663673555e-06</v>
+        <v>9.738206244946923e-06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.431282896646735e-07</v>
+        <v>3.955487045459449e-06</v>
       </c>
       <c r="V7" t="n">
-        <v>2.420724513285677e-06</v>
+        <v>4.07214656661381e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.339465711680532e-06</v>
+        <v>3.152877525280928e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>9.183721886074636e-06</v>
+        <v>9.53620474319905e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.676028536072408e-07</v>
+        <v>4.520108177530346e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.3287645894452e-06</v>
+        <v>1.244585018866928e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.899092694657156e-06</v>
+        <v>9.036858500621747e-06</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.028017873584758e-06</v>
+        <v>5.080948540125974e-06</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.196154340112116e-06</v>
+        <v>5.239779511612142e-06</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.334109573595924e-06</v>
+        <v>7.516268851759378e-07</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.637612735474249e-07</v>
+        <v>2.540609784773551e-07</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.130973259932944e-06</v>
+        <v>4.532029720394348e-07</v>
       </c>
       <c r="AG7" t="n">
-        <v>7.518378879467491e-06</v>
+        <v>1.121713239626843e-06</v>
       </c>
       <c r="AH7" t="n">
-        <v>5.611411779682385e-06</v>
+        <v>4.3216082303843e-06</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.702197187114507e-05</v>
+        <v>1.934572310346994e-06</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.908546197337273e-07</v>
+        <v>2.071658855129499e-06</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.667866490606684e-05</v>
+        <v>5.404315743362531e-06</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.405564398737624e-05</v>
+        <v>7.890887900430243e-06</v>
       </c>
       <c r="AM7" t="n">
-        <v>4.606272796081612e-06</v>
+        <v>1.847802991505887e-06</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.4087344071595e-06</v>
+        <v>3.372177161509171e-06</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.755770987685537e-06</v>
+        <v>6.910226147738285e-06</v>
       </c>
       <c r="AP7" t="n">
-        <v>3.161714232646773e-07</v>
+        <v>1.17995682558103e-06</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.17401896204683e-07</v>
+        <v>1.049917727868888e-06</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.564518920029514e-06</v>
+        <v>8.223623240155575e-07</v>
       </c>
       <c r="AS7" t="n">
-        <v>6.050409524505085e-07</v>
+        <v>5.42370116818347e-06</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.733761332114227e-05</v>
+        <v>5.752872311859392e-06</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.126411229459336e-06</v>
+        <v>4.411457848618738e-05</v>
       </c>
       <c r="AV7" t="n">
-        <v>5.315441740094684e-06</v>
+        <v>3.878106781485258e-06</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.67824906486203e-07</v>
+        <v>9.27389737626072e-06</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.414380782691296e-06</v>
+        <v>5.292004971124697e-06</v>
       </c>
       <c r="AY7" t="n">
-        <v>5.197294285608223e-06</v>
+        <v>6.785055575164733e-06</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.494803766239784e-06</v>
+        <v>4.77086996397702e-06</v>
       </c>
       <c r="BA7" t="n">
-        <v>7.764964720990974e-06</v>
+        <v>9.958700957213296e-07</v>
       </c>
       <c r="BB7" t="n">
-        <v>5.71432167362218e-07</v>
+        <v>1.156961388915079e-05</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.828585300245322e-05</v>
+        <v>2.450024339850643e-06</v>
       </c>
       <c r="BD7" t="n">
-        <v>6.638394097535638e-06</v>
+        <v>1.722868000797462e-05</v>
       </c>
       <c r="BE7" t="n">
-        <v>5.872527708561393e-06</v>
+        <v>1.683407390373759e-05</v>
       </c>
       <c r="BF7" t="n">
-        <v>8.602961315773427e-06</v>
+        <v>1.713658207336266e-06</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.275132490263786e-05</v>
+        <v>1.100140889320755e-05</v>
       </c>
       <c r="BH7" t="n">
-        <v>3.011935632457607e-06</v>
+        <v>2.882884928112617e-06</v>
       </c>
       <c r="BI7" t="n">
-        <v>1.279143816645956e-05</v>
+        <v>9.58591317612445e-06</v>
       </c>
       <c r="BJ7" t="n">
-        <v>2.662241422513034e-05</v>
+        <v>5.282739493850386e-06</v>
       </c>
       <c r="BK7" t="n">
-        <v>8.917527338780928e-07</v>
+        <v>2.439102217977052e-07</v>
       </c>
       <c r="BL7" t="n">
-        <v>5.10009158460889e-06</v>
+        <v>3.290353333795792e-06</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.671941572567448e-05</v>
+        <v>7.071472282405011e-06</v>
       </c>
       <c r="BN7" t="n">
-        <v>4.767396717397787e-07</v>
+        <v>1.100390090869041e-05</v>
       </c>
       <c r="BO7" t="n">
-        <v>8.782614600022498e-07</v>
+        <v>3.34332867168996e-06</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.101995985663962e-05</v>
+        <v>6.49581988909631e-06</v>
       </c>
       <c r="BQ7" t="n">
-        <v>2.611926902318373e-06</v>
+        <v>8.572186516175861e-07</v>
       </c>
       <c r="BR7" t="n">
-        <v>1.479753336752765e-06</v>
+        <v>2.843796437446144e-06</v>
       </c>
       <c r="BS7" t="n">
-        <v>2.145440703316126e-06</v>
+        <v>1.958050916073262e-06</v>
       </c>
       <c r="BT7" t="n">
-        <v>1.173935061160591e-06</v>
+        <v>4.575059847411467e-06</v>
       </c>
       <c r="BU7" t="n">
-        <v>3.281016324763186e-05</v>
+        <v>1.33730122797715e-06</v>
       </c>
       <c r="BV7" t="n">
-        <v>4.091159098607022e-06</v>
+        <v>2.50920893449802e-05</v>
       </c>
       <c r="BW7" t="n">
-        <v>9.278341167373583e-06</v>
+        <v>6.111915354267694e-06</v>
       </c>
       <c r="BX7" t="n">
-        <v>7.378548161796061e-06</v>
+        <v>7.035103408270516e-06</v>
       </c>
       <c r="BY7" t="n">
-        <v>2.348942871321924e-07</v>
+        <v>1.249843307959964e-06</v>
       </c>
       <c r="BZ7" t="n">
-        <v>1.518747012596577e-07</v>
+        <v>2.416195229670848e-06</v>
       </c>
       <c r="CA7" t="n">
-        <v>5.310713504513842e-07</v>
+        <v>3.361317794770002e-06</v>
       </c>
       <c r="CB7" t="n">
-        <v>9.027645319292787e-06</v>
+        <v>2.574744939920492e-06</v>
       </c>
       <c r="CC7" t="n">
-        <v>1.34113986405282e-06</v>
+        <v>7.141544756450457e-06</v>
       </c>
       <c r="CD7" t="n">
-        <v>1.545714076200966e-05</v>
+        <v>5.804520242236322e-08</v>
       </c>
       <c r="CE7" t="n">
-        <v>2.078210854961071e-05</v>
+        <v>1.17317258627736e-05</v>
       </c>
       <c r="CF7" t="n">
-        <v>1.989407564906287e-06</v>
+        <v>6.668075911875349e-06</v>
       </c>
       <c r="CG7" t="n">
-        <v>6.025914444762748e-06</v>
+        <v>1.210603159051971e-06</v>
       </c>
       <c r="CH7" t="n">
-        <v>4.722060111816972e-06</v>
+        <v>1.599906227056636e-06</v>
       </c>
       <c r="CI7" t="n">
-        <v>2.092177055601496e-06</v>
+        <v>1.788244162526098e-06</v>
       </c>
       <c r="CJ7" t="n">
-        <v>2.567051978985546e-06</v>
+        <v>2.498928779459675e-06</v>
       </c>
       <c r="CK7" t="n">
-        <v>3.884015768562676e-06</v>
+        <v>1.123883635045786e-06</v>
       </c>
       <c r="CL7" t="n">
-        <v>9.242685337085277e-07</v>
+        <v>3.96954828829621e-06</v>
       </c>
       <c r="CM7" t="n">
-        <v>8.136160431604367e-06</v>
+        <v>1.772074392647482e-05</v>
       </c>
       <c r="CN7" t="n">
-        <v>2.03353670258366e-06</v>
+        <v>6.193580247781938e-06</v>
       </c>
       <c r="CO7" t="n">
-        <v>2.351833472857834e-06</v>
+        <v>1.021613570628688e-06</v>
       </c>
       <c r="CP7" t="n">
-        <v>3.361815970492898e-06</v>
+        <v>1.40515694511123e-05</v>
       </c>
       <c r="CQ7" t="n">
-        <v>1.69681225088425e-05</v>
+        <v>8.610993063484784e-06</v>
       </c>
       <c r="CR7" t="n">
-        <v>5.40448945685057e-06</v>
+        <v>6.501071311504347e-06</v>
       </c>
       <c r="CS7" t="n">
-        <v>9.853731626208173e-07</v>
+        <v>1.02548283393844e-05</v>
       </c>
       <c r="CT7" t="n">
-        <v>1.251736466656439e-05</v>
+        <v>7.724665920250118e-06</v>
       </c>
       <c r="CU7" t="n">
-        <v>2.867604962375481e-06</v>
+        <v>3.010612999787554e-06</v>
       </c>
       <c r="CV7" t="n">
-        <v>1.411592620570445e-05</v>
+        <v>3.777927304327022e-09</v>
       </c>
       <c r="CW7" t="n">
-        <v>2.01136772375321e-05</v>
+        <v>1.069752579496708e-05</v>
       </c>
       <c r="CX7" t="n">
-        <v>4.531113972916501e-06</v>
+        <v>7.43495593269472e-06</v>
       </c>
       <c r="CY7" t="n">
-        <v>4.565255949273705e-06</v>
+        <v>4.623851054930128e-06</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1.40045813168399e-07</v>
+        <v>3.345820914546493e-06</v>
       </c>
       <c r="DA7" t="n">
-        <v>6.581499860658369e-07</v>
+        <v>1.482103584748984e-06</v>
       </c>
       <c r="DB7" t="n">
-        <v>2.973218897750485e-06</v>
+        <v>2.621685325721046e-06</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.958305801963434e-06</v>
+        <v>2.566107013990404e-06</v>
       </c>
       <c r="DD7" t="n">
-        <v>1.314821815867617e-06</v>
+        <v>2.555177388785523e-06</v>
       </c>
       <c r="DE7" t="n">
-        <v>8.690935828781221e-06</v>
+        <v>6.785822279198328e-06</v>
       </c>
       <c r="DF7" t="n">
-        <v>2.548903648857959e-05</v>
+        <v>1.070984581019729e-07</v>
       </c>
       <c r="DG7" t="n">
-        <v>1.085929579858202e-05</v>
+        <v>1.018426701193675e-06</v>
       </c>
       <c r="DH7" t="n">
-        <v>1.381163883706904e-06</v>
+        <v>1.176372279587667e-05</v>
       </c>
       <c r="DI7" t="n">
-        <v>1.225850269293005e-06</v>
+        <v>2.139714979421115e-06</v>
       </c>
       <c r="DJ7" t="n">
-        <v>1.316210273216711e-06</v>
+        <v>7.356763035204494e-06</v>
       </c>
       <c r="DK7" t="n">
-        <v>2.323442004126264e-06</v>
+        <v>2.925761236838298e-06</v>
       </c>
       <c r="DL7" t="n">
-        <v>1.001462987915147e-05</v>
+        <v>1.518344788564718e-06</v>
       </c>
       <c r="DM7" t="n">
-        <v>7.31032469047932e-06</v>
+        <v>5.341008090908872e-06</v>
       </c>
       <c r="DN7" t="n">
-        <v>1.020544004859403e-06</v>
+        <v>2.20800814076938e-07</v>
       </c>
       <c r="DO7" t="n">
-        <v>1.755739140207879e-05</v>
+        <v>2.742700075941684e-07</v>
       </c>
       <c r="DP7" t="n">
-        <v>5.264382707537152e-06</v>
+        <v>9.002061233331915e-06</v>
       </c>
       <c r="DQ7" t="n">
-        <v>5.911697826377349e-06</v>
+        <v>5.131350917508826e-06</v>
       </c>
       <c r="DR7" t="n">
-        <v>2.378618091825047e-06</v>
+        <v>3.119450866506668e-06</v>
       </c>
       <c r="DS7" t="n">
-        <v>8.12176767794881e-06</v>
+        <v>1.690194039838389e-06</v>
       </c>
       <c r="DT7" t="n">
-        <v>6.113282324804459e-07</v>
+        <v>5.932975000177976e-06</v>
       </c>
       <c r="DU7" t="n">
-        <v>7.729782737442292e-06</v>
+        <v>2.421031013000174e-06</v>
       </c>
       <c r="DV7" t="n">
-        <v>4.056508714711526e-06</v>
+        <v>2.979154942295281e-06</v>
       </c>
       <c r="DW7" t="n">
-        <v>3.199945012966054e-06</v>
+        <v>1.325393441220513e-06</v>
       </c>
       <c r="DX7" t="n">
-        <v>9.018311175168492e-06</v>
+        <v>1.001326927507762e-05</v>
       </c>
       <c r="DY7" t="n">
-        <v>5.957418125035474e-06</v>
+        <v>5.352705557015724e-06</v>
       </c>
       <c r="DZ7" t="n">
-        <v>4.939372956869192e-06</v>
+        <v>3.944487616536207e-07</v>
       </c>
       <c r="EA7" t="n">
-        <v>8.37163497635629e-06</v>
+        <v>6.969748937990516e-06</v>
       </c>
       <c r="EB7" t="n">
-        <v>4.180883479421027e-07</v>
+        <v>6.319005933619337e-06</v>
       </c>
       <c r="EC7" t="n">
-        <v>4.500181603361852e-06</v>
+        <v>2.471488755872997e-07</v>
       </c>
       <c r="ED7" t="n">
-        <v>2.114717790391296e-05</v>
+        <v>5.697535812032584e-07</v>
       </c>
       <c r="EE7" t="n">
-        <v>4.271895477359067e-07</v>
+        <v>1.711250774860673e-06</v>
       </c>
       <c r="EF7" t="n">
-        <v>2.439936361042783e-05</v>
+        <v>3.389404355402803e-06</v>
       </c>
       <c r="EG7" t="n">
-        <v>2.415756716800388e-05</v>
+        <v>1.060245085682254e-05</v>
       </c>
       <c r="EH7" t="n">
-        <v>2.255011850138544e-06</v>
+        <v>5.880121079826495e-06</v>
       </c>
       <c r="EI7" t="n">
-        <v>1.112209793063812e-05</v>
+        <v>1.585502559464658e-06</v>
       </c>
       <c r="EJ7" t="n">
-        <v>5.242895895207766e-06</v>
+        <v>1.527667905065755e-06</v>
       </c>
       <c r="EK7" t="n">
-        <v>5.003221303923056e-08</v>
+        <v>8.417545700467599e-07</v>
       </c>
       <c r="EL7" t="n">
-        <v>2.993825091834879e-06</v>
+        <v>4.185237230558414e-06</v>
       </c>
       <c r="EM7" t="n">
-        <v>1.282114681089297e-05</v>
+        <v>1.119382204706199e-06</v>
       </c>
       <c r="EN7" t="n">
-        <v>1.670073970672092e-06</v>
+        <v>2.437983994241222e-06</v>
       </c>
       <c r="EO7" t="n">
-        <v>2.840625711542089e-06</v>
+        <v>7.558446668554097e-08</v>
       </c>
       <c r="EP7" t="n">
-        <v>1.405494549544528e-05</v>
+        <v>4.809285201190505e-06</v>
       </c>
       <c r="EQ7" t="n">
-        <v>2.337634214200079e-06</v>
+        <v>6.94711752657895e-06</v>
       </c>
       <c r="ER7" t="n">
-        <v>7.52568848838564e-06</v>
+        <v>4.734643880510703e-06</v>
       </c>
       <c r="ES7" t="n">
-        <v>8.850939593685325e-06</v>
+        <v>5.085402790427906e-06</v>
       </c>
       <c r="ET7" t="n">
-        <v>5.009232154407073e-06</v>
+        <v>6.666894478257746e-06</v>
       </c>
       <c r="EU7" t="n">
-        <v>5.812820745632052e-06</v>
+        <v>1.046196121023968e-05</v>
       </c>
       <c r="EV7" t="n">
-        <v>4.848734533879906e-06</v>
+        <v>1.258402971870964e-05</v>
       </c>
       <c r="EW7" t="n">
-        <v>2.392040869381162e-06</v>
+        <v>1.723757122817915e-06</v>
       </c>
       <c r="EX7" t="n">
-        <v>1.355045515083475e-05</v>
+        <v>1.991682438529097e-06</v>
       </c>
       <c r="EY7" t="n">
-        <v>1.784520281944424e-05</v>
+        <v>1.076928765542107e-05</v>
       </c>
       <c r="EZ7" t="n">
-        <v>4.136631559958914e-06</v>
+        <v>5.842847713211086e-06</v>
       </c>
       <c r="FA7" t="n">
-        <v>5.390304977481719e-06</v>
+        <v>2.756795765890274e-06</v>
       </c>
       <c r="FB7" t="n">
-        <v>6.351224897116481e-07</v>
+        <v>1.715293592496892e-06</v>
       </c>
       <c r="FC7" t="n">
-        <v>3.325332045278628e-06</v>
+        <v>1.840656750573544e-06</v>
       </c>
       <c r="FD7" t="n">
-        <v>2.11003384720243e-06</v>
+        <v>4.611987606040202e-06</v>
       </c>
       <c r="FE7" t="n">
-        <v>4.297484338167123e-06</v>
+        <v>9.193475989377475e-07</v>
       </c>
       <c r="FF7" t="n">
-        <v>3.833089863292116e-07</v>
+        <v>4.262322818249231e-06</v>
       </c>
       <c r="FG7" t="n">
-        <v>1.440346750314347e-05</v>
+        <v>2.13850717045716e-06</v>
       </c>
       <c r="FH7" t="n">
-        <v>7.943644959595986e-06</v>
+        <v>1.411214839208697e-06</v>
       </c>
       <c r="FI7" t="n">
-        <v>5.3139879128139e-06</v>
+        <v>7.380622264463454e-06</v>
       </c>
       <c r="FJ7" t="n">
-        <v>1.089694433176192e-05</v>
+        <v>7.018216365395347e-06</v>
       </c>
       <c r="FK7" t="n">
-        <v>6.030275471857749e-06</v>
+        <v>3.756010755751049e-06</v>
       </c>
       <c r="FL7" t="n">
-        <v>7.1227141233976e-06</v>
+        <v>1.581991227794788e-06</v>
       </c>
       <c r="FM7" t="n">
-        <v>1.165679577752599e-06</v>
+        <v>1.233543912348978e-06</v>
       </c>
       <c r="FN7" t="n">
-        <v>1.538881406304426e-06</v>
+        <v>5.504133696376812e-06</v>
       </c>
       <c r="FO7" t="n">
-        <v>2.173106622649357e-06</v>
+        <v>6.618979568884242e-06</v>
       </c>
       <c r="FP7" t="n">
-        <v>8.556201464671176e-06</v>
+        <v>6.897923412907403e-06</v>
       </c>
       <c r="FQ7" t="n">
-        <v>2.439734271320049e-05</v>
+        <v>1.080573292711051e-05</v>
       </c>
       <c r="FR7" t="n">
-        <v>8.255002285295632e-06</v>
+        <v>4.946325134369545e-06</v>
       </c>
       <c r="FS7" t="n">
-        <v>3.474593313512742e-06</v>
+        <v>3.677687345771119e-07</v>
       </c>
       <c r="FT7" t="n">
-        <v>3.950808604713529e-06</v>
+        <v>4.241483111400157e-06</v>
       </c>
       <c r="FU7" t="n">
-        <v>7.176710823841859e-06</v>
+        <v>4.845410899179114e-07</v>
       </c>
       <c r="FV7" t="n">
-        <v>3.344315700815059e-06</v>
+        <v>8.627286661067046e-06</v>
       </c>
       <c r="FW7" t="n">
-        <v>8.156765943567734e-06</v>
+        <v>4.143508249399019e-06</v>
       </c>
       <c r="FX7" t="n">
-        <v>6.606390343222301e-06</v>
+        <v>2.142174480468384e-06</v>
       </c>
       <c r="FY7" t="n">
-        <v>1.152779441326857e-05</v>
+        <v>1.064427669916768e-05</v>
       </c>
       <c r="FZ7" t="n">
-        <v>1.545186250950792e-06</v>
+        <v>3.484748276605387e-06</v>
       </c>
       <c r="GA7" t="n">
-        <v>8.795970643404871e-06</v>
+        <v>9.443907629247406e-07</v>
       </c>
       <c r="GB7" t="n">
-        <v>6.978051260375651e-06</v>
+        <v>2.231590315204812e-06</v>
       </c>
       <c r="GC7" t="n">
-        <v>5.074470209365245e-06</v>
+        <v>1.645714064579806e-06</v>
       </c>
       <c r="GD7" t="n">
-        <v>3.957924832320714e-07</v>
+        <v>7.346472557401285e-06</v>
       </c>
       <c r="GE7" t="n">
-        <v>7.274598829098977e-06</v>
+        <v>1.817569136619568e-05</v>
       </c>
       <c r="GF7" t="n">
-        <v>4.453540896065533e-06</v>
+        <v>3.152479166601552e-06</v>
       </c>
       <c r="GG7" t="n">
-        <v>2.453578417771496e-06</v>
+        <v>4.46915464635822e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01744667813181877</v>
+        <v>0.001262336620129645</v>
       </c>
       <c r="B8" t="n">
-        <v>0.000859453110024333</v>
+        <v>0.009661934338510036</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02353540435433388</v>
+        <v>0.001137838931754231</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005692788399755955</v>
+        <v>0.005115729290992022</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008215136826038361</v>
+        <v>0.002206344623118639</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002646811539307237</v>
+        <v>0.007876371964812279</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005368760786950588</v>
+        <v>0.0002440199605189264</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004099094308912754</v>
+        <v>0.002587425988167524</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006531151942908764</v>
+        <v>0.0006925777997821569</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01662193797528744</v>
+        <v>0.002415868453681469</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002109883120283484</v>
+        <v>0.008748840540647507</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02336018905043602</v>
+        <v>0.0004593382473103702</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003063438460230827</v>
+        <v>0.004066966474056244</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0006120010511949658</v>
+        <v>0.000378375087166205</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002590332645922899</v>
+        <v>0.007809939794242382</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00454089418053627</v>
+        <v>0.0008500122930854559</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.008725195191800594</v>
+        <v>0.001337251276709139</v>
       </c>
       <c r="R8" t="n">
-        <v>0.009041117504239082</v>
+        <v>0.0005354876630008221</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0001094460021704435</v>
+        <v>0.0002043638669420034</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0062797786667943</v>
+        <v>0.0008448511362075806</v>
       </c>
       <c r="U8" t="n">
-        <v>7.096753688529134e-05</v>
+        <v>0.0006786928861401975</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002320518717169762</v>
+        <v>0.001890822779387236</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0009624354424886405</v>
+        <v>0.0006766211008653045</v>
       </c>
       <c r="X8" t="n">
-        <v>9.65084764175117e-05</v>
+        <v>0.0004424532235134393</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.002418374642729759</v>
+        <v>0.0005774400196969509</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.005628646351397038</v>
+        <v>0.001034335698932409</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.000288873998215422</v>
+        <v>0.0009373283246532083</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.001451667747460306</v>
+        <v>9.519752347841859e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0001887925900518894</v>
+        <v>0.0003313633787911385</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0006924971239641309</v>
+        <v>0.0002590938820503652</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.002097682096064091</v>
+        <v>0.0003026461927220225</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.001194978132843971</v>
+        <v>0.0003329901664983481</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.001279639662243426</v>
+        <v>0.0001466042886022478</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.002021047752350569</v>
+        <v>0.0002077613025903702</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.005889866035431623</v>
+        <v>0.0004404545179568231</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.006189478095620871</v>
+        <v>0.0007529488066211343</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.004395665135234594</v>
+        <v>0.00124682579189539</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.004515839274972677</v>
+        <v>0.001085959607735276</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.003069386351853609</v>
+        <v>0.0004018461622763425</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.003981465939432383</v>
+        <v>0.00022456597071141</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.001524489372968674</v>
+        <v>0.0001655914384173229</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.001988893374800682</v>
+        <v>0.00124820414930582</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0003093894629273564</v>
+        <v>0.0002399943768978119</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.002301885047927499</v>
+        <v>0.0009266930865123868</v>
       </c>
       <c r="AS8" t="n">
-        <v>8.096278179436922e-06</v>
+        <v>0.001631427672691643</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.007829053327441216</v>
+        <v>0.0004506762488745153</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.004372234456241131</v>
+        <v>0.005702744703739882</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.01182679086923599</v>
+        <v>0.0003155012091156095</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.004156768787652254</v>
+        <v>0.001369105069898069</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.002251640893518925</v>
+        <v>0.001957042375579476</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.006403691601008177</v>
+        <v>0.004119083750993013</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.001991844736039639</v>
+        <v>0.0005847109132446349</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.002020381158217788</v>
+        <v>0.0008449595188722014</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.001848701620474458</v>
+        <v>0.002380417427048087</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.002845136448740959</v>
+        <v>0.001041031908243895</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0005651911487802863</v>
+        <v>0.002075706841424108</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.006998538505285978</v>
+        <v>0.003014791756868362</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0004085076216142625</v>
+        <v>0.0007898258045315742</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.005535535980015993</v>
+        <v>0.001560700475238264</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.002686660969629884</v>
+        <v>0.002069941023364663</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.005227739922702312</v>
+        <v>0.0002038587699644268</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.002302971901372075</v>
+        <v>0.001188353751786053</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.003815734758973122</v>
+        <v>0.000573659548535943</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0005836079944856465</v>
+        <v>0.0002372901944909245</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.001286726910620928</v>
+        <v>0.002170799998566508</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.004383841529488564</v>
+        <v>0.001130448654294014</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0009173852158710361</v>
+        <v>0.001003439188934863</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.004448122810572386</v>
+        <v>0.0001149793388321996</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.0006697688950225711</v>
+        <v>0.0004424377693794668</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.001931597944349051</v>
+        <v>0.0007696942775510252</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.004044982139021158</v>
+        <v>0.0008653452387079597</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0003249303554184735</v>
+        <v>0.0003168309922330081</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.007544731721282005</v>
+        <v>0.0001337485737167299</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.001240399898961186</v>
+        <v>0.003169102827087045</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.005789988208562136</v>
+        <v>0.001117586507461965</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.002378970151767135</v>
+        <v>0.001427526469342411</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.001350429840385914</v>
+        <v>0.0008688075467944145</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.002597135957330465</v>
+        <v>0.00182872568257153</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0002089826157316566</v>
+        <v>0.0005365012330003083</v>
       </c>
       <c r="CB8" t="n">
-        <v>2.274691360071301e-05</v>
+        <v>0.000609087641350925</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.00105772796086967</v>
+        <v>0.001239573117345572</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.003728463547304273</v>
+        <v>7.95711821410805e-05</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.003788339206948876</v>
+        <v>0.001583166187629104</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.004512404557317495</v>
+        <v>0.001087046344764531</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.0005647202488034964</v>
+        <v>0.0007728944765403867</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0003262156387791038</v>
+        <v>0.0003563596110325307</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.001661507645621896</v>
+        <v>0.001121006091125309</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0009832177311182022</v>
+        <v>0.0004688556655310094</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.001044291071593761</v>
+        <v>0.0005395675543695688</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.0004002167843282223</v>
+        <v>0.000829744094517082</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.001021880656480789</v>
+        <v>0.002003158675506711</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.003276214469224215</v>
+        <v>0.0003847673069685698</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0004509218852035701</v>
+        <v>0.0002054646902251989</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.002359328558668494</v>
+        <v>0.001279440592043102</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.001353565487079322</v>
+        <v>0.0004377763252705336</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.001137197250500321</v>
+        <v>0.001364591880701482</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0004586273280438036</v>
+        <v>0.001788937603123486</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.002363421721383929</v>
+        <v>0.001312796375714242</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.002857765182852745</v>
+        <v>0.0002979422570206225</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.003444512840360403</v>
+        <v>0.0001131794342654757</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.003499440383166075</v>
+        <v>0.001459967461414635</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.004861172288656235</v>
+        <v>0.001088704215362668</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.000117271498311311</v>
+        <v>0.001244899816811085</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.002331030555069447</v>
+        <v>0.0001604087010491639</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.001591268461197615</v>
+        <v>0.001182687468826771</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0007476896280422807</v>
+        <v>0.0004528877325356007</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.0005461631226353347</v>
+        <v>0.001190702780149877</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.0006800228729844093</v>
+        <v>0.0004948582500219345</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.001751450938172638</v>
+        <v>0.0008410731097683311</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.008020713925361633</v>
+        <v>0.0005581943551078439</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.002586963819339871</v>
+        <v>0.0002758389455266297</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.00209737615659833</v>
+        <v>0.002540759509429336</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.001256638090126216</v>
+        <v>0.002013631165027618</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.001197660574689507</v>
+        <v>0.001009956002235413</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.0002097732503898442</v>
+        <v>0.0008523082360625267</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.000946482177823782</v>
+        <v>0.001619074493646622</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.002518853638321161</v>
+        <v>0.002077492419630289</v>
       </c>
       <c r="DN8" t="n">
-        <v>3.429211210459471e-05</v>
+        <v>0.0003913467517122626</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.004739208612591028</v>
+        <v>0.0006327916053123772</v>
       </c>
       <c r="DP8" t="n">
-        <v>9.29482193896547e-05</v>
+        <v>0.000508272263687104</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.000291332311462611</v>
+        <v>0.0002608047216199338</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.000760992057621479</v>
+        <v>0.0002745356177911162</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.00101963896304369</v>
+        <v>0.0007194365607574582</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0003214363532606512</v>
+        <v>4.62621683254838e-05</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.001055400818586349</v>
+        <v>0.000177702255314216</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.001754796365275979</v>
+        <v>0.0009171984856948256</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.001579388394020498</v>
+        <v>1.053899177350104e-05</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.00100427505094558</v>
+        <v>0.0007883632788434625</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.0002952383947558701</v>
+        <v>0.001252955989912152</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.0003756954101845622</v>
+        <v>0.0002576766128186136</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.002201017457991838</v>
+        <v>0.0007530755246989429</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.0002561963337939233</v>
+        <v>0.0006637683254666626</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.001324376324191689</v>
+        <v>0.0003865164762828499</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.002713549416512251</v>
+        <v>0.0005457078805193305</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.0002410741290077567</v>
+        <v>0.0005774869932793081</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.006170943379402161</v>
+        <v>0.0009234979515895247</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.002790381666272879</v>
+        <v>0.001565340324304998</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.005105242598801851</v>
+        <v>0.001287831808440387</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.000820449844468385</v>
+        <v>0.0005183105240575969</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.0008272503037005663</v>
+        <v>0.0003899526782333851</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.004879557061940432</v>
+        <v>0.001107158255763352</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.0004497242043726146</v>
+        <v>0.0005150958313606679</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.003891022643074393</v>
+        <v>3.700777233461849e-05</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.002038370817899704</v>
+        <v>0.0002171375672332942</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.001234143041074276</v>
+        <v>0.0001056049077305943</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.00275890901684761</v>
+        <v>0.0008529387996532023</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.002313428092747927</v>
+        <v>0.0009233050514012575</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.0003745141439139843</v>
+        <v>0.0007550169248133898</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.001147471717558801</v>
+        <v>0.0007185913273133337</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.003235221840441227</v>
+        <v>0.0007237246027216315</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.002101566176861525</v>
+        <v>0.001427470706403255</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.001526673673652112</v>
+        <v>0.002819341840222478</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.003127682022750378</v>
+        <v>4.855995939578861e-05</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.003710530232638121</v>
+        <v>0.0003255944466218352</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.002815674291923642</v>
+        <v>0.001361800357699394</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.004751660861074924</v>
+        <v>0.0009050183580256999</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.0002483651333022863</v>
+        <v>0.0009598276810720563</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.001505998894572258</v>
+        <v>0.0002025730209425092</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.0003956661967094988</v>
+        <v>0.0009507127106189728</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0008149949135258794</v>
+        <v>0.0008009575540199876</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.00135275290813297</v>
+        <v>0.0008456883952021599</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.001039674389176071</v>
+        <v>0.0008897697553038597</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.002149521373212337</v>
+        <v>0.0005745220114476979</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.0009171602432616055</v>
+        <v>0.0003296818467788398</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.003552671987563372</v>
+        <v>0.001009190338663757</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.002758974209427834</v>
+        <v>0.001396420528180897</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.0002788173733279109</v>
+        <v>0.0001225285086547956</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.003877954324707389</v>
+        <v>0.001672962098382413</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.001624847645871341</v>
+        <v>0.0001579473610036075</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.0004771192034240812</v>
+        <v>0.001367070130072534</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.001701570814475417</v>
+        <v>0.0005967621691524982</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.001742988592013717</v>
+        <v>0.001099121640436351</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.0107683502137661</v>
+        <v>0.0004439441254362464</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.002294419799000025</v>
+        <v>0.001182326930575073</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.002491656225174665</v>
+        <v>0.0009616022580303252</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.00134135119151324</v>
+        <v>0.00197669630870223</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.002027086447924376</v>
+        <v>0.0006098399171605706</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0002972736256197095</v>
+        <v>0.0007972255116328597</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.001042270683683455</v>
+        <v>0.0006111626280471683</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.0003703438269440085</v>
+        <v>0.0003284628037363291</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.001956510357558727</v>
+        <v>0.001910345163196325</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.0003102853079326451</v>
+        <v>0.0007030172855593264</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.0005402775714173913</v>
+        <v>0.0008516709785908461</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0003754789941012859</v>
+        <v>0.0004289283533580601</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.003374392632395029</v>
+        <v>1.254247035831213e-05</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.004473126959055662</v>
+        <v>0.0007918815826997161</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.0008704261854290962</v>
+        <v>0.003811905393376946</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.0008036805083975196</v>
+        <v>0.0001109155709855258</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.0002796113258227706</v>
+        <v>0.0007947348640300333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0004551000311039388</v>
+        <v>3.154007936245762e-05</v>
       </c>
       <c r="B9" t="n">
-        <v>6.06573921686504e-05</v>
+        <v>0.003020618809387088</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003910982050001621</v>
+        <v>9.253462485503405e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001965909323189408</v>
+        <v>0.001271709450520575</v>
       </c>
       <c r="E9" t="n">
-        <v>1.212529969052412e-05</v>
+        <v>0.0009765085997059941</v>
       </c>
       <c r="F9" t="n">
-        <v>4.321216329117306e-05</v>
+        <v>0.001236313953995705</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001618884416529909</v>
+        <v>0.0002059104444924742</v>
       </c>
       <c r="H9" t="n">
-        <v>3.164529334753752e-05</v>
+        <v>0.0003643459058366716</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001147805305663496</v>
+        <v>0.0006685431580990553</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0004366187495179474</v>
+        <v>4.260525020072237e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>7.816187280695885e-05</v>
+        <v>0.003305448684841394</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004283150192350149</v>
+        <v>0.0002511835482437164</v>
       </c>
       <c r="M9" t="n">
-        <v>9.404450247529894e-05</v>
+        <v>0.0006049439543858171</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0001259102136828005</v>
+        <v>0.0004060241917613894</v>
       </c>
       <c r="O9" t="n">
-        <v>5.363463060348295e-06</v>
+        <v>0.0008705234504304826</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0001463064836570993</v>
+        <v>0.0001108773140003905</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0001116317143896595</v>
+        <v>0.0001024712400976568</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0002085173182422295</v>
+        <v>0.0004853454593103379</v>
       </c>
       <c r="S9" t="n">
-        <v>2.965379826491699e-05</v>
+        <v>6.619944178964943e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0001343330950476229</v>
+        <v>0.0003628839622251689</v>
       </c>
       <c r="U9" t="n">
-        <v>1.508581590314861e-05</v>
+        <v>0.0002863466506823897</v>
       </c>
       <c r="V9" t="n">
-        <v>3.675095649668947e-05</v>
+        <v>0.0003444900503382087</v>
       </c>
       <c r="W9" t="n">
-        <v>9.471128578297794e-06</v>
+        <v>0.0003023499739356339</v>
       </c>
       <c r="X9" t="n">
-        <v>3.174980156472884e-05</v>
+        <v>7.812253898009658e-06</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.396874722559005e-05</v>
+        <v>2.2111002181191e-05</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0001121339519158937</v>
+        <v>0.0001847019884735346</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.60202216648031e-05</v>
+        <v>0.0002647751243785024</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.627313395147212e-05</v>
+        <v>0.0001543731632409617</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.530457302578725e-05</v>
+        <v>5.779980710940436e-05</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.373649062472396e-05</v>
+        <v>0.0005066767917014658</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.301349741173908e-05</v>
+        <v>0.000164739933097735</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.718181273550726e-05</v>
+        <v>1.639910442463588e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>6.088047666708007e-05</v>
+        <v>0.0002530379570089281</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.230446160770953e-06</v>
+        <v>0.0002287588285980746</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0001406782394042239</v>
+        <v>5.152131416252814e-05</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.0001234214432770386</v>
+        <v>0.0002161615993827581</v>
       </c>
       <c r="AK9" t="n">
-        <v>7.959833601489663e-05</v>
+        <v>0.0003760622930712998</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.000133288704091683</v>
+        <v>0.0004677804827224463</v>
       </c>
       <c r="AM9" t="n">
-        <v>3.98957563447766e-05</v>
+        <v>0.0003616465837694705</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.0001153197808889672</v>
+        <v>3.075910353800282e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.671510785352439e-05</v>
+        <v>7.285146421054378e-05</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.257762571389321e-05</v>
+        <v>0.0002705041843000799</v>
       </c>
       <c r="AQ9" t="n">
-        <v>5.39208031113958e-07</v>
+        <v>7.558838842669502e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.108809283323353e-05</v>
+        <v>3.107640077359974e-05</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.013503712485544e-06</v>
+        <v>5.248192974249832e-05</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.0002059145626844838</v>
+        <v>0.0003285031707491726</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.84941837284714e-05</v>
+        <v>0.001904357573948801</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0001828013482736424</v>
+        <v>0.000550213095266372</v>
       </c>
       <c r="AW9" t="n">
-        <v>9.189551929011941e-05</v>
+        <v>0.0004622932174243033</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.214581324253231e-05</v>
+        <v>2.426162245683372e-05</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.000113572197733447</v>
+        <v>0.0005986219039186835</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7.024364094831981e-06</v>
+        <v>0.0002562028530519456</v>
       </c>
       <c r="BA9" t="n">
-        <v>4.8341626097681e-05</v>
+        <v>9.705000411486253e-05</v>
       </c>
       <c r="BB9" t="n">
-        <v>2.727349965425674e-05</v>
+        <v>0.0001792765688151121</v>
       </c>
       <c r="BC9" t="n">
-        <v>9.199378837365657e-05</v>
+        <v>9.989325189962983e-05</v>
       </c>
       <c r="BD9" t="n">
-        <v>3.624145756475627e-05</v>
+        <v>0.0005167075432837009</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.0001522820821264759</v>
+        <v>0.0003101477341260761</v>
       </c>
       <c r="BF9" t="n">
-        <v>9.242402484233025e-06</v>
+        <v>9.302352555096149e-05</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.729131327010691e-07</v>
+        <v>0.0008776306640356779</v>
       </c>
       <c r="BH9" t="n">
-        <v>3.836773248622194e-05</v>
+        <v>0.0004087879788130522</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.0001164060813607648</v>
+        <v>0.0001671455829637125</v>
       </c>
       <c r="BJ9" t="n">
-        <v>9.322351979790255e-05</v>
+        <v>9.898647840600461e-05</v>
       </c>
       <c r="BK9" t="n">
-        <v>6.475432746810839e-05</v>
+        <v>0.0001447071554139256</v>
       </c>
       <c r="BL9" t="n">
-        <v>4.927655754727311e-05</v>
+        <v>0.0003889420186169446</v>
       </c>
       <c r="BM9" t="n">
-        <v>5.724374568671919e-05</v>
+        <v>0.0003420366847421974</v>
       </c>
       <c r="BN9" t="n">
-        <v>8.789066487224773e-05</v>
+        <v>7.637664384674281e-05</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.105194314732216e-06</v>
+        <v>0.0001047877158271149</v>
       </c>
       <c r="BP9" t="n">
-        <v>9.820658306125551e-05</v>
+        <v>0.0004818324232473969</v>
       </c>
       <c r="BQ9" t="n">
-        <v>1.36760590976337e-05</v>
+        <v>3.288995503680781e-05</v>
       </c>
       <c r="BR9" t="n">
-        <v>1.35801319629536e-05</v>
+        <v>0.0001526110572740436</v>
       </c>
       <c r="BS9" t="n">
-        <v>3.56877499143593e-05</v>
+        <v>0.0001198680329252966</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.387036991218338e-05</v>
+        <v>4.934565367875621e-05</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.0001671876525506377</v>
+        <v>0.0002560457214713097</v>
       </c>
       <c r="BV9" t="n">
-        <v>5.606523700407706e-05</v>
+        <v>0.001197814592160285</v>
       </c>
       <c r="BW9" t="n">
-        <v>9.125498036155477e-05</v>
+        <v>0.0002580387517809868</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0001765007036738098</v>
+        <v>0.000354103627614677</v>
       </c>
       <c r="BY9" t="n">
-        <v>9.702935130917467e-06</v>
+        <v>0.0001032651925925165</v>
       </c>
       <c r="BZ9" t="n">
-        <v>5.907121521886438e-05</v>
+        <v>4.761440504807979e-05</v>
       </c>
       <c r="CA9" t="n">
-        <v>7.601533070555888e-06</v>
+        <v>0.0001165788926300593</v>
       </c>
       <c r="CB9" t="n">
-        <v>2.592701093817595e-05</v>
+        <v>4.098143472219817e-05</v>
       </c>
       <c r="CC9" t="n">
-        <v>4.193347194814123e-05</v>
+        <v>2.708682950469665e-05</v>
       </c>
       <c r="CD9" t="n">
-        <v>8.654550765641034e-05</v>
+        <v>0.0001187410816783085</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.0001181795596494339</v>
+        <v>0.0005096847307868302</v>
       </c>
       <c r="CF9" t="n">
-        <v>8.219119627028704e-05</v>
+        <v>4.353394615463912e-06</v>
       </c>
       <c r="CG9" t="n">
-        <v>3.634682798292488e-05</v>
+        <v>0.0001712785160634667</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.8968736185343e-05</v>
+        <v>1.831218105508015e-05</v>
       </c>
       <c r="CI9" t="n">
-        <v>1.820488250814378e-05</v>
+        <v>0.0002359038626309484</v>
       </c>
       <c r="CJ9" t="n">
-        <v>2.901603875216097e-05</v>
+        <v>0.0002256758016301319</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.936093394760974e-05</v>
+        <v>3.782721614697948e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>6.229170594451716e-06</v>
+        <v>9.030882938532159e-05</v>
       </c>
       <c r="CM9" t="n">
-        <v>1.199634425574914e-05</v>
+        <v>0.0009177927859127522</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.000123496851301752</v>
+        <v>0.0002352926530875266</v>
       </c>
       <c r="CO9" t="n">
-        <v>4.441956480150111e-05</v>
+        <v>5.345788667909801e-05</v>
       </c>
       <c r="CP9" t="n">
-        <v>2.479129034327343e-05</v>
+        <v>0.0004700124554801732</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1.558540316182189e-05</v>
+        <v>0.0004433113208506256</v>
       </c>
       <c r="CR9" t="n">
-        <v>2.094394403684419e-05</v>
+        <v>0.000413755071349442</v>
       </c>
       <c r="CS9" t="n">
-        <v>1.915080065373331e-05</v>
+        <v>0.000621770101133734</v>
       </c>
       <c r="CT9" t="n">
-        <v>1.742343556543346e-05</v>
+        <v>0.0003782936837524176</v>
       </c>
       <c r="CU9" t="n">
-        <v>3.430018841754645e-05</v>
+        <v>2.672717528184876e-05</v>
       </c>
       <c r="CV9" t="n">
-        <v>7.606491271872073e-05</v>
+        <v>2.012284676311538e-05</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.000108827262010891</v>
+        <v>0.0005295936716720462</v>
       </c>
       <c r="CX9" t="n">
-        <v>9.017072443384677e-05</v>
+        <v>2.398141077719629e-05</v>
       </c>
       <c r="CY9" t="n">
-        <v>2.493384454282932e-05</v>
+        <v>0.000257513951510191</v>
       </c>
       <c r="CZ9" t="n">
-        <v>3.625689714681357e-05</v>
+        <v>3.839945566141978e-05</v>
       </c>
       <c r="DA9" t="n">
-        <v>1.127541509049479e-05</v>
+        <v>0.0002626563364174217</v>
       </c>
       <c r="DB9" t="n">
-        <v>2.700207187444903e-05</v>
+        <v>0.0002335790341021493</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.173789132735692e-05</v>
+        <v>0.0001634112413739786</v>
       </c>
       <c r="DD9" t="n">
-        <v>8.209146471926942e-06</v>
+        <v>6.424897583201528e-05</v>
       </c>
       <c r="DE9" t="n">
-        <v>9.92627701634774e-06</v>
+        <v>0.0004243587027303874</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.0001891462015919387</v>
+        <v>0.0005040185642428696</v>
       </c>
       <c r="DG9" t="n">
-        <v>1.917375993798487e-05</v>
+        <v>9.836935350904241e-05</v>
       </c>
       <c r="DH9" t="n">
-        <v>2.724020305322483e-06</v>
+        <v>0.0006241811788640916</v>
       </c>
       <c r="DI9" t="n">
-        <v>5.238754238234833e-05</v>
+        <v>0.0008721348713152111</v>
       </c>
       <c r="DJ9" t="n">
-        <v>1.211659036925994e-05</v>
+        <v>0.0002126124745700508</v>
       </c>
       <c r="DK9" t="n">
-        <v>2.728995605139062e-05</v>
+        <v>9.992615377996117e-05</v>
       </c>
       <c r="DL9" t="n">
-        <v>1.621716364752501e-05</v>
+        <v>9.494768892182037e-05</v>
       </c>
       <c r="DM9" t="n">
-        <v>5.512246571015567e-05</v>
+        <v>0.0003047462669201195</v>
       </c>
       <c r="DN9" t="n">
-        <v>1.85663957381621e-05</v>
+        <v>0.0002108120243065059</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.0001322837051702663</v>
+        <v>4.184039426036179e-05</v>
       </c>
       <c r="DP9" t="n">
-        <v>2.851909630408045e-05</v>
+        <v>0.0001278620620723814</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.335818978986936e-05</v>
+        <v>0.0001634204381844029</v>
       </c>
       <c r="DR9" t="n">
-        <v>9.214598321705125e-06</v>
+        <v>0.0001481257932027802</v>
       </c>
       <c r="DS9" t="n">
-        <v>1.501444148743758e-05</v>
+        <v>0.0001494480529800057</v>
       </c>
       <c r="DT9" t="n">
-        <v>1.678675653238315e-05</v>
+        <v>0.0001356675929855555</v>
       </c>
       <c r="DU9" t="n">
-        <v>1.754628829075955e-05</v>
+        <v>0.0002144571917597204</v>
       </c>
       <c r="DV9" t="n">
-        <v>1.976385829038918e-05</v>
+        <v>5.424184200819582e-05</v>
       </c>
       <c r="DW9" t="n">
-        <v>3.05716966977343e-05</v>
+        <v>0.0002714729635044932</v>
       </c>
       <c r="DX9" t="n">
-        <v>3.386383832548745e-05</v>
+        <v>0.0003757056838367134</v>
       </c>
       <c r="DY9" t="n">
-        <v>8.54914469528012e-06</v>
+        <v>0.0001365071511827409</v>
       </c>
       <c r="DZ9" t="n">
-        <v>8.865608833730221e-07</v>
+        <v>6.404293526429683e-05</v>
       </c>
       <c r="EA9" t="n">
-        <v>9.819777915254235e-05</v>
+        <v>0.0001656376261962578</v>
       </c>
       <c r="EB9" t="n">
-        <v>3.259066579630598e-05</v>
+        <v>0.000205107731744647</v>
       </c>
       <c r="EC9" t="n">
-        <v>2.024721470661461e-05</v>
+        <v>7.736462430329993e-05</v>
       </c>
       <c r="ED9" t="n">
-        <v>9.770038741407916e-05</v>
+        <v>0.0003070062957704067</v>
       </c>
       <c r="EE9" t="n">
-        <v>5.276142474031076e-06</v>
+        <v>0.0003654938191175461</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.0001421289780410007</v>
+        <v>0.0002767424448393285</v>
       </c>
       <c r="EG9" t="n">
-        <v>8.836292545311153e-05</v>
+        <v>0.0005674554849974811</v>
       </c>
       <c r="EH9" t="n">
-        <v>7.862039637984708e-05</v>
+        <v>0.0001351623795926571</v>
       </c>
       <c r="EI9" t="n">
-        <v>3.334776556584984e-05</v>
+        <v>0.0002193095133407041</v>
       </c>
       <c r="EJ9" t="n">
-        <v>2.50904013228137e-05</v>
+        <v>0.0001123516485677101</v>
       </c>
       <c r="EK9" t="n">
-        <v>4.097615237697028e-05</v>
+        <v>0.0001864387159002945</v>
       </c>
       <c r="EL9" t="n">
-        <v>1.632233761483803e-05</v>
+        <v>8.799038914730772e-05</v>
       </c>
       <c r="EM9" t="n">
-        <v>8.027978765312582e-05</v>
+        <v>0.0002204358170274645</v>
       </c>
       <c r="EN9" t="n">
-        <v>3.672880848171189e-05</v>
+        <v>0.0001797623262973502</v>
       </c>
       <c r="EO9" t="n">
-        <v>9.187520845443942e-06</v>
+        <v>5.352267908165231e-05</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.0001079975190805271</v>
+        <v>0.0005827274871990085</v>
       </c>
       <c r="EQ9" t="n">
-        <v>1.326339588558767e-05</v>
+        <v>0.0001633526117075235</v>
       </c>
       <c r="ER9" t="n">
-        <v>3.596867099986412e-05</v>
+        <v>9.458250860916451e-05</v>
       </c>
       <c r="ES9" t="n">
-        <v>1.042270014295354e-05</v>
+        <v>4.788495789398439e-05</v>
       </c>
       <c r="ET9" t="n">
-        <v>7.149246812332422e-05</v>
+        <v>0.0001228972541866824</v>
       </c>
       <c r="EU9" t="n">
-        <v>5.41601657459978e-05</v>
+        <v>0.0003191624418832362</v>
       </c>
       <c r="EV9" t="n">
-        <v>1.210597474710084e-05</v>
+        <v>0.0004008247924502939</v>
       </c>
       <c r="EW9" t="n">
-        <v>3.930629463866353e-05</v>
+        <v>0.0001568797160871327</v>
       </c>
       <c r="EX9" t="n">
-        <v>7.587810250697657e-05</v>
+        <v>0.00013331750233192</v>
       </c>
       <c r="EY9" t="n">
-        <v>9.668581333244219e-05</v>
+        <v>0.0005169837386347353</v>
       </c>
       <c r="EZ9" t="n">
-        <v>9.209971176460385e-05</v>
+        <v>7.46703808545135e-05</v>
       </c>
       <c r="FA9" t="n">
-        <v>2.548802513047121e-05</v>
+        <v>0.0001381658366881311</v>
       </c>
       <c r="FB9" t="n">
-        <v>2.115532333846204e-05</v>
+        <v>9.132461855188012e-05</v>
       </c>
       <c r="FC9" t="n">
-        <v>1.275011618417921e-05</v>
+        <v>0.00026294807321392</v>
       </c>
       <c r="FD9" t="n">
-        <v>2.455103822285309e-05</v>
+        <v>0.0001970095472643152</v>
       </c>
       <c r="FE9" t="n">
-        <v>2.18476343434304e-05</v>
+        <v>6.64524341118522e-05</v>
       </c>
       <c r="FF9" t="n">
-        <v>1.996497667278163e-05</v>
+        <v>0.0001053125815815292</v>
       </c>
       <c r="FG9" t="n">
-        <v>7.90678386692889e-05</v>
+        <v>2.250480247312225e-05</v>
       </c>
       <c r="FH9" t="n">
-        <v>4.298510248190723e-06</v>
+        <v>0.0002724576334003359</v>
       </c>
       <c r="FI9" t="n">
-        <v>7.591121539007872e-05</v>
+        <v>7.402850314974785e-07</v>
       </c>
       <c r="FJ9" t="n">
-        <v>8.673594857100397e-05</v>
+        <v>0.0004695548850577325</v>
       </c>
       <c r="FK9" t="n">
-        <v>2.920403130701743e-05</v>
+        <v>0.0001182839623652399</v>
       </c>
       <c r="FL9" t="n">
-        <v>3.947033837903291e-05</v>
+        <v>5.211011739447713e-05</v>
       </c>
       <c r="FM9" t="n">
-        <v>3.90105415135622e-05</v>
+        <v>9.079337905859575e-05</v>
       </c>
       <c r="FN9" t="n">
-        <v>6.707118154736236e-05</v>
+        <v>8.457253716187552e-05</v>
       </c>
       <c r="FO9" t="n">
-        <v>5.120562855154276e-05</v>
+        <v>0.0002183107571909204</v>
       </c>
       <c r="FP9" t="n">
-        <v>5.428365693660453e-05</v>
+        <v>0.0004524762043729424</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.0002336418256163597</v>
+        <v>0.0001502037775935605</v>
       </c>
       <c r="FR9" t="n">
-        <v>2.471214611432515e-05</v>
+        <v>0.000242030102526769</v>
       </c>
       <c r="FS9" t="n">
-        <v>2.030770701821893e-06</v>
+        <v>0.0001799061865312979</v>
       </c>
       <c r="FT9" t="n">
-        <v>2.383827450103126e-05</v>
+        <v>0.0006446424522437155</v>
       </c>
       <c r="FU9" t="n">
-        <v>4.559560693451203e-07</v>
+        <v>0.0001728101051412523</v>
       </c>
       <c r="FV9" t="n">
-        <v>2.648454392328858e-05</v>
+        <v>2.58317231782712e-06</v>
       </c>
       <c r="FW9" t="n">
-        <v>1.432126191502903e-05</v>
+        <v>0.0005130653153173625</v>
       </c>
       <c r="FX9" t="n">
-        <v>4.825345604331233e-05</v>
+        <v>0.0001696539984550327</v>
       </c>
       <c r="FY9" t="n">
-        <v>7.227782043628395e-05</v>
+        <v>0.0002389492583461106</v>
       </c>
       <c r="FZ9" t="n">
-        <v>3.064911288674921e-05</v>
+        <v>4.935117613058537e-05</v>
       </c>
       <c r="GA9" t="n">
-        <v>7.360195468208985e-06</v>
+        <v>7.213476055767387e-05</v>
       </c>
       <c r="GB9" t="n">
-        <v>2.720635166042484e-05</v>
+        <v>3.197619662387297e-05</v>
       </c>
       <c r="GC9" t="n">
-        <v>1.719224201224279e-06</v>
+        <v>8.49883581395261e-05</v>
       </c>
       <c r="GD9" t="n">
-        <v>6.159556505735964e-05</v>
+        <v>0.0002223863557446748</v>
       </c>
       <c r="GE9" t="n">
-        <v>6.080023376853205e-05</v>
+        <v>0.0002044743159785867</v>
       </c>
       <c r="GF9" t="n">
-        <v>8.985782187664881e-06</v>
+        <v>0.0001007772516459227</v>
       </c>
       <c r="GG9" t="n">
-        <v>4.298289786675014e-05</v>
+        <v>0.0004244530573487282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0001000639458652586</v>
+        <v>1.404329569298923e-10</v>
       </c>
       <c r="B10" t="n">
-        <v>4.010049451608211e-05</v>
+        <v>3.067326115324676e-10</v>
       </c>
       <c r="C10" t="n">
-        <v>2.76200830739981e-06</v>
+        <v>3.180342100783662e-11</v>
       </c>
       <c r="D10" t="n">
-        <v>3.461235610302538e-05</v>
+        <v>3.47001843925554e-10</v>
       </c>
       <c r="E10" t="n">
-        <v>3.6433481000131e-05</v>
+        <v>2.039000912557043e-10</v>
       </c>
       <c r="F10" t="n">
-        <v>2.223660703748465e-05</v>
+        <v>8.185964059381767e-12</v>
       </c>
       <c r="G10" t="n">
-        <v>4.368841473478824e-05</v>
+        <v>1.203642324698606e-10</v>
       </c>
       <c r="H10" t="n">
-        <v>1.812865775718819e-05</v>
+        <v>4.170527811986346e-11</v>
       </c>
       <c r="I10" t="n">
-        <v>6.22153947915649e-07</v>
+        <v>1.105412220092639e-10</v>
       </c>
       <c r="J10" t="n">
-        <v>9.059515286935493e-05</v>
+        <v>1.476201938466204e-10</v>
       </c>
       <c r="K10" t="n">
-        <v>1.870895903266501e-05</v>
+        <v>2.052874537028515e-10</v>
       </c>
       <c r="L10" t="n">
-        <v>1.298375536862295e-05</v>
+        <v>5.360681343269391e-11</v>
       </c>
       <c r="M10" t="n">
-        <v>2.616331403260119e-05</v>
+        <v>1.301074942228198e-10</v>
       </c>
       <c r="N10" t="n">
-        <v>6.251987360883504e-05</v>
+        <v>2.63157523550106e-10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.645785687287571e-06</v>
+        <v>2.059500070483722e-10</v>
       </c>
       <c r="P10" t="n">
-        <v>5.327270264388062e-05</v>
+        <v>1.609221922382886e-10</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.398887616232969e-05</v>
+        <v>1.228768198302532e-10</v>
       </c>
       <c r="R10" t="n">
-        <v>1.364052695862483e-05</v>
+        <v>1.27855670495336e-10</v>
       </c>
       <c r="S10" t="n">
-        <v>3.702322601384367e-06</v>
+        <v>9.583000191992763e-12</v>
       </c>
       <c r="T10" t="n">
-        <v>1.834940235312388e-06</v>
+        <v>1.257035170398879e-10</v>
       </c>
       <c r="U10" t="n">
-        <v>1.415992528563947e-06</v>
+        <v>3.248154176183071e-11</v>
       </c>
       <c r="V10" t="n">
-        <v>1.196368884848198e-06</v>
+        <v>8.287366452808254e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>1.216323653352447e-06</v>
+        <v>2.169614210512094e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>2.521349642847781e-06</v>
+        <v>1.036208341353984e-10</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.645011070650071e-05</v>
+        <v>1.357373657917549e-10</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.069039874186274e-05</v>
+        <v>1.969369459176029e-11</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.425203663529828e-06</v>
+        <v>8.968199793901732e-11</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.839414815360215e-06</v>
+        <v>4.494689342937619e-12</v>
       </c>
       <c r="AC10" t="n">
-        <v>3.791685230680741e-06</v>
+        <v>9.230326919462684e-11</v>
       </c>
       <c r="AD10" t="n">
-        <v>5.803169187856838e-06</v>
+        <v>7.907613452928786e-11</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.839991106564412e-06</v>
+        <v>7.298632531682614e-11</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.004233399726218e-05</v>
+        <v>1.164471019610147e-10</v>
       </c>
       <c r="AG10" t="n">
-        <v>5.211697043705499e-06</v>
+        <v>2.466142394463855e-11</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.537635726999724e-06</v>
+        <v>6.307322719667496e-11</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.144793870684225e-05</v>
+        <v>4.49747010466961e-12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.75263335222553e-06</v>
+        <v>5.120198362518202e-11</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.75235381902894e-05</v>
+        <v>7.409735325314415e-11</v>
       </c>
       <c r="AL10" t="n">
-        <v>3.781080067710718e-06</v>
+        <v>4.480947210505626e-11</v>
       </c>
       <c r="AM10" t="n">
-        <v>8.590363904659171e-06</v>
+        <v>3.500424256008827e-11</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.114049155148678e-05</v>
+        <v>4.963709131222682e-12</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.926966539642308e-06</v>
+        <v>2.19364682668699e-11</v>
       </c>
       <c r="AP10" t="n">
-        <v>7.767114766465966e-06</v>
+        <v>4.79807027442547e-11</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.519605686757131e-06</v>
+        <v>4.25421434191442e-11</v>
       </c>
       <c r="AR10" t="n">
-        <v>8.595069630246144e-06</v>
+        <v>1.013704120644832e-10</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.02948138192005e-06</v>
+        <v>4.563040223448667e-11</v>
       </c>
       <c r="AT10" t="n">
-        <v>4.443338548298925e-05</v>
+        <v>3.434564438409282e-11</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.216000600834377e-05</v>
+        <v>1.617019157462707e-10</v>
       </c>
       <c r="AV10" t="n">
-        <v>3.589021844163653e-07</v>
+        <v>1.713860303675929e-11</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.502776558481855e-05</v>
+        <v>1.67395028394246e-10</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.141688805248123e-06</v>
+        <v>6.884001702012199e-11</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.250464356417069e-05</v>
+        <v>7.071736946029361e-11</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.25466103781946e-05</v>
+        <v>2.746028751610119e-11</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.181811285277945e-06</v>
+        <v>8.808584070485459e-12</v>
       </c>
       <c r="BB10" t="n">
-        <v>6.468460469477577e-07</v>
+        <v>4.31049293481145e-11</v>
       </c>
       <c r="BC10" t="n">
-        <v>3.51603448507376e-05</v>
+        <v>6.129201313154198e-11</v>
       </c>
       <c r="BD10" t="n">
-        <v>6.502848009404261e-06</v>
+        <v>4.231458239356556e-11</v>
       </c>
       <c r="BE10" t="n">
-        <v>5.519536443898687e-06</v>
+        <v>6.583257550207833e-11</v>
       </c>
       <c r="BF10" t="n">
-        <v>9.724636583996471e-06</v>
+        <v>3.151960636937901e-11</v>
       </c>
       <c r="BG10" t="n">
-        <v>2.313990262337029e-05</v>
+        <v>1.936026200466401e-10</v>
       </c>
       <c r="BH10" t="n">
-        <v>4.976598688699596e-07</v>
+        <v>7.257772854929456e-11</v>
       </c>
       <c r="BI10" t="n">
-        <v>2.377933196839876e-05</v>
+        <v>3.479034074715948e-11</v>
       </c>
       <c r="BJ10" t="n">
-        <v>3.36261437041685e-05</v>
+        <v>1.360033197173038e-10</v>
       </c>
       <c r="BK10" t="n">
-        <v>9.09223217604449e-07</v>
+        <v>3.139987922451404e-11</v>
       </c>
       <c r="BL10" t="n">
-        <v>6.423802460631123e-06</v>
+        <v>1.078199057813478e-10</v>
       </c>
       <c r="BM10" t="n">
-        <v>1.303589215240208e-05</v>
+        <v>1.572417543393989e-11</v>
       </c>
       <c r="BN10" t="n">
-        <v>2.474195753165986e-06</v>
+        <v>4.954432697434896e-11</v>
       </c>
       <c r="BO10" t="n">
-        <v>5.76621414438705e-06</v>
+        <v>9.220853247615679e-11</v>
       </c>
       <c r="BP10" t="n">
-        <v>9.459012289880775e-06</v>
+        <v>1.928952830798636e-11</v>
       </c>
       <c r="BQ10" t="n">
-        <v>2.16639568861865e-06</v>
+        <v>1.157526505202178e-11</v>
       </c>
       <c r="BR10" t="n">
-        <v>1.025511301122606e-05</v>
+        <v>4.166979261643888e-12</v>
       </c>
       <c r="BS10" t="n">
-        <v>3.930416369257728e-06</v>
+        <v>1.775044521090674e-11</v>
       </c>
       <c r="BT10" t="n">
-        <v>4.745636488223681e-06</v>
+        <v>4.588491045454113e-11</v>
       </c>
       <c r="BU10" t="n">
-        <v>3.610143176047131e-05</v>
+        <v>3.322843042385948e-11</v>
       </c>
       <c r="BV10" t="n">
-        <v>5.752462129748892e-06</v>
+        <v>5.024653609853047e-11</v>
       </c>
       <c r="BW10" t="n">
-        <v>7.713299964962061e-06</v>
+        <v>7.3169172110088e-11</v>
       </c>
       <c r="BX10" t="n">
-        <v>3.175094025209546e-05</v>
+        <v>1.527107260090865e-11</v>
       </c>
       <c r="BY10" t="n">
-        <v>2.141571894753724e-05</v>
+        <v>2.226729217680301e-11</v>
       </c>
       <c r="BZ10" t="n">
-        <v>5.963409421383403e-06</v>
+        <v>3.125187608699065e-11</v>
       </c>
       <c r="CA10" t="n">
-        <v>6.947786005184753e-06</v>
+        <v>9.660647976028613e-11</v>
       </c>
       <c r="CB10" t="n">
-        <v>2.811718331940938e-06</v>
+        <v>2.397531825848453e-12</v>
       </c>
       <c r="CC10" t="n">
-        <v>4.636730864149285e-06</v>
+        <v>8.150497637915421e-12</v>
       </c>
       <c r="CD10" t="n">
-        <v>1.87221376108937e-05</v>
+        <v>1.956550199633256e-11</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.681873072811868e-05</v>
+        <v>6.194200707909658e-11</v>
       </c>
       <c r="CF10" t="n">
-        <v>2.08392521017231e-07</v>
+        <v>4.468751757524814e-11</v>
       </c>
       <c r="CG10" t="n">
-        <v>6.462026249209885e-06</v>
+        <v>8.957322730762662e-12</v>
       </c>
       <c r="CH10" t="n">
-        <v>7.228021331684431e-06</v>
+        <v>1.431079213465303e-11</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.526053097222757e-07</v>
+        <v>3.126901168548635e-11</v>
       </c>
       <c r="CJ10" t="n">
-        <v>6.839421985205263e-06</v>
+        <v>1.582819812717684e-11</v>
       </c>
       <c r="CK10" t="n">
-        <v>1.717237523735093e-06</v>
+        <v>1.465899623909195e-11</v>
       </c>
       <c r="CL10" t="n">
-        <v>2.267810486955568e-06</v>
+        <v>6.518389994436546e-11</v>
       </c>
       <c r="CM10" t="n">
-        <v>1.003515444608638e-05</v>
+        <v>6.092584770023279e-11</v>
       </c>
       <c r="CN10" t="n">
-        <v>1.375975625705905e-05</v>
+        <v>1.607688288052245e-11</v>
       </c>
       <c r="CO10" t="n">
-        <v>6.23873984295642e-06</v>
+        <v>1.270795361302257e-11</v>
       </c>
       <c r="CP10" t="n">
-        <v>6.857990229036659e-07</v>
+        <v>1.238523728019914e-10</v>
       </c>
       <c r="CQ10" t="n">
-        <v>2.417218638584018e-06</v>
+        <v>9.639244263892621e-11</v>
       </c>
       <c r="CR10" t="n">
-        <v>3.414511411392596e-06</v>
+        <v>2.24106740109864e-11</v>
       </c>
       <c r="CS10" t="n">
-        <v>5.417552983999485e-07</v>
+        <v>1.247692921202415e-10</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.691320176178124e-05</v>
+        <v>3.588489921879656e-11</v>
       </c>
       <c r="CU10" t="n">
-        <v>2.713932190090418e-06</v>
+        <v>1.681994474256321e-11</v>
       </c>
       <c r="CV10" t="n">
-        <v>1.475126009609085e-05</v>
+        <v>1.741391579546114e-11</v>
       </c>
       <c r="CW10" t="n">
-        <v>1.562643956276588e-05</v>
+        <v>5.609582937049495e-11</v>
       </c>
       <c r="CX10" t="n">
-        <v>4.201251613267232e-06</v>
+        <v>3.507175799777329e-11</v>
       </c>
       <c r="CY10" t="n">
-        <v>5.278528988128528e-06</v>
+        <v>4.626186933531784e-11</v>
       </c>
       <c r="CZ10" t="n">
-        <v>3.141786237392807e-06</v>
+        <v>3.21498730415648e-11</v>
       </c>
       <c r="DA10" t="n">
-        <v>1.264654088117823e-06</v>
+        <v>4.503294612212549e-11</v>
       </c>
       <c r="DB10" t="n">
-        <v>9.077688446268439e-06</v>
+        <v>1.332828725858493e-11</v>
       </c>
       <c r="DC10" t="n">
-        <v>2.654421905390336e-06</v>
+        <v>1.317906547781966e-11</v>
       </c>
       <c r="DD10" t="n">
-        <v>2.874049187084893e-06</v>
+        <v>5.960099774826588e-11</v>
       </c>
       <c r="DE10" t="n">
-        <v>4.794433152710553e-06</v>
+        <v>6.339441471769902e-11</v>
       </c>
       <c r="DF10" t="n">
-        <v>3.62307473551482e-05</v>
+        <v>7.168987625760792e-11</v>
       </c>
       <c r="DG10" t="n">
-        <v>1.127564610214904e-05</v>
+        <v>1.539243593695616e-10</v>
       </c>
       <c r="DH10" t="n">
-        <v>9.535331628285348e-06</v>
+        <v>1.705432739473878e-10</v>
       </c>
       <c r="DI10" t="n">
-        <v>5.393764240579912e-06</v>
+        <v>3.040986906732712e-10</v>
       </c>
       <c r="DJ10" t="n">
-        <v>6.43695921098697e-06</v>
+        <v>9.278031815052046e-11</v>
       </c>
       <c r="DK10" t="n">
-        <v>1.341835377388634e-05</v>
+        <v>1.081443129491433e-10</v>
       </c>
       <c r="DL10" t="n">
-        <v>1.08458953036461e-05</v>
+        <v>2.203591198401966e-10</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.192339732369874e-05</v>
+        <v>3.916577479001759e-11</v>
       </c>
       <c r="DN10" t="n">
-        <v>5.758955921919551e-06</v>
+        <v>3.173734886008361e-11</v>
       </c>
       <c r="DO10" t="n">
-        <v>1.140601580118528e-05</v>
+        <v>3.216107935521961e-12</v>
       </c>
       <c r="DP10" t="n">
-        <v>4.371276645542821e-06</v>
+        <v>3.99071366230519e-11</v>
       </c>
       <c r="DQ10" t="n">
-        <v>1.874924237199593e-06</v>
+        <v>1.123384371637393e-10</v>
       </c>
       <c r="DR10" t="n">
-        <v>3.378931978659239e-06</v>
+        <v>4.630725490561982e-12</v>
       </c>
       <c r="DS10" t="n">
-        <v>1.052074594554142e-06</v>
+        <v>6.914009295644341e-12</v>
       </c>
       <c r="DT10" t="n">
-        <v>1.024248717840237e-06</v>
+        <v>1.329973457753209e-11</v>
       </c>
       <c r="DU10" t="n">
-        <v>4.077065113960998e-06</v>
+        <v>1.020850591559874e-11</v>
       </c>
       <c r="DV10" t="n">
-        <v>3.62111791218922e-06</v>
+        <v>1.165702534500213e-10</v>
       </c>
       <c r="DW10" t="n">
-        <v>5.546336069528479e-06</v>
+        <v>4.481685855761697e-11</v>
       </c>
       <c r="DX10" t="n">
-        <v>6.152051355456933e-06</v>
+        <v>2.038726826247839e-11</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.077115666703321e-05</v>
+        <v>1.572043328845751e-10</v>
       </c>
       <c r="DZ10" t="n">
-        <v>3.816055595962098e-07</v>
+        <v>2.104099706967677e-11</v>
       </c>
       <c r="EA10" t="n">
-        <v>8.320826964336447e-06</v>
+        <v>1.735196361596358e-11</v>
       </c>
       <c r="EB10" t="n">
-        <v>4.360930233815452e-06</v>
+        <v>1.739519361887432e-10</v>
       </c>
       <c r="EC10" t="n">
-        <v>8.631584933027625e-06</v>
+        <v>3.168154974475534e-12</v>
       </c>
       <c r="ED10" t="n">
-        <v>1.702635927358642e-05</v>
+        <v>1.873299432242348e-11</v>
       </c>
       <c r="EE10" t="n">
-        <v>9.807081369217485e-08</v>
+        <v>1.385301335449229e-11</v>
       </c>
       <c r="EF10" t="n">
-        <v>3.337271118653007e-05</v>
+        <v>7.75924463569666e-13</v>
       </c>
       <c r="EG10" t="n">
-        <v>2.092038630507886e-05</v>
+        <v>6.698248899983383e-11</v>
       </c>
       <c r="EH10" t="n">
-        <v>5.560020326811355e-06</v>
+        <v>3.922768360142825e-11</v>
       </c>
       <c r="EI10" t="n">
-        <v>1.329062433796935e-05</v>
+        <v>5.582860562736158e-11</v>
       </c>
       <c r="EJ10" t="n">
-        <v>1.107916341425152e-05</v>
+        <v>4.85872696243117e-11</v>
       </c>
       <c r="EK10" t="n">
-        <v>1.96752512238163e-06</v>
+        <v>5.29695072526426e-11</v>
       </c>
       <c r="EL10" t="n">
-        <v>1.980460638151271e-06</v>
+        <v>2.421722197776255e-11</v>
       </c>
       <c r="EM10" t="n">
-        <v>6.839577963546617e-06</v>
+        <v>1.600877937157907e-11</v>
       </c>
       <c r="EN10" t="n">
-        <v>3.552121597749647e-06</v>
+        <v>5.41174570434233e-11</v>
       </c>
       <c r="EO10" t="n">
-        <v>6.448427484428976e-06</v>
+        <v>4.647265211543683e-12</v>
       </c>
       <c r="EP10" t="n">
-        <v>1.679592605796643e-05</v>
+        <v>2.138976842869234e-11</v>
       </c>
       <c r="EQ10" t="n">
-        <v>2.891288431783323e-06</v>
+        <v>3.806718829046929e-11</v>
       </c>
       <c r="ER10" t="n">
-        <v>1.680728018982336e-06</v>
+        <v>3.19674842153006e-12</v>
       </c>
       <c r="ES10" t="n">
-        <v>1.053046617016662e-05</v>
+        <v>9.883753537831552e-11</v>
       </c>
       <c r="ET10" t="n">
-        <v>5.018600404582685e-06</v>
+        <v>8.713535448734433e-11</v>
       </c>
       <c r="EU10" t="n">
-        <v>2.103598944813712e-06</v>
+        <v>2.652455338703064e-11</v>
       </c>
       <c r="EV10" t="n">
-        <v>1.213441009895178e-07</v>
+        <v>1.660461074193265e-10</v>
       </c>
       <c r="EW10" t="n">
-        <v>6.380411832651589e-06</v>
+        <v>6.129229762619204e-11</v>
       </c>
       <c r="EX10" t="n">
-        <v>1.601937037776224e-05</v>
+        <v>4.3680770805965e-12</v>
       </c>
       <c r="EY10" t="n">
-        <v>1.279963817069074e-05</v>
+        <v>5.04773688125848e-11</v>
       </c>
       <c r="EZ10" t="n">
-        <v>3.283237219875446e-06</v>
+        <v>2.744562216383528e-11</v>
       </c>
       <c r="FA10" t="n">
-        <v>7.097934940247796e-06</v>
+        <v>2.185072262017584e-11</v>
       </c>
       <c r="FB10" t="n">
-        <v>4.77302955914638e-06</v>
+        <v>2.551780488302402e-11</v>
       </c>
       <c r="FC10" t="n">
-        <v>2.861086613847874e-06</v>
+        <v>3.440428497647474e-11</v>
       </c>
       <c r="FD10" t="n">
-        <v>6.040982498234371e-06</v>
+        <v>2.225594708527012e-11</v>
       </c>
       <c r="FE10" t="n">
-        <v>3.932886443180905e-07</v>
+        <v>8.864988604306845e-12</v>
       </c>
       <c r="FF10" t="n">
-        <v>1.291677790504764e-06</v>
+        <v>6.41523431599289e-11</v>
       </c>
       <c r="FG10" t="n">
-        <v>9.957176189345773e-06</v>
+        <v>1.732641634333287e-11</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.941843947861344e-06</v>
+        <v>4.768662895116016e-11</v>
       </c>
       <c r="FI10" t="n">
-        <v>3.769237991946284e-06</v>
+        <v>1.643983282839656e-10</v>
       </c>
       <c r="FJ10" t="n">
-        <v>6.130672772997059e-06</v>
+        <v>1.376522229534771e-10</v>
       </c>
       <c r="FK10" t="n">
-        <v>5.318424882716499e-06</v>
+        <v>2.387418387983509e-11</v>
       </c>
       <c r="FL10" t="n">
-        <v>7.338495834119385e-06</v>
+        <v>1.9318366351051e-11</v>
       </c>
       <c r="FM10" t="n">
-        <v>1.161322779807961e-05</v>
+        <v>5.618997888506838e-12</v>
       </c>
       <c r="FN10" t="n">
-        <v>1.708899276309239e-06</v>
+        <v>1.072499242193992e-10</v>
       </c>
       <c r="FO10" t="n">
-        <v>7.07507297192933e-08</v>
+        <v>7.326406148422393e-11</v>
       </c>
       <c r="FP10" t="n">
-        <v>8.722874554223381e-06</v>
+        <v>2.632111542610893e-12</v>
       </c>
       <c r="FQ10" t="n">
-        <v>2.64595710177673e-05</v>
+        <v>4.84525683464021e-11</v>
       </c>
       <c r="FR10" t="n">
-        <v>9.913338544720318e-06</v>
+        <v>1.177045266809174e-10</v>
       </c>
       <c r="FS10" t="n">
-        <v>5.532755494641606e-06</v>
+        <v>6.72500596876624e-11</v>
       </c>
       <c r="FT10" t="n">
-        <v>3.477486643532757e-06</v>
+        <v>1.425247142528008e-10</v>
       </c>
       <c r="FU10" t="n">
-        <v>9.210129064740613e-06</v>
+        <v>2.366778648066337e-13</v>
       </c>
       <c r="FV10" t="n">
-        <v>8.90218962013023e-06</v>
+        <v>3.516653981905371e-12</v>
       </c>
       <c r="FW10" t="n">
-        <v>7.399238256766694e-06</v>
+        <v>1.931869941795838e-11</v>
       </c>
       <c r="FX10" t="n">
-        <v>1.043579959514318e-05</v>
+        <v>1.269639168105519e-11</v>
       </c>
       <c r="FY10" t="n">
-        <v>1.511793379904702e-05</v>
+        <v>1.571074936812522e-10</v>
       </c>
       <c r="FZ10" t="n">
-        <v>6.198176834004698e-07</v>
+        <v>7.62613999727435e-11</v>
       </c>
       <c r="GA10" t="n">
-        <v>7.745487891952507e-06</v>
+        <v>1.557695292198069e-11</v>
       </c>
       <c r="GB10" t="n">
-        <v>5.265374966256786e-06</v>
+        <v>4.758055754949808e-11</v>
       </c>
       <c r="GC10" t="n">
-        <v>3.263611915826914e-06</v>
+        <v>1.621228568060573e-10</v>
       </c>
       <c r="GD10" t="n">
-        <v>1.287236386815493e-06</v>
+        <v>5.181043094548698e-11</v>
       </c>
       <c r="GE10" t="n">
-        <v>3.865689450321952e-06</v>
+        <v>1.50716314428756e-10</v>
       </c>
       <c r="GF10" t="n">
-        <v>7.359185929090017e-06</v>
+        <v>2.715943442366253e-11</v>
       </c>
       <c r="GG10" t="n">
-        <v>7.954893590067513e-06</v>
+        <v>1.087677309330459e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.002548478776589036</v>
+        <v>0.0007292886730283499</v>
       </c>
       <c r="B11" t="n">
-        <v>0.000303113047266379</v>
+        <v>0.005123459734022617</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003895985428243876</v>
+        <v>0.0005617691203951836</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0006901297019794583</v>
+        <v>0.001682058908045292</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002698808908462524</v>
+        <v>0.0008628522627986968</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00044403993524611</v>
+        <v>0.002638534875586629</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003497924190014601</v>
+        <v>0.0008118296391330659</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002844026894308627</v>
+        <v>0.001846086466684937</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0007921247743070126</v>
+        <v>0.0006410356727428734</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002776826499029994</v>
+        <v>0.001273194095119834</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0006107105873525143</v>
+        <v>0.004645407199859619</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004034082405269146</v>
+        <v>0.0002768899721559137</v>
       </c>
       <c r="M11" t="n">
-        <v>0.000109077722299844</v>
+        <v>0.001282320125028491</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001298091607168317</v>
+        <v>0.0001816683943616226</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0007422929629683495</v>
+        <v>0.00252853543497622</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0005687259836122394</v>
+        <v>0.0006315773935057223</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0005083304131403565</v>
+        <v>0.0005251463735476136</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001034802757203579</v>
+        <v>0.001333543797954917</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0001344164193142205</v>
+        <v>7.378643203992397e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001117375097237527</v>
+        <v>0.0006662227096967399</v>
       </c>
       <c r="U11" t="n">
-        <v>3.369135447428562e-05</v>
+        <v>0.000600448518525809</v>
       </c>
       <c r="V11" t="n">
-        <v>6.460770964622498e-05</v>
+        <v>0.000342363549862057</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0002059128601104021</v>
+        <v>0.0002717728784773499</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0001873328001238406</v>
+        <v>0.0008897335501387715</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0003634794265963137</v>
+        <v>0.0002858492371160537</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0005132757942192256</v>
+        <v>0.0008908821037039161</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.349982090294361e-05</v>
+        <v>0.0007156032952480018</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.953303919639438e-06</v>
+        <v>0.0003550783440005034</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.45955151412636e-05</v>
+        <v>0.0003329122555442154</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0001579037925694138</v>
+        <v>0.0002648279769346118</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0006515649147331715</v>
+        <v>0.0002052374329650775</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0001029438208206557</v>
+        <v>0.0007438692264258862</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0002077315875794739</v>
+        <v>0.0004570510354824364</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.0004502443771343678</v>
+        <v>0.00022127952252049</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.0006698518409393728</v>
+        <v>0.0002790723810903728</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0006214365712366998</v>
+        <v>0.0005582759040407836</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.000770775368437171</v>
+        <v>0.0007932539447210729</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.001096760854125023</v>
+        <v>0.0007990208687260747</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.0005372940213419497</v>
+        <v>0.0001379160967189819</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.0005971391801722348</v>
+        <v>0.0005335143650881946</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.494096745271236e-05</v>
+        <v>4.320943116908893e-05</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.0002512302598915994</v>
+        <v>0.0007443238282576203</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.876719397841953e-05</v>
+        <v>0.0005483438144437969</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.0002600086736492813</v>
+        <v>8.184215403161943e-06</v>
       </c>
       <c r="AS11" t="n">
-        <v>9.926505299517885e-05</v>
+        <v>0.0007444628281518817</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.001081422436982393</v>
+        <v>0.0003613356093410403</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.001077378983609378</v>
+        <v>0.003024120815098286</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.002290312433615327</v>
+        <v>0.0003558190655894578</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.0005335198948159814</v>
+        <v>0.0005514295189641416</v>
       </c>
       <c r="AX11" t="n">
-        <v>9.755788778420538e-05</v>
+        <v>0.000379265402443707</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.0008556748507544398</v>
+        <v>0.002276939107105136</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0004057461337652057</v>
+        <v>0.001779517740942538</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0001727906783344224</v>
+        <v>0.0008278025779873133</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.0001787484652595595</v>
+        <v>0.001452622236683965</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0002285728405695409</v>
+        <v>0.0003714853955898434</v>
       </c>
       <c r="BD11" t="n">
-        <v>9.164456423604861e-05</v>
+        <v>0.0008734000148251653</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.0007931615109555423</v>
+        <v>0.001200983300805092</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.0001367998047498986</v>
+        <v>0.0001481899234931916</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.001388570875860751</v>
+        <v>0.0003719293745234609</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.0004576460923999548</v>
+        <v>0.0003492260002531111</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.0006229521241039038</v>
+        <v>0.0004417620075400919</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.0004754836263600737</v>
+        <v>0.0008282677736133337</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.0001581028045620769</v>
+        <v>0.001139862346462905</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0001852488348959014</v>
+        <v>0.0002480202238075435</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.0004638990212697536</v>
+        <v>0.0005616192356683314</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.0007802839973010123</v>
+        <v>0.0005019110394641757</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0001686022733338177</v>
+        <v>3.975951403845102e-05</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.0006640827632509172</v>
+        <v>3.952143015339971e-05</v>
       </c>
       <c r="BQ11" t="n">
-        <v>9.910520020639524e-05</v>
+        <v>0.000402589445002377</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.0004575344501063228</v>
+        <v>0.0009266518754884601</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.0006181038334034383</v>
+        <v>0.0006762837874703109</v>
       </c>
       <c r="BT11" t="n">
-        <v>7.083351374603808e-05</v>
+        <v>0.0001240298734046519</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.001269713160581887</v>
+        <v>0.0001747358473949134</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.0001922703377204016</v>
+        <v>0.001662544324062765</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.001177580095827579</v>
+        <v>0.0009908167412504554</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0002825629489962012</v>
+        <v>0.0001145874848589301</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.0006498749717138708</v>
+        <v>0.0004851213016081601</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.0003564554790500551</v>
+        <v>0.001120146363973618</v>
       </c>
       <c r="CA11" t="n">
-        <v>2.008376031881198e-05</v>
+        <v>0.0001715293037705123</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.0002092504582833499</v>
+        <v>0.0002363932144362479</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.0002945525920949876</v>
+        <v>0.0004757526621688157</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.0005939386901445687</v>
+        <v>0.0001659290865063667</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.0007683031726628542</v>
+        <v>0.0009777088416740298</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.0006957141449674964</v>
+        <v>0.0004200454859528691</v>
       </c>
       <c r="CG11" t="n">
-        <v>3.109363387920894e-05</v>
+        <v>3.168030889355578e-05</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.0003489094669930637</v>
+        <v>0.000166247773449868</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.0003415923856664449</v>
+        <v>0.0001302090822719038</v>
       </c>
       <c r="CJ11" t="n">
-        <v>8.164750397554599e-06</v>
+        <v>0.0003856683906633407</v>
       </c>
       <c r="CK11" t="n">
-        <v>7.6588403317146e-05</v>
+        <v>0.0004171113250777125</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.0001381235488224775</v>
+        <v>0.0003897352435160428</v>
       </c>
       <c r="CM11" t="n">
-        <v>9.824408334679902e-05</v>
+        <v>0.001238342374563217</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.0001235129893757403</v>
+        <v>0.0003028986684512347</v>
       </c>
       <c r="CO11" t="n">
-        <v>8.563823212170973e-05</v>
+        <v>5.549154593609273e-06</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.0003367488679941744</v>
+        <v>0.002117359545081854</v>
       </c>
       <c r="CQ11" t="n">
-        <v>7.649369217688218e-05</v>
+        <v>0.0003959387831855565</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.0001337628345936537</v>
+        <v>0.0009039532160386443</v>
       </c>
       <c r="CS11" t="n">
-        <v>5.555318057304248e-05</v>
+        <v>0.0009974397253245115</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0002246784424642101</v>
+        <v>0.0005900994292460382</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.000278913154033944</v>
+        <v>0.0004363940970506519</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.000545185583177954</v>
+        <v>0.0001814012648537755</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.0007258703699335456</v>
+        <v>0.0009133024141192436</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.0007765827467665076</v>
+        <v>0.0004533540923148394</v>
       </c>
       <c r="CY11" t="n">
-        <v>6.587919051526114e-05</v>
+        <v>0.0003702924004755914</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.0007527052075602114</v>
+        <v>0.0002787742705550045</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.0003510179521981627</v>
+        <v>3.769226896110922e-05</v>
       </c>
       <c r="DB11" t="n">
-        <v>4.927103145746514e-05</v>
+        <v>0.0004044191737193614</v>
       </c>
       <c r="DC11" t="n">
-        <v>9.842115105129778e-07</v>
+        <v>0.0006362601416185498</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.0001168378221336752</v>
+        <v>0.0004233723739162087</v>
       </c>
       <c r="DE11" t="n">
-        <v>3.552735142875463e-05</v>
+        <v>0.0006582456408068538</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.00192515691742301</v>
+        <v>0.0002946392341982573</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.001025844016112387</v>
+        <v>0.0003400929854251444</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.0001925140677485615</v>
+        <v>0.0007133192848414183</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.0004510998842306435</v>
+        <v>0.001248768181540072</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.000144800724228844</v>
+        <v>0.003050933359190822</v>
       </c>
       <c r="DK11" t="n">
-        <v>5.708709795726463e-05</v>
+        <v>0.000334964512148872</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0003470425144769251</v>
+        <v>0.001268824562430382</v>
       </c>
       <c r="DM11" t="n">
-        <v>1.913135383802e-05</v>
+        <v>0.001275591901503503</v>
       </c>
       <c r="DN11" t="n">
-        <v>6.872312951600179e-05</v>
+        <v>9.847852197708562e-05</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.000986341037787497</v>
+        <v>0.0004708498890977353</v>
       </c>
       <c r="DP11" t="n">
-        <v>8.649336086818948e-05</v>
+        <v>0.0005263396305963397</v>
       </c>
       <c r="DQ11" t="n">
-        <v>3.71408968931064e-05</v>
+        <v>0.0002775792090687901</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.0004309956275392324</v>
+        <v>0.0004038750194013119</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0001568993320688605</v>
+        <v>0.0009483378962613642</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.0002762253279797733</v>
+        <v>0.00106889265589416</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.0001811227120924741</v>
+        <v>0.000663071230519563</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.0001959855144377798</v>
+        <v>0.0001996276841964573</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.0003710132441483438</v>
+        <v>4.203023854643106e-05</v>
       </c>
       <c r="DX11" t="n">
-        <v>5.657187284668908e-05</v>
+        <v>0.0005794711178168654</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.0001449933770345524</v>
+        <v>0.0006487024948000908</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.0002797895867843181</v>
+        <v>0.0008799238130450249</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.0005268575041554868</v>
+        <v>0.0003355548251420259</v>
       </c>
       <c r="EB11" t="n">
-        <v>5.553797382162884e-05</v>
+        <v>0.000444849778432399</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0003895550617016852</v>
+        <v>0.0002242291520815343</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.0001901065261336043</v>
+        <v>0.0002966025494970381</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.0001549985900055617</v>
+        <v>0.001194294658489525</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.001041630748659372</v>
+        <v>0.0005415244959294796</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.0003839301643893123</v>
+        <v>0.001148856710642576</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.000748039863537997</v>
+        <v>0.0002867000002879649</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.0003470443771220744</v>
+        <v>0.0001594332279637456</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.0002859486558008939</v>
+        <v>0.0003129224060103297</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.0009035211987793446</v>
+        <v>0.0009936337592080235</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.0001569281448610127</v>
+        <v>0.0007296454859897494</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.0005821431986987591</v>
+        <v>0.0001266422186745331</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.0004021066124550998</v>
+        <v>0.0001391842088196427</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.000125022983411327</v>
+        <v>0.0002059764228761196</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.000399119860958308</v>
+        <v>0.0005377464112825692</v>
       </c>
       <c r="EQ11" t="n">
-        <v>4.196058580419049e-05</v>
+        <v>0.0007282043225131929</v>
       </c>
       <c r="ER11" t="n">
-        <v>8.511095074936748e-05</v>
+        <v>0.0004849191755056381</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.0005179693689569831</v>
+        <v>0.0007628772291354835</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.0004392436821945012</v>
+        <v>0.0008109425543807447</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.0003623659140430391</v>
+        <v>0.001282976474612951</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.0001338965666946024</v>
+        <v>0.001456644618883729</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.0002727619430515915</v>
+        <v>0.0003515787830110639</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.0006164522492326796</v>
+        <v>0.000279267318546772</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.000601690262556076</v>
+        <v>0.0008672192343510687</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.0007824208587408066</v>
+        <v>0.0003696900967042893</v>
       </c>
       <c r="FA11" t="n">
-        <v>4.7065201215446e-05</v>
+        <v>0.0001628527097636834</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.0005862158141098917</v>
+        <v>0.0002221607574028894</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0001315792469540611</v>
+        <v>3.758286766242236e-06</v>
       </c>
       <c r="FD11" t="n">
-        <v>7.67403980717063e-06</v>
+        <v>0.0007080914219841361</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.0001775624114088714</v>
+        <v>0.0006321825785562396</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.0002439061354380101</v>
+        <v>0.0005893235211260617</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.0003587540413718671</v>
+        <v>0.0002081845013890415</v>
       </c>
       <c r="FH11" t="n">
-        <v>9.36691285460256e-05</v>
+        <v>0.0003622152144089341</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.000769171048887074</v>
+        <v>0.0009627366671338677</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.0007780441083014011</v>
+        <v>0.0008115157834254205</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.0005073173088021576</v>
+        <v>0.0004265916359145194</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.0005987529293633997</v>
+        <v>0.000444902922026813</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.0002913912176154554</v>
+        <v>0.0004642805142793804</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.0003538816818036139</v>
+        <v>0.0005309478146955371</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.0003197624464519322</v>
+        <v>0.0007737443083897233</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.000714189256541431</v>
+        <v>0.0007675274973735213</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.001832019072026014</v>
+        <v>3.96788127545733e-05</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.0003786742454394698</v>
+        <v>0.000242158435867168</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.000348808040143922</v>
+        <v>0.0009619680931791663</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.0005567925982177258</v>
+        <v>0.0002249587560072541</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.0007294393726624548</v>
+        <v>0.0009084812481887639</v>
       </c>
       <c r="FV11" t="n">
-        <v>9.089154627872631e-05</v>
+        <v>0.000889189075678587</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.0001540022785775363</v>
+        <v>0.000644511601421982</v>
       </c>
       <c r="FX11" t="n">
-        <v>2.771084655250888e-05</v>
+        <v>0.0003824589366558939</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.0003576959716156125</v>
+        <v>0.001260578166693449</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.0003751317563001066</v>
+        <v>0.0004752320237457752</v>
       </c>
       <c r="GA11" t="n">
-        <v>6.349687464535236e-05</v>
+        <v>0.0005342074437066913</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.0002594134421087801</v>
+        <v>0.0002805120020639151</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.0002953581570181996</v>
+        <v>0.001013399683870375</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.0005884947022423148</v>
+        <v>0.0003835110692307353</v>
       </c>
       <c r="GE11" t="n">
-        <v>6.967163790250197e-05</v>
+        <v>0.000817575491964817</v>
       </c>
       <c r="GF11" t="n">
-        <v>6.455087714130059e-06</v>
+        <v>0.0003967010416090488</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.0001395905128447339</v>
+        <v>0.0001810419344110414</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.01235734671354294</v>
+        <v>0.02023665234446526</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003063774202018976</v>
+        <v>0.292483925819397</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01179777085781097</v>
+        <v>0.00708004692569375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002479078248143196</v>
+        <v>0.1481190323829651</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004381055478006601</v>
+        <v>0.03883581608533859</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001658499822951853</v>
+        <v>0.2278710603713989</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002024272689595819</v>
+        <v>0.009451810270547867</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001583476550877094</v>
+        <v>0.1025386825203896</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002647244604304433</v>
+        <v>0.01339906267821789</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01201980840414762</v>
+        <v>0.05653790012001991</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001738932565785944</v>
+        <v>0.2734870910644531</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01362873427569866</v>
+        <v>0.005916742607951164</v>
       </c>
       <c r="M12" t="n">
-        <v>0.000487650977447629</v>
+        <v>0.1047808080911636</v>
       </c>
       <c r="N12" t="n">
-        <v>0.000503223855048418</v>
+        <v>0.007402054499834776</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002703950274735689</v>
+        <v>0.2180362641811371</v>
       </c>
       <c r="P12" t="n">
-        <v>0.003423967398703098</v>
+        <v>0.009011683985590935</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0006581907509826124</v>
+        <v>0.04233106225728989</v>
       </c>
       <c r="R12" t="n">
-        <v>0.003757058177143335</v>
+        <v>0.008692416362464428</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0006400070269592106</v>
+        <v>0.01394344214349985</v>
       </c>
       <c r="T12" t="n">
-        <v>0.001739800907671452</v>
+        <v>0.0238085612654686</v>
       </c>
       <c r="U12" t="n">
-        <v>0.001242764294147491</v>
+        <v>0.02578062005341053</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0006882034940645099</v>
+        <v>0.03893642872571945</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0009815790690481663</v>
+        <v>0.06700211018323898</v>
       </c>
       <c r="X12" t="n">
-        <v>0.001918095396831632</v>
+        <v>0.02400580234825611</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0008406537817791104</v>
+        <v>0.02178364619612694</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.001649045269005001</v>
+        <v>0.06639008969068527</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0005582165904343128</v>
+        <v>0.04126325994729996</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0001476270554121584</v>
+        <v>0.004982225596904755</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0004950271686539054</v>
+        <v>0.011800785548985</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0007133763283491135</v>
+        <v>0.007169472053647041</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.001959552057087421</v>
+        <v>0.01238104980438948</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0001903741504065692</v>
+        <v>0.01525192707777023</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0006614368176087737</v>
+        <v>0.01654581539332867</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0006294870399869978</v>
+        <v>0.01803364977240562</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.003173843491822481</v>
+        <v>0.01741924695670605</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.001969771226868033</v>
+        <v>0.01346874423325062</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.002854332095012069</v>
+        <v>0.02448061481118202</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.00184434768743813</v>
+        <v>0.05435999855399132</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.001328927581198514</v>
+        <v>0.003185253590345383</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.002254467690363526</v>
+        <v>0.009922495111823082</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0002255055296700448</v>
+        <v>0.0008295127190649509</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.000766812649089843</v>
+        <v>0.03444091230630875</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.0002570658107288182</v>
+        <v>0.004564476665109396</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.001350762089714408</v>
+        <v>0.01689633727073669</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.0003370565536897629</v>
+        <v>0.03104422055184841</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.005603955127298832</v>
+        <v>0.04319792985916138</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.00123624294064939</v>
+        <v>0.2123278677463531</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.006095434539020061</v>
+        <v>0.007510749623179436</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.002387286862358451</v>
+        <v>0.0579601563513279</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.001410202705301344</v>
+        <v>0.0213102400302887</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.002207630779594183</v>
+        <v>0.119969367980957</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.0008529732585884631</v>
+        <v>0.03461265563964844</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.0003329371684230864</v>
+        <v>0.02722866088151932</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.0004991600289940834</v>
+        <v>0.07038221508264542</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.001885650563053787</v>
+        <v>0.02555045858025551</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0008412970346398652</v>
+        <v>0.04705157876014709</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.00325518473982811</v>
+        <v>0.05751384049654007</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.0003017818671651185</v>
+        <v>0.001180743798613548</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.004122515209019184</v>
+        <v>0.03977224603295326</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.00167722487822175</v>
+        <v>0.06932011991739273</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.002009483054280281</v>
+        <v>0.02217846736311913</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.00148972007445991</v>
+        <v>0.0240033958107233</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.0006671070586889982</v>
+        <v>0.01801223307847977</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.0007533739553764462</v>
+        <v>6.07944093644619e-05</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.001723489025607705</v>
+        <v>0.05999037250876427</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.002027918351814151</v>
+        <v>0.01013457030057907</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.0009718000655993819</v>
+        <v>0.01626478508114815</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.003213525749742985</v>
+        <v>0.004296740982681513</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.001595422625541687</v>
+        <v>0.0021707892883569</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.001070401398465037</v>
+        <v>0.02330923266708851</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.001751636620610952</v>
+        <v>0.01446696370840073</v>
       </c>
       <c r="BT12" t="n">
-        <v>2.7944624889642e-06</v>
+        <v>0.01026926655322313</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.005153545644134283</v>
+        <v>0.01858248189091682</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.0005498115788213909</v>
+        <v>0.1120768263936043</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.002546288771554828</v>
+        <v>0.02150421030819416</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.0008860118687152863</v>
+        <v>0.04431009665131569</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.001828193780966103</v>
+        <v>0.02744794078171253</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.000718718278221786</v>
+        <v>0.05089700594544411</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.00111619452945888</v>
+        <v>0.01508958823978901</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.0005682160262949765</v>
+        <v>0.002004137262701988</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.001774825854226947</v>
+        <v>0.04625633358955383</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.002630975097417831</v>
+        <v>0.0002628173679113388</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.002993667032569647</v>
+        <v>0.04009556397795677</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.002307321410626173</v>
+        <v>0.02793374285101891</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.0002393549657426775</v>
+        <v>0.0193618256598711</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.0002776653273031116</v>
+        <v>0.008232364431023598</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.0009060480515472591</v>
+        <v>0.03524017333984375</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.0002497262903489172</v>
+        <v>0.02036489173769951</v>
       </c>
       <c r="CK12" t="n">
-        <v>5.282938946038485e-05</v>
+        <v>0.01557517237961292</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.0003101561742369086</v>
+        <v>0.02525391988456249</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.0008265416836366057</v>
+        <v>0.06413847208023071</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.0001247805048478767</v>
+        <v>0.01272742636501789</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.0001774258562363684</v>
+        <v>0.00668724812567234</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.001067113829776645</v>
+        <v>0.05052947998046875</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.002472005784511566</v>
+        <v>0.004549416713416576</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.0004749524523504078</v>
+        <v>0.007799237035214901</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.0006052838289178908</v>
+        <v>0.05812123417854309</v>
       </c>
       <c r="CT12" t="n">
-        <v>9.712198516353965e-05</v>
+        <v>0.05391817539930344</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.0001098710927180946</v>
+        <v>0.01043883431702852</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.002342440653592348</v>
+        <v>0.0009416760876774788</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.002725134836509824</v>
+        <v>0.03571484610438347</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.002665092702955008</v>
+        <v>0.02421785518527031</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.0004206784360576421</v>
+        <v>0.0353582426905632</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.001638004090636969</v>
+        <v>0.0107139041647315</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.001282246317714453</v>
+        <v>0.03668152168393135</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.0002966162574011832</v>
+        <v>0.02125009894371033</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.0003749348397832364</v>
+        <v>0.02972018532454967</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.0001670023339102045</v>
+        <v>0.01393593475222588</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.001110406708903611</v>
+        <v>0.008743803948163986</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.007015938870608807</v>
+        <v>0.01422584056854248</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.002301927655935287</v>
+        <v>0.009145039133727551</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.0007246042951010168</v>
+        <v>0.1083380952477455</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.001679999753832817</v>
+        <v>0.05626196786761284</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.00198708102107048</v>
+        <v>0.03664886578917503</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.001914999331347644</v>
+        <v>0.0003624125383794308</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.0006466201739385724</v>
+        <v>0.0464673638343811</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.0003456197737250477</v>
+        <v>0.02717494778335094</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.0004596592334564775</v>
+        <v>0.004652342293411493</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.003285413142293692</v>
+        <v>0.0008728886023163795</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.0006577668827958405</v>
+        <v>0.02266917936503887</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.0003358664689585567</v>
+        <v>0.001039465889334679</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.0007733114180155098</v>
+        <v>0.005997548811137676</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.0008033408084884286</v>
+        <v>0.008676251396536827</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.0001059860805980861</v>
+        <v>0.002582381013780832</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0003929383237846196</v>
+        <v>0.00330926850438118</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.0007838184246793389</v>
+        <v>0.02385660074651241</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.00158408097922802</v>
+        <v>0.0007070107385516167</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.001481354469433427</v>
+        <v>0.03260188922286034</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.0006180666387081146</v>
+        <v>0.02572822384536266</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.001409309799782932</v>
+        <v>0.01183806359767914</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.001113497768528759</v>
+        <v>0.002768405247479677</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.0001787926885299385</v>
+        <v>0.01771574653685093</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.0008045031572692096</v>
+        <v>0.002267822623252869</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.00134145119227469</v>
+        <v>0.003897102084010839</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.000155195637489669</v>
+        <v>0.01626854762434959</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.003937932197004557</v>
+        <v>0.0177092682570219</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.0019776017870754</v>
+        <v>0.04576597362756729</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.002541668014600873</v>
+        <v>0.01463432516902685</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.0006004299502819777</v>
+        <v>0.01107825711369514</v>
       </c>
       <c r="EJ12" t="n">
-        <v>1.927372068166733e-05</v>
+        <v>0.003351270221173763</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.003037343034520745</v>
+        <v>0.02215087972581387</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.0003528398519847542</v>
+        <v>0.02014325000345707</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.001900986884720623</v>
+        <v>0.008368423208594322</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.00135907472576946</v>
+        <v>0.0127155464142561</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.001233747927471995</v>
+        <v>0.0004197601228952408</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.00221310299821198</v>
+        <v>0.02099652588367462</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.0005731659475713968</v>
+        <v>0.02553407661616802</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.0002863220870494843</v>
+        <v>0.02960816398262978</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.001763418666087091</v>
+        <v>0.01975108310580254</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.0009225212852470577</v>
+        <v>0.03215945512056351</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.0003583184152375907</v>
+        <v>0.05010540038347244</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.0004945290274918079</v>
+        <v>0.08045644313097</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.0006286423886194825</v>
+        <v>0.008311638608574867</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.002488499041646719</v>
+        <v>0.006566582713276148</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.002445628866553307</v>
+        <v>0.03411320224404335</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.002434253692626953</v>
+        <v>0.01974849216639996</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.0001903999072965235</v>
+        <v>0.02349472418427467</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.001281489385291934</v>
+        <v>0.00770418718457222</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.0002971870126202703</v>
+        <v>0.03052231669425964</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.0002358190395170823</v>
+        <v>0.03587422892451286</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.000366958265658468</v>
+        <v>0.02098602429032326</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.0005818554200232029</v>
+        <v>0.02619985491037369</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.001045923447236419</v>
+        <v>0.01223727501928806</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.001012974535115063</v>
+        <v>0.01259662676602602</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.003108473960310221</v>
+        <v>0.02567204274237156</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.002686327323317528</v>
+        <v>0.04128187149763107</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.0004066194815095514</v>
+        <v>0.008640616200864315</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.001471993047744036</v>
+        <v>0.01895955577492714</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.0001888750412035733</v>
+        <v>0.002317844424396753</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.0006502257310785353</v>
+        <v>0.02321543544530869</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.0002734638401307166</v>
+        <v>0.0205408725887537</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.001944422954693437</v>
+        <v>0.0225664246827364</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.0057607376947999</v>
+        <v>0.04575827717781067</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.001484546693973243</v>
+        <v>0.03729543834924698</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.0009870813228189945</v>
+        <v>0.01037292089313269</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.001028230064548552</v>
+        <v>0.005012751556932926</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.001580126117914915</v>
+        <v>0.01237049698829651</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.0003375696251168847</v>
+        <v>0.03562486916780472</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.0008769738487899303</v>
+        <v>0.006678466219455004</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.0005675427382811904</v>
+        <v>0.01782098785042763</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.00180660979822278</v>
+        <v>0.05956649035215378</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.001547411549836397</v>
+        <v>0.01710194535553455</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.001320092240348458</v>
+        <v>0.03143071383237839</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.0003289773594588041</v>
+        <v>0.01636368595063686</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.002170071937143803</v>
+        <v>0.01384407468140125</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.0001611947373021394</v>
+        <v>0.02384742721915245</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.0008305888622999191</v>
+        <v>0.1185244619846344</v>
       </c>
       <c r="GF12" t="n">
-        <v>1.576947397552431e-05</v>
+        <v>0.002317036502063274</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.001191286835819483</v>
+        <v>0.009340224787592888</v>
       </c>
     </row>
     <row r="13">
@@ -8401,571 +8401,571 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0001501883671153337</v>
+        <v>3.138248939649202e-05</v>
       </c>
       <c r="B15" t="n">
-        <v>9.312705515185371e-06</v>
+        <v>0.0004674282972700894</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001732176751829684</v>
+        <v>1.84515356522752e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>4.521342634689063e-05</v>
+        <v>9.859175042947754e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>7.796785939717665e-05</v>
+        <v>0.0001134976846515201</v>
       </c>
       <c r="F15" t="n">
-        <v>1.059418536897283e-05</v>
+        <v>0.0001523977553006262</v>
       </c>
       <c r="G15" t="n">
-        <v>4.044284287374467e-05</v>
+        <v>7.015273877186701e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>2.95218651444884e-05</v>
+        <v>7.044524681987241e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>5.360159411793575e-05</v>
+        <v>8.509832696290687e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001433206343790516</v>
+        <v>4.640034239855595e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>1.348845034954138e-05</v>
+        <v>0.0004271079087629914</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001876697642728686</v>
+        <v>4.93716606797534e-06</v>
       </c>
       <c r="M15" t="n">
-        <v>1.504268129792763e-05</v>
+        <v>6.537375884363428e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>1.938732748385519e-05</v>
+        <v>1.500888356531505e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>1.777622310328297e-05</v>
+        <v>0.0001145301430369727</v>
       </c>
       <c r="P15" t="n">
-        <v>3.716896389960311e-05</v>
+        <v>3.704111077240668e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.996244024368934e-05</v>
+        <v>2.368117566220462e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>6.907880015205592e-05</v>
+        <v>0.0001022789947455749</v>
       </c>
       <c r="S15" t="n">
-        <v>1.814764573282446e-06</v>
+        <v>1.647205499466509e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>4.319489016779698e-05</v>
+        <v>4.795105633093044e-05</v>
       </c>
       <c r="U15" t="n">
-        <v>3.570240096451016e-06</v>
+        <v>1.106344825529959e-05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.124046139011625e-05</v>
+        <v>3.247761924285442e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>6.695615866192384e-07</v>
+        <v>5.132056685397401e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>7.281421858351678e-06</v>
+        <v>2.091487476718612e-05</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.455887922929833e-05</v>
+        <v>9.27486689761281e-06</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.064004340558313e-05</v>
+        <v>8.26104442239739e-05</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.6740098039445e-06</v>
+        <v>3.532338450895622e-05</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.400868874654407e-06</v>
+        <v>3.57317621819675e-05</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.16314367915038e-06</v>
+        <v>3.900178489857353e-05</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.02948603045661e-06</v>
+        <v>1.492733645136468e-06</v>
       </c>
       <c r="AE15" t="n">
-        <v>2.810279693221673e-05</v>
+        <v>2.117851545335725e-05</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.944451448973268e-07</v>
+        <v>8.823926691547967e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4.394727966428036e-06</v>
+        <v>1.130541113525396e-05</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.24116440929356e-05</v>
+        <v>1.289843658014433e-05</v>
       </c>
       <c r="AI15" t="n">
-        <v>5.24120987392962e-05</v>
+        <v>1.258235624845838e-05</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4.642491330741905e-05</v>
+        <v>1.621904084458947e-05</v>
       </c>
       <c r="AK15" t="n">
-        <v>3.357820241944864e-05</v>
+        <v>7.208008173620328e-05</v>
       </c>
       <c r="AL15" t="n">
-        <v>4.113682371098548e-05</v>
+        <v>4.364281267044134e-05</v>
       </c>
       <c r="AM15" t="n">
-        <v>2.077116005239077e-05</v>
+        <v>1.680937748460565e-05</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.693271355587058e-05</v>
+        <v>3.672427919809707e-05</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.97081259204424e-06</v>
+        <v>3.540526449796744e-05</v>
       </c>
       <c r="AP15" t="n">
-        <v>4.791934316017432e-06</v>
+        <v>3.283255864516832e-05</v>
       </c>
       <c r="AQ15" t="n">
-        <v>7.156971264521417e-07</v>
+        <v>3.189086419297382e-05</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.777206489350647e-05</v>
+        <v>6.655404376942897e-06</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.370296670051175e-06</v>
+        <v>3.105169162154198e-05</v>
       </c>
       <c r="AT15" t="n">
-        <v>6.749255408067256e-05</v>
+        <v>9.324645361630246e-06</v>
       </c>
       <c r="AU15" t="n">
-        <v>3.331802145112306e-05</v>
+        <v>0.000269425188889727</v>
       </c>
       <c r="AV15" t="n">
-        <v>9.064076584763825e-05</v>
+        <v>4.745617479784414e-05</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.247849599574693e-05</v>
+        <v>2.099163612001576e-05</v>
       </c>
       <c r="AX15" t="n">
-        <v>5.80380128667457e-06</v>
+        <v>1.813910603232216e-05</v>
       </c>
       <c r="AY15" t="n">
-        <v>5.505719673237763e-05</v>
+        <v>6.587333336938173e-05</v>
       </c>
       <c r="AZ15" t="n">
-        <v>1.995605998672545e-05</v>
+        <v>0.000108918291516602</v>
       </c>
       <c r="BA15" t="n">
-        <v>2.821253292495385e-05</v>
+        <v>3.516376818879507e-05</v>
       </c>
       <c r="BB15" t="n">
-        <v>2.33559785556281e-06</v>
+        <v>4.094075484317727e-05</v>
       </c>
       <c r="BC15" t="n">
-        <v>2.077551107504405e-05</v>
+        <v>5.504552973434329e-06</v>
       </c>
       <c r="BD15" t="n">
-        <v>7.552482657047221e-07</v>
+        <v>9.125848009716719e-05</v>
       </c>
       <c r="BE15" t="n">
-        <v>5.386761404224671e-05</v>
+        <v>7.616265793330967e-05</v>
       </c>
       <c r="BF15" t="n">
-        <v>4.670774160331348e-06</v>
+        <v>2.388024222454987e-05</v>
       </c>
       <c r="BG15" t="n">
-        <v>4.209262988297269e-05</v>
+        <v>7.753930549370125e-05</v>
       </c>
       <c r="BH15" t="n">
-        <v>1.675254679867066e-05</v>
+        <v>6.391495844582096e-05</v>
       </c>
       <c r="BI15" t="n">
-        <v>4.431236811797135e-05</v>
+        <v>1.285942198592238e-05</v>
       </c>
       <c r="BJ15" t="n">
-        <v>2.10892831091769e-05</v>
+        <v>4.329023795435205e-05</v>
       </c>
       <c r="BK15" t="n">
-        <v>1.32719287648797e-05</v>
+        <v>8.994501695269719e-05</v>
       </c>
       <c r="BL15" t="n">
-        <v>7.370436833298299e-06</v>
+        <v>2.400615812803153e-05</v>
       </c>
       <c r="BM15" t="n">
-        <v>9.967292498913594e-06</v>
+        <v>5.321974094840698e-05</v>
       </c>
       <c r="BN15" t="n">
-        <v>3.301270771771669e-05</v>
+        <v>1.189045906357933e-05</v>
       </c>
       <c r="BO15" t="n">
-        <v>4.776979949383531e-06</v>
+        <v>2.611793570395093e-05</v>
       </c>
       <c r="BP15" t="n">
-        <v>2.996650619024877e-05</v>
+        <v>2.094975207000971e-05</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6.935257715667831e-06</v>
+        <v>2.528547156543937e-06</v>
       </c>
       <c r="BR15" t="n">
-        <v>1.340555172646418e-05</v>
+        <v>3.189599374309182e-05</v>
       </c>
       <c r="BS15" t="n">
-        <v>3.10122049995698e-05</v>
+        <v>7.262952749442775e-06</v>
       </c>
       <c r="BT15" t="n">
-        <v>8.698175406607334e-07</v>
+        <v>1.226696986122988e-05</v>
       </c>
       <c r="BU15" t="n">
-        <v>6.124242645455524e-05</v>
+        <v>8.889940545486752e-06</v>
       </c>
       <c r="BV15" t="n">
-        <v>1.017183876683703e-05</v>
+        <v>0.0001623938733246177</v>
       </c>
       <c r="BW15" t="n">
-        <v>3.762178675970063e-05</v>
+        <v>1.979682929231785e-05</v>
       </c>
       <c r="BX15" t="n">
-        <v>2.382294769631699e-05</v>
+        <v>2.190635859733447e-05</v>
       </c>
       <c r="BY15" t="n">
-        <v>2.850426244549453e-05</v>
+        <v>1.934121246449649e-05</v>
       </c>
       <c r="BZ15" t="n">
-        <v>1.03472684713779e-05</v>
+        <v>1.399740449414821e-05</v>
       </c>
       <c r="CA15" t="n">
-        <v>3.959882633353118e-06</v>
+        <v>1.388095734000672e-05</v>
       </c>
       <c r="CB15" t="n">
-        <v>1.617753923710552e-06</v>
+        <v>4.434243237483315e-06</v>
       </c>
       <c r="CC15" t="n">
-        <v>3.068495425395668e-05</v>
+        <v>1.665482886892278e-05</v>
       </c>
       <c r="CD15" t="n">
-        <v>3.149039912386797e-05</v>
+        <v>2.151394801330753e-05</v>
       </c>
       <c r="CE15" t="n">
-        <v>3.543206548783928e-05</v>
+        <v>7.83202558523044e-05</v>
       </c>
       <c r="CF15" t="n">
-        <v>3.741343971341848e-05</v>
+        <v>1.510391120973509e-05</v>
       </c>
       <c r="CG15" t="n">
-        <v>5.7772181207838e-06</v>
+        <v>9.343822057417128e-06</v>
       </c>
       <c r="CH15" t="n">
-        <v>6.849526926089311e-06</v>
+        <v>1.680721106822602e-05</v>
       </c>
       <c r="CI15" t="n">
-        <v>1.53797536768252e-05</v>
+        <v>1.100118333852151e-05</v>
       </c>
       <c r="CJ15" t="n">
-        <v>7.131844540708698e-06</v>
+        <v>2.88691844616551e-05</v>
       </c>
       <c r="CK15" t="n">
-        <v>7.806758731021546e-06</v>
+        <v>8.916804290493019e-06</v>
       </c>
       <c r="CL15" t="n">
-        <v>2.598883384052897e-06</v>
+        <v>2.067757304757833e-05</v>
       </c>
       <c r="CM15" t="n">
-        <v>3.177744702043128e-06</v>
+        <v>0.0001113506004912779</v>
       </c>
       <c r="CN15" t="n">
-        <v>3.762835694942623e-05</v>
+        <v>2.163501812901814e-05</v>
       </c>
       <c r="CO15" t="n">
-        <v>1.171142594103003e-05</v>
+        <v>2.510461490601301e-05</v>
       </c>
       <c r="CP15" t="n">
-        <v>1.509497906226898e-05</v>
+        <v>0.0001419416221324354</v>
       </c>
       <c r="CQ15" t="n">
-        <v>2.004083944484591e-05</v>
+        <v>6.459512951551005e-05</v>
       </c>
       <c r="CR15" t="n">
-        <v>9.178981599688996e-06</v>
+        <v>0.0001039735288941301</v>
       </c>
       <c r="CS15" t="n">
-        <v>5.843241524416953e-06</v>
+        <v>7.676190580241382e-05</v>
       </c>
       <c r="CT15" t="n">
-        <v>6.849971214251127e-06</v>
+        <v>4.987229476682842e-05</v>
       </c>
       <c r="CU15" t="n">
-        <v>1.581672404427081e-05</v>
+        <v>4.830526086152531e-05</v>
       </c>
       <c r="CV15" t="n">
-        <v>2.883847446355503e-05</v>
+        <v>1.927273842738941e-05</v>
       </c>
       <c r="CW15" t="n">
-        <v>3.247566928621382e-05</v>
+        <v>7.349321822402999e-05</v>
       </c>
       <c r="CX15" t="n">
-        <v>4.058802005602047e-05</v>
+        <v>1.358524241368286e-05</v>
       </c>
       <c r="CY15" t="n">
-        <v>1.705183194644633e-07</v>
+        <v>3.125383955193684e-05</v>
       </c>
       <c r="CZ15" t="n">
-        <v>2.589701762190089e-05</v>
+        <v>2.281538218085188e-05</v>
       </c>
       <c r="DA15" t="n">
-        <v>1.675925705058035e-05</v>
+        <v>3.101386937487405e-06</v>
       </c>
       <c r="DB15" t="n">
-        <v>6.713519724144135e-06</v>
+        <v>2.803410097840242e-05</v>
       </c>
       <c r="DC15" t="n">
-        <v>3.164185727655422e-06</v>
+        <v>2.305348061781842e-05</v>
       </c>
       <c r="DD15" t="n">
-        <v>2.318849510629661e-06</v>
+        <v>2.246443909825757e-05</v>
       </c>
       <c r="DE15" t="n">
-        <v>6.115723408584017e-06</v>
+        <v>3.806266977335326e-05</v>
       </c>
       <c r="DF15" t="n">
-        <v>7.345525955315679e-05</v>
+        <v>6.482492608483881e-05</v>
       </c>
       <c r="DG15" t="n">
-        <v>2.649495399964508e-05</v>
+        <v>2.800751462928019e-05</v>
       </c>
       <c r="DH15" t="n">
-        <v>1.652804348850623e-05</v>
+        <v>5.081366543890908e-05</v>
       </c>
       <c r="DI15" t="n">
-        <v>3.111862679361366e-05</v>
+        <v>0.0001389850658597425</v>
       </c>
       <c r="DJ15" t="n">
-        <v>9.273389878217131e-07</v>
+        <v>0.0001871412241598591</v>
       </c>
       <c r="DK15" t="n">
-        <v>9.184981536236592e-06</v>
+        <v>2.279365071444772e-05</v>
       </c>
       <c r="DL15" t="n">
-        <v>1.31014066937496e-05</v>
+        <v>3.193409065715969e-05</v>
       </c>
       <c r="DM15" t="n">
-        <v>8.35454193293117e-06</v>
+        <v>0.0001138390289270319</v>
       </c>
       <c r="DN15" t="n">
-        <v>3.222640543754096e-06</v>
+        <v>2.644493179104757e-05</v>
       </c>
       <c r="DO15" t="n">
-        <v>4.789746890310198e-05</v>
+        <v>2.018881787080318e-05</v>
       </c>
       <c r="DP15" t="n">
-        <v>1.508430432295427e-05</v>
+        <v>4.188345337752253e-05</v>
       </c>
       <c r="DQ15" t="n">
-        <v>5.936749403190333e-07</v>
+        <v>4.189364335616119e-05</v>
       </c>
       <c r="DR15" t="n">
-        <v>9.943657460098621e-06</v>
+        <v>2.828208198479842e-05</v>
       </c>
       <c r="DS15" t="n">
-        <v>1.109653203457128e-05</v>
+        <v>1.60346880875295e-05</v>
       </c>
       <c r="DT15" t="n">
-        <v>1.889672603283543e-06</v>
+        <v>7.034729060251266e-05</v>
       </c>
       <c r="DU15" t="n">
-        <v>1.513983079348691e-05</v>
+        <v>3.411257421248592e-05</v>
       </c>
       <c r="DV15" t="n">
-        <v>5.64618494536262e-06</v>
+        <v>4.169124804320745e-05</v>
       </c>
       <c r="DW15" t="n">
-        <v>1.788484223652631e-05</v>
+        <v>1.016414807963884e-05</v>
       </c>
       <c r="DX15" t="n">
-        <v>1.230427915288601e-05</v>
+        <v>6.174589361762628e-05</v>
       </c>
       <c r="DY15" t="n">
-        <v>2.259506572954706e-07</v>
+        <v>3.384593583177775e-06</v>
       </c>
       <c r="DZ15" t="n">
-        <v>3.445808033575304e-06</v>
+        <v>6.209306593518704e-05</v>
       </c>
       <c r="EA15" t="n">
-        <v>1.795207026589196e-05</v>
+        <v>5.170873555471189e-05</v>
       </c>
       <c r="EB15" t="n">
-        <v>7.904513040557504e-06</v>
+        <v>2.430867971270345e-05</v>
       </c>
       <c r="EC15" t="n">
-        <v>2.443724497425137e-06</v>
+        <v>1.27323619381059e-05</v>
       </c>
       <c r="ED15" t="n">
-        <v>1.29865493363468e-05</v>
+        <v>4.549039294943213e-05</v>
       </c>
       <c r="EE15" t="n">
-        <v>5.901169060962275e-06</v>
+        <v>0.0001002780991257168</v>
       </c>
       <c r="EF15" t="n">
-        <v>4.573947080643848e-05</v>
+        <v>6.047507849871181e-05</v>
       </c>
       <c r="EG15" t="n">
-        <v>2.6650557629182e-05</v>
+        <v>0.0001104419061448425</v>
       </c>
       <c r="EH15" t="n">
-        <v>3.36279917974025e-05</v>
+        <v>6.423737886507297e-06</v>
       </c>
       <c r="EI15" t="n">
-        <v>1.085495750885457e-05</v>
+        <v>9.234645403921604e-08</v>
       </c>
       <c r="EJ15" t="n">
-        <v>7.002208803896792e-06</v>
+        <v>5.315057023835834e-06</v>
       </c>
       <c r="EK15" t="n">
-        <v>4.199358954792842e-05</v>
+        <v>5.623965989798307e-05</v>
       </c>
       <c r="EL15" t="n">
-        <v>4.060255832882831e-06</v>
+        <v>4.290399738238193e-05</v>
       </c>
       <c r="EM15" t="n">
-        <v>2.781053444778081e-05</v>
+        <v>2.263922215206549e-05</v>
       </c>
       <c r="EN15" t="n">
-        <v>1.722758497635368e-05</v>
+        <v>1.14161830424564e-05</v>
       </c>
       <c r="EO15" t="n">
-        <v>1.095209336199332e-05</v>
+        <v>2.445992868160829e-05</v>
       </c>
       <c r="EP15" t="n">
-        <v>1.77675174199976e-05</v>
+        <v>2.717870665946975e-05</v>
       </c>
       <c r="EQ15" t="n">
-        <v>8.544444426661357e-06</v>
+        <v>1.883559161797166e-05</v>
       </c>
       <c r="ER15" t="n">
-        <v>1.249854904017411e-07</v>
+        <v>4.53014399681706e-05</v>
       </c>
       <c r="ES15" t="n">
-        <v>2.018346640397795e-05</v>
+        <v>4.921059735352173e-05</v>
       </c>
       <c r="ET15" t="n">
-        <v>1.771781171555631e-05</v>
+        <v>8.794484529062174e-06</v>
       </c>
       <c r="EU15" t="n">
-        <v>1.802232873160392e-05</v>
+        <v>8.867942960932851e-05</v>
       </c>
       <c r="EV15" t="n">
-        <v>1.240798155777156e-05</v>
+        <v>6.772939377697185e-05</v>
       </c>
       <c r="EW15" t="n">
-        <v>1.853811227192637e-05</v>
+        <v>2.123968079104088e-05</v>
       </c>
       <c r="EX15" t="n">
-        <v>2.957688411697745e-05</v>
+        <v>2.517086613806896e-05</v>
       </c>
       <c r="EY15" t="n">
-        <v>2.93629909720039e-05</v>
+        <v>7.643481512786821e-05</v>
       </c>
       <c r="EZ15" t="n">
-        <v>3.97259573219344e-05</v>
+        <v>8.976453500508796e-06</v>
       </c>
       <c r="FA15" t="n">
-        <v>1.843224708864e-06</v>
+        <v>8.681041435920633e-06</v>
       </c>
       <c r="FB15" t="n">
-        <v>1.86962333827978e-05</v>
+        <v>1.219377736561e-05</v>
       </c>
       <c r="FC15" t="n">
-        <v>4.922744665236678e-06</v>
+        <v>4.172457920503803e-06</v>
       </c>
       <c r="FD15" t="n">
-        <v>7.454984825017164e-06</v>
+        <v>4.493529195315205e-05</v>
       </c>
       <c r="FE15" t="n">
-        <v>9.063742254511453e-06</v>
+        <v>1.91099079529522e-05</v>
       </c>
       <c r="FF15" t="n">
-        <v>6.638332706643268e-06</v>
+        <v>3.675408515846357e-05</v>
       </c>
       <c r="FG15" t="n">
-        <v>1.791557951946743e-05</v>
+        <v>2.429770756862126e-05</v>
       </c>
       <c r="FH15" t="n">
-        <v>4.278113920008764e-06</v>
+        <v>2.262846101075411e-05</v>
       </c>
       <c r="FI15" t="n">
-        <v>3.559668402886018e-05</v>
+        <v>2.687172309379093e-05</v>
       </c>
       <c r="FJ15" t="n">
-        <v>2.756407047854736e-05</v>
+        <v>6.81323726894334e-05</v>
       </c>
       <c r="FK15" t="n">
-        <v>4.32334218203323e-06</v>
+        <v>2.893361306632869e-05</v>
       </c>
       <c r="FL15" t="n">
-        <v>2.139196112693753e-05</v>
+        <v>1.242128928424791e-05</v>
       </c>
       <c r="FM15" t="n">
-        <v>3.430731567277689e-06</v>
+        <v>3.784141517826356e-05</v>
       </c>
       <c r="FN15" t="n">
-        <v>4.911645646643592e-06</v>
+        <v>1.553362562844995e-05</v>
       </c>
       <c r="FO15" t="n">
-        <v>4.680686743085971e-06</v>
+        <v>3.699460285133682e-05</v>
       </c>
       <c r="FP15" t="n">
-        <v>1.506444368715165e-05</v>
+        <v>6.940004823263735e-05</v>
       </c>
       <c r="FQ15" t="n">
-        <v>9.05071065062657e-05</v>
+        <v>2.840687193383928e-05</v>
       </c>
       <c r="FR15" t="n">
-        <v>1.833240094128996e-05</v>
+        <v>4.778662696480751e-05</v>
       </c>
       <c r="FS15" t="n">
-        <v>1.646850432734936e-05</v>
+        <v>7.616729271830991e-05</v>
       </c>
       <c r="FT15" t="n">
-        <v>1.259535019926261e-05</v>
+        <v>1.764171611284837e-05</v>
       </c>
       <c r="FU15" t="n">
-        <v>1.906370380311273e-05</v>
+        <v>6.488937651738524e-05</v>
       </c>
       <c r="FV15" t="n">
-        <v>1.23629615700338e-06</v>
+        <v>1.515650728833862e-05</v>
       </c>
       <c r="FW15" t="n">
-        <v>1.877564045571489e-06</v>
+        <v>9.527648217044771e-06</v>
       </c>
       <c r="FX15" t="n">
-        <v>3.303574885649141e-06</v>
+        <v>2.617268728499766e-05</v>
       </c>
       <c r="FY15" t="n">
-        <v>1.942215749295428e-05</v>
+        <v>7.362080941675231e-05</v>
       </c>
       <c r="FZ15" t="n">
-        <v>1.135921047534794e-05</v>
+        <v>2.709897307795472e-05</v>
       </c>
       <c r="GA15" t="n">
-        <v>9.046016202773899e-07</v>
+        <v>1.115941995522007e-05</v>
       </c>
       <c r="GB15" t="n">
-        <v>7.846129847166594e-06</v>
+        <v>7.540901151514845e-06</v>
       </c>
       <c r="GC15" t="n">
-        <v>2.302191751368809e-05</v>
+        <v>1.209079346153885e-05</v>
       </c>
       <c r="GD15" t="n">
-        <v>2.07782013603719e-05</v>
+        <v>4.344449553173035e-05</v>
       </c>
       <c r="GE15" t="n">
-        <v>4.030340278404765e-06</v>
+        <v>9.199593478115276e-07</v>
       </c>
       <c r="GF15" t="n">
-        <v>3.003410256496863e-06</v>
+        <v>4.217899913783185e-05</v>
       </c>
       <c r="GG15" t="n">
-        <v>8.319204425788485e-06</v>
+        <v>2.132562076440081e-05</v>
       </c>
     </row>
   </sheetData>
